--- a/data/vgp_database/Mogollon-Datil_volcanics.xlsx
+++ b/data/vgp_database/Mogollon-Datil_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49BBA46-DF0E-0848-B47D-0B81436B8B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0693D-20E5-FF4A-B614-9F0A9B0D38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="855">
   <si>
     <t>Name:</t>
   </si>
@@ -921,9 +921,6 @@
   </si>
   <si>
     <t>Pyroclastite</t>
-  </si>
-  <si>
-    <t>Pyroclastic Flow</t>
   </si>
   <si>
     <t>Volcanic Dome</t>
@@ -3178,12 +3175,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3402,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11:AP569"/>
+    <sheetView tabSelected="1" topLeftCell="R33" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4172,13 +4169,13 @@
       <c r="Y10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="97" t="s">
+      <c r="Z10" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="AA10" s="97" t="s">
+      <c r="AA10" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="AB10" s="97" t="s">
+      <c r="AB10" s="95" t="s">
         <v>289</v>
       </c>
       <c r="AC10" s="4" t="s">
@@ -4220,7 +4217,7 @@
       <c r="AO10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP10" s="97" t="s">
+      <c r="AP10" s="95" t="s">
         <v>286</v>
       </c>
       <c r="AQ10" s="3"/>
@@ -4325,8 +4322,8 @@
       <c r="AO11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP11" s="98" t="s">
-        <v>297</v>
+      <c r="AP11" s="96" t="s">
+        <v>296</v>
       </c>
       <c r="AQ11" s="10"/>
     </row>
@@ -4430,8 +4427,8 @@
       <c r="AO12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP12" s="98" t="s">
-        <v>298</v>
+      <c r="AP12" s="96" t="s">
+        <v>297</v>
       </c>
       <c r="AQ12" s="10"/>
     </row>
@@ -4499,7 +4496,7 @@
         <v>290</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>292</v>
@@ -4535,8 +4532,8 @@
       <c r="AO13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP13" s="98" t="s">
-        <v>299</v>
+      <c r="AP13" s="96" t="s">
+        <v>298</v>
       </c>
       <c r="AQ13" s="10"/>
     </row>
@@ -4642,8 +4639,8 @@
       <c r="AO14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP14" s="98" t="s">
-        <v>300</v>
+      <c r="AP14" s="96" t="s">
+        <v>299</v>
       </c>
       <c r="AQ14" s="10"/>
     </row>
@@ -4747,8 +4744,8 @@
       <c r="AO15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="98" t="s">
-        <v>301</v>
+      <c r="AP15" s="96" t="s">
+        <v>300</v>
       </c>
       <c r="AQ15" s="10"/>
     </row>
@@ -4852,8 +4849,8 @@
       <c r="AO16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP16" s="98" t="s">
-        <v>302</v>
+      <c r="AP16" s="96" t="s">
+        <v>301</v>
       </c>
       <c r="AQ16" s="10"/>
     </row>
@@ -4957,8 +4954,8 @@
       <c r="AO17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP17" s="98" t="s">
-        <v>303</v>
+      <c r="AP17" s="96" t="s">
+        <v>302</v>
       </c>
       <c r="AQ17" s="10"/>
     </row>
@@ -5066,8 +5063,8 @@
       <c r="AO18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP18" s="98" t="s">
-        <v>304</v>
+      <c r="AP18" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -5173,8 +5170,8 @@
       <c r="AO19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP19" s="98" t="s">
-        <v>305</v>
+      <c r="AP19" s="96" t="s">
+        <v>304</v>
       </c>
       <c r="AQ19" s="10"/>
     </row>
@@ -5280,8 +5277,8 @@
       <c r="AO20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP20" s="98" t="s">
-        <v>306</v>
+      <c r="AP20" s="96" t="s">
+        <v>305</v>
       </c>
       <c r="AQ20" s="10"/>
     </row>
@@ -5387,8 +5384,8 @@
       <c r="AO21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP21" s="98" t="s">
-        <v>307</v>
+      <c r="AP21" s="96" t="s">
+        <v>306</v>
       </c>
       <c r="AQ21" s="10"/>
     </row>
@@ -5494,8 +5491,8 @@
       <c r="AO22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP22" s="98" t="s">
-        <v>308</v>
+      <c r="AP22" s="96" t="s">
+        <v>307</v>
       </c>
       <c r="AQ22" s="10"/>
     </row>
@@ -5565,7 +5562,7 @@
         <v>290</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>292</v>
@@ -5601,8 +5598,8 @@
       <c r="AO23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP23" s="98" t="s">
-        <v>309</v>
+      <c r="AP23" s="96" t="s">
+        <v>308</v>
       </c>
       <c r="AQ23" s="10"/>
     </row>
@@ -5708,8 +5705,8 @@
       <c r="AO24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP24" s="98" t="s">
-        <v>310</v>
+      <c r="AP24" s="96" t="s">
+        <v>309</v>
       </c>
       <c r="AQ24" s="10"/>
     </row>
@@ -5817,8 +5814,8 @@
       <c r="AO25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP25" s="98" t="s">
-        <v>311</v>
+      <c r="AP25" s="96" t="s">
+        <v>310</v>
       </c>
       <c r="AQ25" s="10"/>
     </row>
@@ -5924,8 +5921,8 @@
       <c r="AO26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP26" s="98" t="s">
-        <v>312</v>
+      <c r="AP26" s="96" t="s">
+        <v>311</v>
       </c>
       <c r="AQ26" s="10"/>
     </row>
@@ -6031,8 +6028,8 @@
       <c r="AO27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP27" s="98" t="s">
-        <v>313</v>
+      <c r="AP27" s="96" t="s">
+        <v>312</v>
       </c>
       <c r="AQ27" s="10"/>
     </row>
@@ -6138,8 +6135,8 @@
       <c r="AO28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP28" s="98" t="s">
-        <v>314</v>
+      <c r="AP28" s="96" t="s">
+        <v>313</v>
       </c>
       <c r="AQ28" s="10"/>
     </row>
@@ -6243,8 +6240,8 @@
       <c r="AO29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP29" s="98" t="s">
-        <v>315</v>
+      <c r="AP29" s="96" t="s">
+        <v>314</v>
       </c>
       <c r="AQ29" s="10"/>
     </row>
@@ -6350,8 +6347,8 @@
       <c r="AO30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP30" s="98" t="s">
-        <v>316</v>
+      <c r="AP30" s="96" t="s">
+        <v>315</v>
       </c>
       <c r="AQ30" s="10"/>
     </row>
@@ -6457,8 +6454,8 @@
       <c r="AO31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP31" s="98" t="s">
-        <v>317</v>
+      <c r="AP31" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="AQ31" s="10"/>
     </row>
@@ -6566,8 +6563,8 @@
       <c r="AO32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP32" s="98" t="s">
-        <v>318</v>
+      <c r="AP32" s="96" t="s">
+        <v>317</v>
       </c>
       <c r="AQ32" s="10"/>
     </row>
@@ -6675,8 +6672,8 @@
       <c r="AO33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP33" s="98" t="s">
-        <v>319</v>
+      <c r="AP33" s="96" t="s">
+        <v>318</v>
       </c>
       <c r="AQ33" s="10"/>
     </row>
@@ -6782,8 +6779,8 @@
       <c r="AO34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP34" s="98" t="s">
-        <v>320</v>
+      <c r="AP34" s="96" t="s">
+        <v>319</v>
       </c>
       <c r="AQ34" s="10"/>
     </row>
@@ -6889,8 +6886,8 @@
       <c r="AO35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP35" s="98" t="s">
-        <v>321</v>
+      <c r="AP35" s="96" t="s">
+        <v>320</v>
       </c>
       <c r="AQ35" s="10"/>
     </row>
@@ -6996,8 +6993,8 @@
       <c r="AO36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP36" s="98" t="s">
-        <v>322</v>
+      <c r="AP36" s="96" t="s">
+        <v>321</v>
       </c>
       <c r="AQ36" s="10"/>
     </row>
@@ -7103,8 +7100,8 @@
       <c r="AO37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP37" s="98" t="s">
-        <v>323</v>
+      <c r="AP37" s="96" t="s">
+        <v>322</v>
       </c>
       <c r="AQ37" s="10"/>
     </row>
@@ -7210,8 +7207,8 @@
       <c r="AO38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP38" s="98" t="s">
-        <v>324</v>
+      <c r="AP38" s="96" t="s">
+        <v>323</v>
       </c>
       <c r="AQ38" s="10"/>
     </row>
@@ -7317,8 +7314,8 @@
       <c r="AO39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP39" s="98" t="s">
-        <v>325</v>
+      <c r="AP39" s="96" t="s">
+        <v>324</v>
       </c>
       <c r="AQ39" s="10"/>
     </row>
@@ -7424,8 +7421,8 @@
       <c r="AO40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP40" s="98" t="s">
-        <v>326</v>
+      <c r="AP40" s="96" t="s">
+        <v>325</v>
       </c>
       <c r="AQ40" s="10"/>
     </row>
@@ -7529,8 +7526,8 @@
       <c r="AO41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP41" s="98" t="s">
-        <v>327</v>
+      <c r="AP41" s="96" t="s">
+        <v>326</v>
       </c>
       <c r="AQ41" s="10"/>
     </row>
@@ -7632,8 +7629,8 @@
       <c r="AO42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP42" s="98" t="s">
-        <v>328</v>
+      <c r="AP42" s="96" t="s">
+        <v>327</v>
       </c>
       <c r="AQ42" s="10"/>
     </row>
@@ -7703,7 +7700,7 @@
         <v>290</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB43" s="6" t="s">
         <v>292</v>
@@ -7739,8 +7736,8 @@
       <c r="AO43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP43" s="98" t="s">
-        <v>329</v>
+      <c r="AP43" s="96" t="s">
+        <v>328</v>
       </c>
       <c r="AQ43" s="10"/>
     </row>
@@ -7806,7 +7803,7 @@
         <v>290</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB44" s="6" t="s">
         <v>292</v>
@@ -7844,8 +7841,8 @@
       <c r="AO44" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP44" s="98" t="s">
-        <v>330</v>
+      <c r="AP44" s="96" t="s">
+        <v>329</v>
       </c>
       <c r="AQ44" s="10"/>
     </row>
@@ -7915,7 +7912,7 @@
         <v>290</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB45" s="6" t="s">
         <v>292</v>
@@ -7953,8 +7950,8 @@
       <c r="AO45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP45" s="98" t="s">
-        <v>331</v>
+      <c r="AP45" s="96" t="s">
+        <v>330</v>
       </c>
       <c r="AQ45" s="10"/>
     </row>
@@ -8024,7 +8021,7 @@
         <v>290</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB46" s="6" t="s">
         <v>292</v>
@@ -8062,8 +8059,8 @@
       <c r="AO46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP46" s="98" t="s">
-        <v>332</v>
+      <c r="AP46" s="96" t="s">
+        <v>331</v>
       </c>
       <c r="AQ46" s="10"/>
     </row>
@@ -8133,7 +8130,7 @@
         <v>290</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB47" s="6" t="s">
         <v>292</v>
@@ -8169,8 +8166,8 @@
       <c r="AO47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP47" s="98" t="s">
-        <v>333</v>
+      <c r="AP47" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="AQ47" s="10"/>
     </row>
@@ -8240,7 +8237,7 @@
         <v>290</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB48" s="6" t="s">
         <v>292</v>
@@ -8278,8 +8275,8 @@
       <c r="AO48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP48" s="98" t="s">
-        <v>334</v>
+      <c r="AP48" s="96" t="s">
+        <v>333</v>
       </c>
       <c r="AQ48" s="10"/>
     </row>
@@ -8349,7 +8346,7 @@
         <v>290</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB49" s="6" t="s">
         <v>292</v>
@@ -8387,8 +8384,8 @@
       <c r="AO49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP49" s="98" t="s">
-        <v>335</v>
+      <c r="AP49" s="96" t="s">
+        <v>334</v>
       </c>
       <c r="AQ49" s="10"/>
     </row>
@@ -8458,7 +8455,7 @@
         <v>290</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB50" s="6" t="s">
         <v>292</v>
@@ -8494,8 +8491,8 @@
       <c r="AO50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP50" s="98" t="s">
-        <v>336</v>
+      <c r="AP50" s="96" t="s">
+        <v>335</v>
       </c>
       <c r="AQ50" s="10"/>
     </row>
@@ -8599,8 +8596,8 @@
       <c r="AO51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP51" s="98" t="s">
-        <v>337</v>
+      <c r="AP51" s="96" t="s">
+        <v>336</v>
       </c>
       <c r="AQ51" s="10"/>
     </row>
@@ -8668,7 +8665,7 @@
         <v>290</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB52" s="6" t="s">
         <v>292</v>
@@ -8706,8 +8703,8 @@
       <c r="AO52" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP52" s="98" t="s">
-        <v>338</v>
+      <c r="AP52" s="96" t="s">
+        <v>337</v>
       </c>
       <c r="AQ52" s="10"/>
     </row>
@@ -8775,7 +8772,7 @@
         <v>290</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB53" s="6" t="s">
         <v>292</v>
@@ -8813,8 +8810,8 @@
       <c r="AO53" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP53" s="98" t="s">
-        <v>339</v>
+      <c r="AP53" s="96" t="s">
+        <v>338</v>
       </c>
       <c r="AQ53" s="10"/>
     </row>
@@ -8882,7 +8879,7 @@
         <v>290</v>
       </c>
       <c r="AA54" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB54" s="6" t="s">
         <v>292</v>
@@ -8918,8 +8915,8 @@
       <c r="AO54" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP54" s="98" t="s">
-        <v>340</v>
+      <c r="AP54" s="96" t="s">
+        <v>339</v>
       </c>
       <c r="AQ54" s="10"/>
     </row>
@@ -8989,7 +8986,7 @@
         <v>290</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB55" s="6" t="s">
         <v>292</v>
@@ -9027,8 +9024,8 @@
       <c r="AO55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP55" s="98" t="s">
-        <v>341</v>
+      <c r="AP55" s="96" t="s">
+        <v>340</v>
       </c>
       <c r="AQ55" s="10"/>
     </row>
@@ -9098,7 +9095,7 @@
         <v>290</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB56" s="6" t="s">
         <v>292</v>
@@ -9136,8 +9133,8 @@
       <c r="AO56" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP56" s="98" t="s">
-        <v>342</v>
+      <c r="AP56" s="96" t="s">
+        <v>341</v>
       </c>
       <c r="AQ56" s="10"/>
     </row>
@@ -9207,7 +9204,7 @@
         <v>290</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB57" s="6" t="s">
         <v>292</v>
@@ -9243,8 +9240,8 @@
       <c r="AO57" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP57" s="98" t="s">
-        <v>343</v>
+      <c r="AP57" s="96" t="s">
+        <v>342</v>
       </c>
       <c r="AQ57" s="10"/>
     </row>
@@ -9314,7 +9311,7 @@
         <v>290</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB58" s="6" t="s">
         <v>292</v>
@@ -9350,8 +9347,8 @@
       <c r="AO58" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP58" s="98" t="s">
-        <v>344</v>
+      <c r="AP58" s="96" t="s">
+        <v>343</v>
       </c>
       <c r="AQ58" s="10"/>
     </row>
@@ -9421,7 +9418,7 @@
         <v>290</v>
       </c>
       <c r="AA59" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB59" s="6" t="s">
         <v>292</v>
@@ -9459,8 +9456,8 @@
       <c r="AO59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP59" s="98" t="s">
-        <v>345</v>
+      <c r="AP59" s="96" t="s">
+        <v>344</v>
       </c>
       <c r="AQ59" s="10"/>
     </row>
@@ -9530,7 +9527,7 @@
         <v>290</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB60" s="6" t="s">
         <v>292</v>
@@ -9568,8 +9565,8 @@
       <c r="AO60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP60" s="98" t="s">
-        <v>346</v>
+      <c r="AP60" s="96" t="s">
+        <v>345</v>
       </c>
       <c r="AQ60" s="10"/>
     </row>
@@ -9639,7 +9636,7 @@
         <v>290</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB61" s="6" t="s">
         <v>292</v>
@@ -9675,8 +9672,8 @@
       <c r="AO61" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP61" s="98" t="s">
-        <v>347</v>
+      <c r="AP61" s="96" t="s">
+        <v>346</v>
       </c>
       <c r="AQ61" s="10"/>
     </row>
@@ -9746,7 +9743,7 @@
         <v>290</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB62" s="6" t="s">
         <v>292</v>
@@ -9784,8 +9781,8 @@
       <c r="AO62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP62" s="98" t="s">
-        <v>348</v>
+      <c r="AP62" s="96" t="s">
+        <v>347</v>
       </c>
       <c r="AQ62" s="10"/>
     </row>
@@ -9855,7 +9852,7 @@
         <v>290</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB63" s="6" t="s">
         <v>292</v>
@@ -9893,8 +9890,8 @@
       <c r="AO63" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP63" s="98" t="s">
-        <v>349</v>
+      <c r="AP63" s="96" t="s">
+        <v>348</v>
       </c>
       <c r="AQ63" s="10"/>
     </row>
@@ -9964,7 +9961,7 @@
         <v>290</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB64" s="6" t="s">
         <v>292</v>
@@ -10002,8 +9999,8 @@
       <c r="AO64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP64" s="98" t="s">
-        <v>350</v>
+      <c r="AP64" s="96" t="s">
+        <v>349</v>
       </c>
       <c r="AQ64" s="10"/>
     </row>
@@ -10073,7 +10070,7 @@
         <v>290</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB65" s="6" t="s">
         <v>292</v>
@@ -10111,8 +10108,8 @@
       <c r="AO65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP65" s="98" t="s">
-        <v>351</v>
+      <c r="AP65" s="96" t="s">
+        <v>350</v>
       </c>
       <c r="AQ65" s="10"/>
     </row>
@@ -10182,7 +10179,7 @@
         <v>290</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB66" s="6" t="s">
         <v>292</v>
@@ -10218,8 +10215,8 @@
       <c r="AO66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP66" s="98" t="s">
-        <v>352</v>
+      <c r="AP66" s="96" t="s">
+        <v>351</v>
       </c>
       <c r="AQ66" s="10"/>
     </row>
@@ -10289,7 +10286,7 @@
         <v>290</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB67" s="6" t="s">
         <v>292</v>
@@ -10327,8 +10324,8 @@
       <c r="AO67" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP67" s="98" t="s">
-        <v>353</v>
+      <c r="AP67" s="96" t="s">
+        <v>352</v>
       </c>
       <c r="AQ67" s="10"/>
     </row>
@@ -10398,7 +10395,7 @@
         <v>290</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB68" s="6" t="s">
         <v>292</v>
@@ -10436,8 +10433,8 @@
       <c r="AO68" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP68" s="98" t="s">
-        <v>354</v>
+      <c r="AP68" s="96" t="s">
+        <v>353</v>
       </c>
       <c r="AQ68" s="10"/>
     </row>
@@ -10507,7 +10504,7 @@
         <v>290</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB69" s="6" t="s">
         <v>292</v>
@@ -10543,8 +10540,8 @@
       <c r="AO69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP69" s="98" t="s">
-        <v>355</v>
+      <c r="AP69" s="96" t="s">
+        <v>354</v>
       </c>
       <c r="AQ69" s="10"/>
     </row>
@@ -10614,7 +10611,7 @@
         <v>290</v>
       </c>
       <c r="AA70" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB70" s="6" t="s">
         <v>292</v>
@@ -10652,8 +10649,8 @@
       <c r="AO70" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP70" s="98" t="s">
-        <v>356</v>
+      <c r="AP70" s="96" t="s">
+        <v>355</v>
       </c>
       <c r="AQ70" s="10"/>
     </row>
@@ -10723,7 +10720,7 @@
         <v>290</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB71" s="6" t="s">
         <v>292</v>
@@ -10761,8 +10758,8 @@
       <c r="AO71" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP71" s="98" t="s">
-        <v>357</v>
+      <c r="AP71" s="96" t="s">
+        <v>356</v>
       </c>
       <c r="AQ71" s="10"/>
     </row>
@@ -10832,7 +10829,7 @@
         <v>290</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB72" s="6" t="s">
         <v>292</v>
@@ -10868,8 +10865,8 @@
       <c r="AO72" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP72" s="98" t="s">
-        <v>358</v>
+      <c r="AP72" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="AQ72" s="10"/>
     </row>
@@ -10939,7 +10936,7 @@
         <v>290</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB73" s="6" t="s">
         <v>292</v>
@@ -10975,8 +10972,8 @@
       <c r="AO73" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP73" s="98" t="s">
-        <v>359</v>
+      <c r="AP73" s="96" t="s">
+        <v>358</v>
       </c>
       <c r="AQ73" s="10"/>
     </row>
@@ -11042,7 +11039,7 @@
         <v>290</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB74" s="6" t="s">
         <v>292</v>
@@ -11080,8 +11077,8 @@
       <c r="AO74" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP74" s="98" t="s">
-        <v>360</v>
+      <c r="AP74" s="96" t="s">
+        <v>359</v>
       </c>
       <c r="AQ74" s="10"/>
     </row>
@@ -11149,7 +11146,7 @@
         <v>290</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB75" s="6" t="s">
         <v>292</v>
@@ -11185,8 +11182,8 @@
       <c r="AO75" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP75" s="98" t="s">
-        <v>361</v>
+      <c r="AP75" s="96" t="s">
+        <v>360</v>
       </c>
       <c r="AQ75" s="10"/>
     </row>
@@ -11254,7 +11251,7 @@
         <v>290</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB76" s="6" t="s">
         <v>292</v>
@@ -11290,8 +11287,8 @@
       <c r="AO76" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP76" s="98" t="s">
-        <v>362</v>
+      <c r="AP76" s="96" t="s">
+        <v>361</v>
       </c>
       <c r="AQ76" s="10"/>
     </row>
@@ -11359,7 +11356,7 @@
         <v>290</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB77" s="6" t="s">
         <v>292</v>
@@ -11395,8 +11392,8 @@
       <c r="AO77" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP77" s="98" t="s">
-        <v>363</v>
+      <c r="AP77" s="96" t="s">
+        <v>362</v>
       </c>
       <c r="AQ77" s="10"/>
     </row>
@@ -11464,7 +11461,7 @@
         <v>290</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>292</v>
@@ -11500,8 +11497,8 @@
       <c r="AO78" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP78" s="98" t="s">
-        <v>364</v>
+      <c r="AP78" s="96" t="s">
+        <v>363</v>
       </c>
       <c r="AQ78" s="10"/>
     </row>
@@ -11571,7 +11568,7 @@
         <v>290</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB79" s="6" t="s">
         <v>292</v>
@@ -11609,8 +11606,8 @@
       <c r="AO79" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP79" s="98" t="s">
-        <v>365</v>
+      <c r="AP79" s="96" t="s">
+        <v>364</v>
       </c>
       <c r="AQ79" s="10"/>
     </row>
@@ -11680,7 +11677,7 @@
         <v>290</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB80" s="6" t="s">
         <v>292</v>
@@ -11718,8 +11715,8 @@
       <c r="AO80" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP80" s="98" t="s">
-        <v>366</v>
+      <c r="AP80" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="AQ80" s="10"/>
     </row>
@@ -11789,7 +11786,7 @@
         <v>290</v>
       </c>
       <c r="AA81" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB81" s="6" t="s">
         <v>292</v>
@@ -11825,8 +11822,8 @@
       <c r="AO81" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP81" s="98" t="s">
-        <v>367</v>
+      <c r="AP81" s="96" t="s">
+        <v>366</v>
       </c>
       <c r="AQ81" s="10"/>
     </row>
@@ -11896,7 +11893,7 @@
         <v>290</v>
       </c>
       <c r="AA82" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB82" s="6" t="s">
         <v>292</v>
@@ -11932,8 +11929,8 @@
       <c r="AO82" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP82" s="98" t="s">
-        <v>368</v>
+      <c r="AP82" s="96" t="s">
+        <v>367</v>
       </c>
       <c r="AQ82" s="10"/>
     </row>
@@ -12003,7 +12000,7 @@
         <v>290</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB83" s="6" t="s">
         <v>292</v>
@@ -12039,8 +12036,8 @@
       <c r="AO83" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP83" s="98" t="s">
-        <v>369</v>
+      <c r="AP83" s="96" t="s">
+        <v>368</v>
       </c>
       <c r="AQ83" s="10"/>
     </row>
@@ -12110,7 +12107,7 @@
         <v>290</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB84" s="6" t="s">
         <v>292</v>
@@ -12146,8 +12143,8 @@
       <c r="AO84" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP84" s="98" t="s">
-        <v>370</v>
+      <c r="AP84" s="96" t="s">
+        <v>369</v>
       </c>
       <c r="AQ84" s="10"/>
     </row>
@@ -12217,7 +12214,7 @@
         <v>290</v>
       </c>
       <c r="AA85" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB85" s="6" t="s">
         <v>292</v>
@@ -12253,8 +12250,8 @@
       <c r="AO85" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP85" s="98" t="s">
-        <v>371</v>
+      <c r="AP85" s="96" t="s">
+        <v>370</v>
       </c>
       <c r="AQ85" s="10"/>
     </row>
@@ -12324,7 +12321,7 @@
         <v>290</v>
       </c>
       <c r="AA86" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB86" s="6" t="s">
         <v>292</v>
@@ -12360,8 +12357,8 @@
       <c r="AO86" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP86" s="98" t="s">
-        <v>372</v>
+      <c r="AP86" s="96" t="s">
+        <v>371</v>
       </c>
       <c r="AQ86" s="10"/>
     </row>
@@ -12431,7 +12428,7 @@
         <v>290</v>
       </c>
       <c r="AA87" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB87" s="6" t="s">
         <v>292</v>
@@ -12469,8 +12466,8 @@
       <c r="AO87" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP87" s="98" t="s">
-        <v>373</v>
+      <c r="AP87" s="96" t="s">
+        <v>372</v>
       </c>
       <c r="AQ87" s="10"/>
     </row>
@@ -12574,8 +12571,8 @@
       <c r="AO88" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP88" s="98" t="s">
-        <v>374</v>
+      <c r="AP88" s="96" t="s">
+        <v>373</v>
       </c>
       <c r="AQ88" s="10"/>
     </row>
@@ -12679,8 +12676,8 @@
       <c r="AO89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP89" s="98" t="s">
-        <v>375</v>
+      <c r="AP89" s="96" t="s">
+        <v>374</v>
       </c>
       <c r="AQ89" s="10"/>
     </row>
@@ -12782,8 +12779,8 @@
       <c r="AO90" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP90" s="98" t="s">
-        <v>376</v>
+      <c r="AP90" s="96" t="s">
+        <v>375</v>
       </c>
       <c r="AQ90" s="10"/>
     </row>
@@ -12887,8 +12884,8 @@
       <c r="AO91" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP91" s="98" t="s">
-        <v>377</v>
+      <c r="AP91" s="96" t="s">
+        <v>376</v>
       </c>
       <c r="AQ91" s="10"/>
     </row>
@@ -12990,8 +12987,8 @@
       <c r="AO92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP92" s="98" t="s">
-        <v>378</v>
+      <c r="AP92" s="96" t="s">
+        <v>377</v>
       </c>
       <c r="AQ92" s="10"/>
     </row>
@@ -13097,8 +13094,8 @@
       <c r="AO93" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP93" s="98" t="s">
-        <v>379</v>
+      <c r="AP93" s="96" t="s">
+        <v>378</v>
       </c>
       <c r="AQ93" s="10"/>
     </row>
@@ -13168,7 +13165,7 @@
         <v>290</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB94" s="6" t="s">
         <v>292</v>
@@ -13204,8 +13201,8 @@
       <c r="AO94" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP94" s="98" t="s">
-        <v>380</v>
+      <c r="AP94" s="96" t="s">
+        <v>379</v>
       </c>
       <c r="AQ94" s="10"/>
     </row>
@@ -13275,7 +13272,7 @@
         <v>290</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB95" s="6" t="s">
         <v>292</v>
@@ -13313,8 +13310,8 @@
       <c r="AO95" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP95" s="98" t="s">
-        <v>381</v>
+      <c r="AP95" s="96" t="s">
+        <v>380</v>
       </c>
       <c r="AQ95" s="10"/>
     </row>
@@ -13384,7 +13381,7 @@
         <v>290</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB96" s="6" t="s">
         <v>292</v>
@@ -13422,8 +13419,8 @@
       <c r="AO96" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP96" s="98" t="s">
-        <v>382</v>
+      <c r="AP96" s="96" t="s">
+        <v>381</v>
       </c>
       <c r="AQ96" s="10"/>
     </row>
@@ -13493,7 +13490,7 @@
         <v>290</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB97" s="6" t="s">
         <v>292</v>
@@ -13531,8 +13528,8 @@
       <c r="AO97" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP97" s="98" t="s">
-        <v>383</v>
+      <c r="AP97" s="96" t="s">
+        <v>382</v>
       </c>
       <c r="AQ97" s="10"/>
     </row>
@@ -13602,7 +13599,7 @@
         <v>290</v>
       </c>
       <c r="AA98" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB98" s="6" t="s">
         <v>292</v>
@@ -13640,8 +13637,8 @@
       <c r="AO98" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP98" s="98" t="s">
-        <v>384</v>
+      <c r="AP98" s="96" t="s">
+        <v>383</v>
       </c>
       <c r="AQ98" s="10"/>
     </row>
@@ -13711,7 +13708,7 @@
         <v>290</v>
       </c>
       <c r="AA99" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB99" s="6" t="s">
         <v>292</v>
@@ -13747,8 +13744,8 @@
       <c r="AO99" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP99" s="98" t="s">
-        <v>385</v>
+      <c r="AP99" s="96" t="s">
+        <v>384</v>
       </c>
       <c r="AQ99" s="10"/>
     </row>
@@ -13820,7 +13817,7 @@
         <v>290</v>
       </c>
       <c r="AA100" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB100" s="6" t="s">
         <v>292</v>
@@ -13856,8 +13853,8 @@
       <c r="AO100" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP100" s="98" t="s">
-        <v>386</v>
+      <c r="AP100" s="96" t="s">
+        <v>385</v>
       </c>
       <c r="AQ100" s="10"/>
     </row>
@@ -13927,7 +13924,7 @@
         <v>290</v>
       </c>
       <c r="AA101" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB101" s="6" t="s">
         <v>292</v>
@@ -13963,8 +13960,8 @@
       <c r="AO101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP101" s="98" t="s">
-        <v>387</v>
+      <c r="AP101" s="96" t="s">
+        <v>386</v>
       </c>
       <c r="AQ101" s="10"/>
     </row>
@@ -14068,8 +14065,8 @@
       <c r="AO102" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP102" s="98" t="s">
-        <v>388</v>
+      <c r="AP102" s="96" t="s">
+        <v>387</v>
       </c>
       <c r="AQ102" s="10"/>
     </row>
@@ -14173,8 +14170,8 @@
       <c r="AO103" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP103" s="98" t="s">
-        <v>389</v>
+      <c r="AP103" s="96" t="s">
+        <v>388</v>
       </c>
       <c r="AQ103" s="10"/>
     </row>
@@ -14280,8 +14277,8 @@
       <c r="AO104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP104" s="98" t="s">
-        <v>390</v>
+      <c r="AP104" s="96" t="s">
+        <v>389</v>
       </c>
       <c r="AQ104" s="10"/>
     </row>
@@ -14347,7 +14344,7 @@
         <v>290</v>
       </c>
       <c r="AA105" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB105" s="6" t="s">
         <v>292</v>
@@ -14385,8 +14382,8 @@
       <c r="AO105" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP105" s="98" t="s">
-        <v>391</v>
+      <c r="AP105" s="96" t="s">
+        <v>390</v>
       </c>
       <c r="AQ105" s="10"/>
     </row>
@@ -14456,7 +14453,7 @@
         <v>290</v>
       </c>
       <c r="AA106" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB106" s="6" t="s">
         <v>292</v>
@@ -14492,8 +14489,8 @@
       <c r="AO106" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP106" s="98" t="s">
-        <v>392</v>
+      <c r="AP106" s="96" t="s">
+        <v>391</v>
       </c>
       <c r="AQ106" s="10"/>
     </row>
@@ -14597,8 +14594,8 @@
       <c r="AO107" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP107" s="98" t="s">
-        <v>393</v>
+      <c r="AP107" s="96" t="s">
+        <v>392</v>
       </c>
       <c r="AQ107" s="10"/>
     </row>
@@ -14704,8 +14701,8 @@
       <c r="AO108" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP108" s="98" t="s">
-        <v>394</v>
+      <c r="AP108" s="96" t="s">
+        <v>393</v>
       </c>
       <c r="AQ108" s="10"/>
     </row>
@@ -14809,8 +14806,8 @@
       <c r="AO109" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="AP109" s="98" t="s">
-        <v>395</v>
+      <c r="AP109" s="96" t="s">
+        <v>394</v>
       </c>
       <c r="AQ109" s="10"/>
     </row>
@@ -14914,8 +14911,8 @@
       <c r="AO110" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP110" s="98" t="s">
-        <v>396</v>
+      <c r="AP110" s="96" t="s">
+        <v>395</v>
       </c>
       <c r="AQ110" s="10"/>
     </row>
@@ -15019,8 +15016,8 @@
       <c r="AO111" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP111" s="98" t="s">
-        <v>397</v>
+      <c r="AP111" s="96" t="s">
+        <v>396</v>
       </c>
       <c r="AQ111" s="10"/>
     </row>
@@ -15124,8 +15121,8 @@
       <c r="AO112" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP112" s="98" t="s">
-        <v>398</v>
+      <c r="AP112" s="96" t="s">
+        <v>397</v>
       </c>
       <c r="AQ112" s="10"/>
     </row>
@@ -15229,8 +15226,8 @@
       <c r="AO113" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP113" s="98" t="s">
-        <v>399</v>
+      <c r="AP113" s="96" t="s">
+        <v>398</v>
       </c>
       <c r="AQ113" s="10"/>
     </row>
@@ -15334,8 +15331,8 @@
       <c r="AO114" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP114" s="98" t="s">
-        <v>400</v>
+      <c r="AP114" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="AQ114" s="10"/>
     </row>
@@ -15439,8 +15436,8 @@
       <c r="AO115" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP115" s="98" t="s">
-        <v>401</v>
+      <c r="AP115" s="96" t="s">
+        <v>400</v>
       </c>
       <c r="AQ115" s="10"/>
     </row>
@@ -15544,8 +15541,8 @@
       <c r="AO116" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP116" s="98" t="s">
-        <v>402</v>
+      <c r="AP116" s="96" t="s">
+        <v>401</v>
       </c>
       <c r="AQ116" s="10"/>
     </row>
@@ -15649,8 +15646,8 @@
       <c r="AO117" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP117" s="98" t="s">
-        <v>403</v>
+      <c r="AP117" s="96" t="s">
+        <v>402</v>
       </c>
       <c r="AQ117" s="10"/>
     </row>
@@ -15754,8 +15751,8 @@
       <c r="AO118" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP118" s="98" t="s">
-        <v>404</v>
+      <c r="AP118" s="96" t="s">
+        <v>403</v>
       </c>
       <c r="AQ118" s="10"/>
     </row>
@@ -15859,8 +15856,8 @@
       <c r="AO119" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP119" s="98" t="s">
-        <v>405</v>
+      <c r="AP119" s="96" t="s">
+        <v>404</v>
       </c>
       <c r="AQ119" s="10"/>
     </row>
@@ -15964,8 +15961,8 @@
       <c r="AO120" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP120" s="98" t="s">
-        <v>406</v>
+      <c r="AP120" s="96" t="s">
+        <v>405</v>
       </c>
       <c r="AQ120" s="10"/>
     </row>
@@ -16069,8 +16066,8 @@
       <c r="AO121" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP121" s="98" t="s">
-        <v>407</v>
+      <c r="AP121" s="96" t="s">
+        <v>406</v>
       </c>
       <c r="AQ121" s="10"/>
     </row>
@@ -16174,8 +16171,8 @@
       <c r="AO122" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP122" s="98" t="s">
-        <v>408</v>
+      <c r="AP122" s="96" t="s">
+        <v>407</v>
       </c>
       <c r="AQ122" s="10"/>
     </row>
@@ -16279,8 +16276,8 @@
       <c r="AO123" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP123" s="98" t="s">
-        <v>409</v>
+      <c r="AP123" s="96" t="s">
+        <v>408</v>
       </c>
       <c r="AQ123" s="10"/>
     </row>
@@ -16384,8 +16381,8 @@
       <c r="AO124" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP124" s="98" t="s">
-        <v>410</v>
+      <c r="AP124" s="96" t="s">
+        <v>409</v>
       </c>
       <c r="AQ124" s="10"/>
     </row>
@@ -16489,8 +16486,8 @@
       <c r="AO125" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP125" s="98" t="s">
-        <v>411</v>
+      <c r="AP125" s="96" t="s">
+        <v>410</v>
       </c>
       <c r="AQ125" s="10"/>
     </row>
@@ -16594,8 +16591,8 @@
       <c r="AO126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP126" s="98" t="s">
-        <v>412</v>
+      <c r="AP126" s="96" t="s">
+        <v>411</v>
       </c>
       <c r="AQ126" s="10"/>
     </row>
@@ -16699,8 +16696,8 @@
       <c r="AO127" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP127" s="98" t="s">
-        <v>413</v>
+      <c r="AP127" s="96" t="s">
+        <v>412</v>
       </c>
       <c r="AQ127" s="10"/>
     </row>
@@ -16810,8 +16807,8 @@
       <c r="AO128" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP128" s="98" t="s">
-        <v>414</v>
+      <c r="AP128" s="96" t="s">
+        <v>413</v>
       </c>
       <c r="AQ128" s="10"/>
     </row>
@@ -16917,8 +16914,8 @@
       <c r="AO129" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP129" s="98" t="s">
-        <v>415</v>
+      <c r="AP129" s="96" t="s">
+        <v>414</v>
       </c>
       <c r="AQ129" s="10"/>
     </row>
@@ -17024,8 +17021,8 @@
       <c r="AO130" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP130" s="98" t="s">
-        <v>416</v>
+      <c r="AP130" s="96" t="s">
+        <v>415</v>
       </c>
       <c r="AQ130" s="10"/>
     </row>
@@ -17131,8 +17128,8 @@
       <c r="AO131" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP131" s="98" t="s">
-        <v>417</v>
+      <c r="AP131" s="96" t="s">
+        <v>416</v>
       </c>
       <c r="AQ131" s="10"/>
     </row>
@@ -17238,8 +17235,8 @@
       <c r="AO132" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP132" s="98" t="s">
-        <v>418</v>
+      <c r="AP132" s="96" t="s">
+        <v>417</v>
       </c>
       <c r="AQ132" s="10"/>
     </row>
@@ -17343,8 +17340,8 @@
       <c r="AO133" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP133" s="98" t="s">
-        <v>419</v>
+      <c r="AP133" s="96" t="s">
+        <v>418</v>
       </c>
       <c r="AQ133" s="10"/>
     </row>
@@ -17448,8 +17445,8 @@
       <c r="AO134" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP134" s="98" t="s">
-        <v>420</v>
+      <c r="AP134" s="96" t="s">
+        <v>419</v>
       </c>
       <c r="AQ134" s="10"/>
     </row>
@@ -17553,8 +17550,8 @@
       <c r="AO135" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP135" s="98" t="s">
-        <v>421</v>
+      <c r="AP135" s="96" t="s">
+        <v>420</v>
       </c>
       <c r="AQ135" s="10"/>
     </row>
@@ -17658,8 +17655,8 @@
       <c r="AO136" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP136" s="98" t="s">
-        <v>422</v>
+      <c r="AP136" s="96" t="s">
+        <v>421</v>
       </c>
       <c r="AQ136" s="10"/>
     </row>
@@ -17763,8 +17760,8 @@
       <c r="AO137" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP137" s="98" t="s">
-        <v>423</v>
+      <c r="AP137" s="96" t="s">
+        <v>422</v>
       </c>
       <c r="AQ137" s="10"/>
     </row>
@@ -17868,8 +17865,8 @@
       <c r="AO138" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP138" s="98" t="s">
-        <v>424</v>
+      <c r="AP138" s="96" t="s">
+        <v>423</v>
       </c>
       <c r="AQ138" s="10"/>
     </row>
@@ -17973,8 +17970,8 @@
       <c r="AO139" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP139" s="98" t="s">
-        <v>425</v>
+      <c r="AP139" s="96" t="s">
+        <v>424</v>
       </c>
       <c r="AQ139" s="10"/>
     </row>
@@ -18078,8 +18075,8 @@
       <c r="AO140" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP140" s="98" t="s">
-        <v>426</v>
+      <c r="AP140" s="96" t="s">
+        <v>425</v>
       </c>
       <c r="AQ140" s="10"/>
     </row>
@@ -18183,8 +18180,8 @@
       <c r="AO141" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP141" s="98" t="s">
-        <v>427</v>
+      <c r="AP141" s="96" t="s">
+        <v>426</v>
       </c>
       <c r="AQ141" s="10"/>
     </row>
@@ -18288,8 +18285,8 @@
       <c r="AO142" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP142" s="98" t="s">
-        <v>428</v>
+      <c r="AP142" s="96" t="s">
+        <v>427</v>
       </c>
       <c r="AQ142" s="10"/>
     </row>
@@ -18393,8 +18390,8 @@
       <c r="AO143" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP143" s="98" t="s">
-        <v>429</v>
+      <c r="AP143" s="96" t="s">
+        <v>428</v>
       </c>
       <c r="AQ143" s="10"/>
     </row>
@@ -18498,8 +18495,8 @@
       <c r="AO144" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP144" s="98" t="s">
-        <v>430</v>
+      <c r="AP144" s="96" t="s">
+        <v>429</v>
       </c>
       <c r="AQ144" s="10"/>
     </row>
@@ -18603,8 +18600,8 @@
       <c r="AO145" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP145" s="98" t="s">
-        <v>431</v>
+      <c r="AP145" s="96" t="s">
+        <v>430</v>
       </c>
       <c r="AQ145" s="10"/>
     </row>
@@ -18708,8 +18705,8 @@
       <c r="AO146" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP146" s="98" t="s">
-        <v>432</v>
+      <c r="AP146" s="96" t="s">
+        <v>431</v>
       </c>
       <c r="AQ146" s="10"/>
     </row>
@@ -18813,8 +18810,8 @@
       <c r="AO147" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP147" s="98" t="s">
-        <v>433</v>
+      <c r="AP147" s="96" t="s">
+        <v>432</v>
       </c>
       <c r="AQ147" s="10"/>
     </row>
@@ -18918,8 +18915,8 @@
       <c r="AO148" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP148" s="98" t="s">
-        <v>434</v>
+      <c r="AP148" s="96" t="s">
+        <v>433</v>
       </c>
       <c r="AQ148" s="10"/>
     </row>
@@ -19023,8 +19020,8 @@
       <c r="AO149" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP149" s="98" t="s">
-        <v>435</v>
+      <c r="AP149" s="96" t="s">
+        <v>434</v>
       </c>
       <c r="AQ149" s="10"/>
     </row>
@@ -19128,8 +19125,8 @@
       <c r="AO150" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP150" s="98" t="s">
-        <v>436</v>
+      <c r="AP150" s="96" t="s">
+        <v>435</v>
       </c>
       <c r="AQ150" s="10"/>
     </row>
@@ -19233,8 +19230,8 @@
       <c r="AO151" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP151" s="98" t="s">
-        <v>437</v>
+      <c r="AP151" s="96" t="s">
+        <v>436</v>
       </c>
       <c r="AQ151" s="10"/>
     </row>
@@ -19338,8 +19335,8 @@
       <c r="AO152" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP152" s="98" t="s">
-        <v>438</v>
+      <c r="AP152" s="96" t="s">
+        <v>437</v>
       </c>
       <c r="AQ152" s="10"/>
     </row>
@@ -19443,8 +19440,8 @@
       <c r="AO153" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP153" s="98" t="s">
-        <v>439</v>
+      <c r="AP153" s="96" t="s">
+        <v>438</v>
       </c>
       <c r="AQ153" s="10"/>
     </row>
@@ -19548,8 +19545,8 @@
       <c r="AO154" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP154" s="98" t="s">
-        <v>440</v>
+      <c r="AP154" s="96" t="s">
+        <v>439</v>
       </c>
       <c r="AQ154" s="10"/>
     </row>
@@ -19653,8 +19650,8 @@
       <c r="AO155" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP155" s="98" t="s">
-        <v>441</v>
+      <c r="AP155" s="96" t="s">
+        <v>440</v>
       </c>
       <c r="AQ155" s="10"/>
     </row>
@@ -19758,8 +19755,8 @@
       <c r="AO156" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP156" s="98" t="s">
-        <v>442</v>
+      <c r="AP156" s="96" t="s">
+        <v>441</v>
       </c>
       <c r="AQ156" s="10"/>
     </row>
@@ -19863,8 +19860,8 @@
       <c r="AO157" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP157" s="98" t="s">
-        <v>443</v>
+      <c r="AP157" s="96" t="s">
+        <v>442</v>
       </c>
       <c r="AQ157" s="10"/>
     </row>
@@ -19968,8 +19965,8 @@
       <c r="AO158" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP158" s="98" t="s">
-        <v>444</v>
+      <c r="AP158" s="96" t="s">
+        <v>443</v>
       </c>
       <c r="AQ158" s="10"/>
     </row>
@@ -20073,8 +20070,8 @@
       <c r="AO159" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP159" s="98" t="s">
-        <v>445</v>
+      <c r="AP159" s="96" t="s">
+        <v>444</v>
       </c>
       <c r="AQ159" s="10"/>
     </row>
@@ -20178,8 +20175,8 @@
       <c r="AO160" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP160" s="98" t="s">
-        <v>446</v>
+      <c r="AP160" s="96" t="s">
+        <v>445</v>
       </c>
       <c r="AQ160" s="10"/>
     </row>
@@ -20283,8 +20280,8 @@
       <c r="AO161" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP161" s="98" t="s">
-        <v>447</v>
+      <c r="AP161" s="96" t="s">
+        <v>446</v>
       </c>
       <c r="AQ161" s="10"/>
     </row>
@@ -20388,8 +20385,8 @@
       <c r="AO162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP162" s="98" t="s">
-        <v>448</v>
+      <c r="AP162" s="96" t="s">
+        <v>447</v>
       </c>
       <c r="AQ162" s="10"/>
     </row>
@@ -20493,8 +20490,8 @@
       <c r="AO163" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP163" s="98" t="s">
-        <v>449</v>
+      <c r="AP163" s="96" t="s">
+        <v>448</v>
       </c>
       <c r="AQ163" s="10"/>
     </row>
@@ -20598,8 +20595,8 @@
       <c r="AO164" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP164" s="98" t="s">
-        <v>450</v>
+      <c r="AP164" s="96" t="s">
+        <v>449</v>
       </c>
       <c r="AQ164" s="10"/>
     </row>
@@ -20703,8 +20700,8 @@
       <c r="AO165" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP165" s="98" t="s">
-        <v>451</v>
+      <c r="AP165" s="96" t="s">
+        <v>450</v>
       </c>
       <c r="AQ165" s="10"/>
     </row>
@@ -20808,8 +20805,8 @@
       <c r="AO166" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP166" s="98" t="s">
-        <v>452</v>
+      <c r="AP166" s="96" t="s">
+        <v>451</v>
       </c>
       <c r="AQ166" s="10"/>
     </row>
@@ -20913,8 +20910,8 @@
       <c r="AO167" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP167" s="98" t="s">
-        <v>453</v>
+      <c r="AP167" s="96" t="s">
+        <v>452</v>
       </c>
       <c r="AQ167" s="10"/>
     </row>
@@ -21018,8 +21015,8 @@
       <c r="AO168" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP168" s="98" t="s">
-        <v>454</v>
+      <c r="AP168" s="96" t="s">
+        <v>453</v>
       </c>
       <c r="AQ168" s="10"/>
     </row>
@@ -21123,8 +21120,8 @@
       <c r="AO169" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP169" s="98" t="s">
-        <v>455</v>
+      <c r="AP169" s="96" t="s">
+        <v>454</v>
       </c>
       <c r="AQ169" s="10"/>
     </row>
@@ -21228,8 +21225,8 @@
       <c r="AO170" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP170" s="98" t="s">
-        <v>456</v>
+      <c r="AP170" s="96" t="s">
+        <v>455</v>
       </c>
       <c r="AQ170" s="10"/>
     </row>
@@ -21333,8 +21330,8 @@
       <c r="AO171" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP171" s="98" t="s">
-        <v>457</v>
+      <c r="AP171" s="96" t="s">
+        <v>456</v>
       </c>
       <c r="AQ171" s="10"/>
     </row>
@@ -21438,8 +21435,8 @@
       <c r="AO172" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP172" s="98" t="s">
-        <v>458</v>
+      <c r="AP172" s="96" t="s">
+        <v>457</v>
       </c>
       <c r="AQ172" s="10"/>
     </row>
@@ -21543,8 +21540,8 @@
       <c r="AO173" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP173" s="98" t="s">
-        <v>459</v>
+      <c r="AP173" s="96" t="s">
+        <v>458</v>
       </c>
       <c r="AQ173" s="10"/>
     </row>
@@ -21648,8 +21645,8 @@
       <c r="AO174" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP174" s="98" t="s">
-        <v>460</v>
+      <c r="AP174" s="96" t="s">
+        <v>459</v>
       </c>
       <c r="AQ174" s="10"/>
     </row>
@@ -21753,8 +21750,8 @@
       <c r="AO175" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP175" s="98" t="s">
-        <v>461</v>
+      <c r="AP175" s="96" t="s">
+        <v>460</v>
       </c>
       <c r="AQ175" s="10"/>
     </row>
@@ -21864,8 +21861,8 @@
       <c r="AO176" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AP176" s="98" t="s">
-        <v>462</v>
+      <c r="AP176" s="96" t="s">
+        <v>461</v>
       </c>
       <c r="AQ176" s="41"/>
     </row>
@@ -21967,8 +21964,8 @@
       <c r="AO177" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP177" s="98" t="s">
-        <v>463</v>
+      <c r="AP177" s="96" t="s">
+        <v>462</v>
       </c>
       <c r="AQ177" s="10"/>
     </row>
@@ -22072,8 +22069,8 @@
       <c r="AO178" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP178" s="98" t="s">
-        <v>464</v>
+      <c r="AP178" s="96" t="s">
+        <v>463</v>
       </c>
       <c r="AQ178" s="10"/>
     </row>
@@ -22177,8 +22174,8 @@
       <c r="AO179" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP179" s="98" t="s">
-        <v>465</v>
+      <c r="AP179" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="AQ179" s="10"/>
     </row>
@@ -22282,8 +22279,8 @@
       <c r="AO180" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP180" s="98" t="s">
-        <v>466</v>
+      <c r="AP180" s="96" t="s">
+        <v>465</v>
       </c>
       <c r="AQ180" s="10"/>
     </row>
@@ -22387,8 +22384,8 @@
       <c r="AO181" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP181" s="98" t="s">
-        <v>467</v>
+      <c r="AP181" s="96" t="s">
+        <v>466</v>
       </c>
       <c r="AQ181" s="10"/>
     </row>
@@ -22492,8 +22489,8 @@
       <c r="AO182" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP182" s="98" t="s">
-        <v>468</v>
+      <c r="AP182" s="96" t="s">
+        <v>467</v>
       </c>
       <c r="AQ182" s="10"/>
     </row>
@@ -22597,8 +22594,8 @@
       <c r="AO183" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP183" s="98" t="s">
-        <v>469</v>
+      <c r="AP183" s="96" t="s">
+        <v>468</v>
       </c>
       <c r="AQ183" s="10"/>
     </row>
@@ -22702,8 +22699,8 @@
       <c r="AO184" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP184" s="98" t="s">
-        <v>470</v>
+      <c r="AP184" s="96" t="s">
+        <v>469</v>
       </c>
       <c r="AQ184" s="10"/>
     </row>
@@ -22807,8 +22804,8 @@
       <c r="AO185" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP185" s="98" t="s">
-        <v>471</v>
+      <c r="AP185" s="96" t="s">
+        <v>470</v>
       </c>
       <c r="AQ185" s="10"/>
     </row>
@@ -22912,8 +22909,8 @@
       <c r="AO186" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP186" s="98" t="s">
-        <v>472</v>
+      <c r="AP186" s="96" t="s">
+        <v>471</v>
       </c>
       <c r="AQ186" s="10"/>
     </row>
@@ -23017,8 +23014,8 @@
       <c r="AO187" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP187" s="98" t="s">
-        <v>473</v>
+      <c r="AP187" s="96" t="s">
+        <v>472</v>
       </c>
       <c r="AQ187" s="10"/>
     </row>
@@ -23122,8 +23119,8 @@
       <c r="AO188" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP188" s="98" t="s">
-        <v>474</v>
+      <c r="AP188" s="96" t="s">
+        <v>473</v>
       </c>
       <c r="AQ188" s="10"/>
     </row>
@@ -23227,8 +23224,8 @@
       <c r="AO189" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP189" s="98" t="s">
-        <v>475</v>
+      <c r="AP189" s="96" t="s">
+        <v>474</v>
       </c>
       <c r="AQ189" s="10"/>
     </row>
@@ -23332,8 +23329,8 @@
       <c r="AO190" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP190" s="98" t="s">
-        <v>476</v>
+      <c r="AP190" s="96" t="s">
+        <v>475</v>
       </c>
       <c r="AQ190" s="10"/>
     </row>
@@ -23437,8 +23434,8 @@
       <c r="AO191" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP191" s="98" t="s">
-        <v>477</v>
+      <c r="AP191" s="96" t="s">
+        <v>476</v>
       </c>
       <c r="AQ191" s="10"/>
     </row>
@@ -23542,8 +23539,8 @@
       <c r="AO192" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP192" s="98" t="s">
-        <v>478</v>
+      <c r="AP192" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="AQ192" s="10"/>
     </row>
@@ -23647,8 +23644,8 @@
       <c r="AO193" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP193" s="98" t="s">
-        <v>479</v>
+      <c r="AP193" s="96" t="s">
+        <v>478</v>
       </c>
       <c r="AQ193" s="10"/>
     </row>
@@ -23752,8 +23749,8 @@
       <c r="AO194" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP194" s="98" t="s">
-        <v>480</v>
+      <c r="AP194" s="96" t="s">
+        <v>479</v>
       </c>
       <c r="AQ194" s="10"/>
     </row>
@@ -23857,8 +23854,8 @@
       <c r="AO195" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP195" s="98" t="s">
-        <v>481</v>
+      <c r="AP195" s="96" t="s">
+        <v>480</v>
       </c>
       <c r="AQ195" s="10"/>
     </row>
@@ -23962,8 +23959,8 @@
       <c r="AO196" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP196" s="98" t="s">
-        <v>482</v>
+      <c r="AP196" s="96" t="s">
+        <v>481</v>
       </c>
       <c r="AQ196" s="10"/>
     </row>
@@ -24067,8 +24064,8 @@
       <c r="AO197" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP197" s="98" t="s">
-        <v>483</v>
+      <c r="AP197" s="96" t="s">
+        <v>482</v>
       </c>
       <c r="AQ197" s="10"/>
     </row>
@@ -24172,8 +24169,8 @@
       <c r="AO198" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP198" s="98" t="s">
-        <v>484</v>
+      <c r="AP198" s="96" t="s">
+        <v>483</v>
       </c>
       <c r="AQ198" s="10"/>
     </row>
@@ -24279,8 +24276,8 @@
       <c r="AO199" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP199" s="98" t="s">
-        <v>485</v>
+      <c r="AP199" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="AQ199" s="10"/>
     </row>
@@ -24384,8 +24381,8 @@
       <c r="AO200" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP200" s="98" t="s">
-        <v>486</v>
+      <c r="AP200" s="96" t="s">
+        <v>485</v>
       </c>
       <c r="AQ200" s="10"/>
     </row>
@@ -24489,8 +24486,8 @@
       <c r="AO201" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP201" s="98" t="s">
-        <v>487</v>
+      <c r="AP201" s="96" t="s">
+        <v>486</v>
       </c>
       <c r="AQ201" s="10"/>
     </row>
@@ -24594,8 +24591,8 @@
       <c r="AO202" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP202" s="98" t="s">
-        <v>488</v>
+      <c r="AP202" s="96" t="s">
+        <v>487</v>
       </c>
       <c r="AQ202" s="10"/>
     </row>
@@ -24699,8 +24696,8 @@
       <c r="AO203" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP203" s="98" t="s">
-        <v>489</v>
+      <c r="AP203" s="96" t="s">
+        <v>488</v>
       </c>
       <c r="AQ203" s="10"/>
     </row>
@@ -24804,8 +24801,8 @@
       <c r="AO204" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP204" s="98" t="s">
-        <v>490</v>
+      <c r="AP204" s="96" t="s">
+        <v>489</v>
       </c>
       <c r="AQ204" s="10"/>
     </row>
@@ -24915,8 +24912,8 @@
       <c r="AO205" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP205" s="98" t="s">
-        <v>491</v>
+      <c r="AP205" s="96" t="s">
+        <v>490</v>
       </c>
       <c r="AQ205" s="10"/>
     </row>
@@ -25020,8 +25017,8 @@
       <c r="AO206" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP206" s="98" t="s">
-        <v>492</v>
+      <c r="AP206" s="96" t="s">
+        <v>491</v>
       </c>
       <c r="AQ206" s="10"/>
     </row>
@@ -25125,8 +25122,8 @@
       <c r="AO207" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP207" s="98" t="s">
-        <v>493</v>
+      <c r="AP207" s="96" t="s">
+        <v>492</v>
       </c>
       <c r="AQ207" s="10"/>
     </row>
@@ -25230,8 +25227,8 @@
       <c r="AO208" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP208" s="98" t="s">
-        <v>494</v>
+      <c r="AP208" s="96" t="s">
+        <v>493</v>
       </c>
       <c r="AQ208" s="10"/>
     </row>
@@ -25335,8 +25332,8 @@
       <c r="AO209" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP209" s="98" t="s">
-        <v>495</v>
+      <c r="AP209" s="96" t="s">
+        <v>494</v>
       </c>
       <c r="AQ209" s="10"/>
     </row>
@@ -25440,8 +25437,8 @@
       <c r="AO210" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP210" s="98" t="s">
-        <v>496</v>
+      <c r="AP210" s="96" t="s">
+        <v>495</v>
       </c>
       <c r="AQ210" s="10"/>
     </row>
@@ -25545,8 +25542,8 @@
       <c r="AO211" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP211" s="98" t="s">
-        <v>497</v>
+      <c r="AP211" s="96" t="s">
+        <v>496</v>
       </c>
       <c r="AQ211" s="10"/>
     </row>
@@ -25656,8 +25653,8 @@
       <c r="AO212" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP212" s="98" t="s">
-        <v>498</v>
+      <c r="AP212" s="96" t="s">
+        <v>497</v>
       </c>
       <c r="AQ212" s="10"/>
     </row>
@@ -25761,8 +25758,8 @@
       <c r="AO213" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP213" s="98" t="s">
-        <v>499</v>
+      <c r="AP213" s="96" t="s">
+        <v>498</v>
       </c>
       <c r="AQ213" s="10"/>
     </row>
@@ -25866,8 +25863,8 @@
       <c r="AO214" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP214" s="98" t="s">
-        <v>500</v>
+      <c r="AP214" s="96" t="s">
+        <v>499</v>
       </c>
       <c r="AQ214" s="10"/>
     </row>
@@ -25971,8 +25968,8 @@
       <c r="AO215" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP215" s="98" t="s">
-        <v>501</v>
+      <c r="AP215" s="96" t="s">
+        <v>500</v>
       </c>
       <c r="AQ215" s="10"/>
     </row>
@@ -26076,8 +26073,8 @@
       <c r="AO216" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP216" s="98" t="s">
-        <v>502</v>
+      <c r="AP216" s="96" t="s">
+        <v>501</v>
       </c>
       <c r="AQ216" s="10"/>
     </row>
@@ -26181,8 +26178,8 @@
       <c r="AO217" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP217" s="98" t="s">
-        <v>503</v>
+      <c r="AP217" s="96" t="s">
+        <v>502</v>
       </c>
       <c r="AQ217" s="10"/>
     </row>
@@ -26286,8 +26283,8 @@
       <c r="AO218" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP218" s="98" t="s">
-        <v>504</v>
+      <c r="AP218" s="96" t="s">
+        <v>503</v>
       </c>
       <c r="AQ218" s="10"/>
     </row>
@@ -26391,8 +26388,8 @@
       <c r="AO219" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP219" s="98" t="s">
-        <v>505</v>
+      <c r="AP219" s="96" t="s">
+        <v>504</v>
       </c>
       <c r="AQ219" s="10"/>
     </row>
@@ -26496,8 +26493,8 @@
       <c r="AO220" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP220" s="98" t="s">
-        <v>506</v>
+      <c r="AP220" s="96" t="s">
+        <v>505</v>
       </c>
       <c r="AQ220" s="10"/>
     </row>
@@ -26601,8 +26598,8 @@
       <c r="AO221" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP221" s="98" t="s">
-        <v>507</v>
+      <c r="AP221" s="96" t="s">
+        <v>506</v>
       </c>
       <c r="AQ221" s="10"/>
     </row>
@@ -26706,8 +26703,8 @@
       <c r="AO222" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP222" s="98" t="s">
-        <v>508</v>
+      <c r="AP222" s="96" t="s">
+        <v>507</v>
       </c>
       <c r="AQ222" s="10"/>
     </row>
@@ -26811,8 +26808,8 @@
       <c r="AO223" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP223" s="98" t="s">
-        <v>509</v>
+      <c r="AP223" s="96" t="s">
+        <v>508</v>
       </c>
       <c r="AQ223" s="10"/>
     </row>
@@ -26916,8 +26913,8 @@
       <c r="AO224" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP224" s="98" t="s">
-        <v>510</v>
+      <c r="AP224" s="96" t="s">
+        <v>509</v>
       </c>
       <c r="AQ224" s="10"/>
     </row>
@@ -27021,8 +27018,8 @@
       <c r="AO225" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP225" s="98" t="s">
-        <v>511</v>
+      <c r="AP225" s="96" t="s">
+        <v>510</v>
       </c>
       <c r="AQ225" s="10"/>
     </row>
@@ -27126,8 +27123,8 @@
       <c r="AO226" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP226" s="98" t="s">
-        <v>512</v>
+      <c r="AP226" s="96" t="s">
+        <v>511</v>
       </c>
       <c r="AQ226" s="10"/>
     </row>
@@ -27231,8 +27228,8 @@
       <c r="AO227" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP227" s="98" t="s">
-        <v>513</v>
+      <c r="AP227" s="96" t="s">
+        <v>512</v>
       </c>
       <c r="AQ227" s="10"/>
     </row>
@@ -27336,8 +27333,8 @@
       <c r="AO228" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP228" s="98" t="s">
-        <v>514</v>
+      <c r="AP228" s="96" t="s">
+        <v>513</v>
       </c>
       <c r="AQ228" s="10"/>
     </row>
@@ -27441,8 +27438,8 @@
       <c r="AO229" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP229" s="98" t="s">
-        <v>515</v>
+      <c r="AP229" s="96" t="s">
+        <v>514</v>
       </c>
       <c r="AQ229" s="10"/>
     </row>
@@ -27546,8 +27543,8 @@
       <c r="AO230" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP230" s="98" t="s">
-        <v>516</v>
+      <c r="AP230" s="96" t="s">
+        <v>515</v>
       </c>
       <c r="AQ230" s="10"/>
     </row>
@@ -27651,8 +27648,8 @@
       <c r="AO231" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP231" s="98" t="s">
-        <v>517</v>
+      <c r="AP231" s="96" t="s">
+        <v>516</v>
       </c>
       <c r="AQ231" s="10"/>
     </row>
@@ -27756,8 +27753,8 @@
       <c r="AO232" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP232" s="98" t="s">
-        <v>518</v>
+      <c r="AP232" s="96" t="s">
+        <v>517</v>
       </c>
       <c r="AQ232" s="10"/>
     </row>
@@ -27861,8 +27858,8 @@
       <c r="AO233" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP233" s="98" t="s">
-        <v>519</v>
+      <c r="AP233" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="AQ233" s="10"/>
     </row>
@@ -27966,8 +27963,8 @@
       <c r="AO234" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP234" s="98" t="s">
-        <v>520</v>
+      <c r="AP234" s="96" t="s">
+        <v>519</v>
       </c>
       <c r="AQ234" s="10"/>
     </row>
@@ -28071,8 +28068,8 @@
       <c r="AO235" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP235" s="98" t="s">
-        <v>521</v>
+      <c r="AP235" s="96" t="s">
+        <v>520</v>
       </c>
       <c r="AQ235" s="10"/>
     </row>
@@ -28182,8 +28179,8 @@
       <c r="AO236" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP236" s="98" t="s">
-        <v>522</v>
+      <c r="AP236" s="96" t="s">
+        <v>521</v>
       </c>
       <c r="AQ236" s="10"/>
     </row>
@@ -28287,8 +28284,8 @@
       <c r="AO237" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP237" s="98" t="s">
-        <v>523</v>
+      <c r="AP237" s="96" t="s">
+        <v>522</v>
       </c>
       <c r="AQ237" s="10"/>
     </row>
@@ -28392,8 +28389,8 @@
       <c r="AO238" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP238" s="98" t="s">
-        <v>524</v>
+      <c r="AP238" s="96" t="s">
+        <v>523</v>
       </c>
       <c r="AQ238" s="10"/>
     </row>
@@ -28495,8 +28492,8 @@
       <c r="AO239" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP239" s="98" t="s">
-        <v>525</v>
+      <c r="AP239" s="96" t="s">
+        <v>524</v>
       </c>
       <c r="AQ239" s="10"/>
     </row>
@@ -28594,8 +28591,8 @@
       <c r="AO240" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP240" s="98" t="s">
-        <v>526</v>
+      <c r="AP240" s="96" t="s">
+        <v>525</v>
       </c>
       <c r="AQ240" s="10"/>
     </row>
@@ -28701,8 +28698,8 @@
       <c r="AO241" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP241" s="98" t="s">
-        <v>527</v>
+      <c r="AP241" s="96" t="s">
+        <v>526</v>
       </c>
       <c r="AQ241" s="10"/>
     </row>
@@ -28808,8 +28805,8 @@
       <c r="AO242" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP242" s="98" t="s">
-        <v>528</v>
+      <c r="AP242" s="96" t="s">
+        <v>527</v>
       </c>
       <c r="AQ242" s="10"/>
     </row>
@@ -28915,8 +28912,8 @@
       <c r="AO243" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP243" s="98" t="s">
-        <v>529</v>
+      <c r="AP243" s="96" t="s">
+        <v>528</v>
       </c>
       <c r="AQ243" s="10"/>
     </row>
@@ -29022,8 +29019,8 @@
       <c r="AO244" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP244" s="98" t="s">
-        <v>530</v>
+      <c r="AP244" s="96" t="s">
+        <v>529</v>
       </c>
       <c r="AQ244" s="10"/>
     </row>
@@ -29129,8 +29126,8 @@
       <c r="AO245" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP245" s="98" t="s">
-        <v>531</v>
+      <c r="AP245" s="96" t="s">
+        <v>530</v>
       </c>
       <c r="AQ245" s="10"/>
     </row>
@@ -29236,8 +29233,8 @@
       <c r="AO246" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP246" s="98" t="s">
-        <v>532</v>
+      <c r="AP246" s="96" t="s">
+        <v>531</v>
       </c>
       <c r="AQ246" s="10"/>
     </row>
@@ -29343,8 +29340,8 @@
       <c r="AO247" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP247" s="98" t="s">
-        <v>533</v>
+      <c r="AP247" s="96" t="s">
+        <v>532</v>
       </c>
       <c r="AQ247" s="10"/>
     </row>
@@ -29450,8 +29447,8 @@
       <c r="AO248" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP248" s="98" t="s">
-        <v>534</v>
+      <c r="AP248" s="96" t="s">
+        <v>533</v>
       </c>
       <c r="AQ248" s="10"/>
     </row>
@@ -29557,8 +29554,8 @@
       <c r="AO249" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP249" s="98" t="s">
-        <v>535</v>
+      <c r="AP249" s="96" t="s">
+        <v>534</v>
       </c>
       <c r="AQ249" s="10"/>
     </row>
@@ -29664,8 +29661,8 @@
       <c r="AO250" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP250" s="98" t="s">
-        <v>536</v>
+      <c r="AP250" s="96" t="s">
+        <v>535</v>
       </c>
       <c r="AQ250" s="10"/>
     </row>
@@ -29777,8 +29774,8 @@
       <c r="AO251" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP251" s="98" t="s">
-        <v>537</v>
+      <c r="AP251" s="96" t="s">
+        <v>536</v>
       </c>
       <c r="AQ251" s="10"/>
     </row>
@@ -29882,8 +29879,8 @@
       <c r="AO252" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP252" s="98" t="s">
-        <v>538</v>
+      <c r="AP252" s="96" t="s">
+        <v>537</v>
       </c>
       <c r="AQ252" s="10"/>
     </row>
@@ -29987,8 +29984,8 @@
       <c r="AO253" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP253" s="98" t="s">
-        <v>539</v>
+      <c r="AP253" s="96" t="s">
+        <v>538</v>
       </c>
       <c r="AQ253" s="10"/>
     </row>
@@ -30092,8 +30089,8 @@
       <c r="AO254" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP254" s="98" t="s">
-        <v>540</v>
+      <c r="AP254" s="96" t="s">
+        <v>539</v>
       </c>
       <c r="AQ254" s="10"/>
     </row>
@@ -30197,8 +30194,8 @@
       <c r="AO255" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP255" s="98" t="s">
-        <v>541</v>
+      <c r="AP255" s="96" t="s">
+        <v>540</v>
       </c>
       <c r="AQ255" s="10"/>
     </row>
@@ -30302,8 +30299,8 @@
       <c r="AO256" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP256" s="98" t="s">
-        <v>542</v>
+      <c r="AP256" s="96" t="s">
+        <v>541</v>
       </c>
       <c r="AQ256" s="10"/>
     </row>
@@ -30407,8 +30404,8 @@
       <c r="AO257" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP257" s="98" t="s">
-        <v>543</v>
+      <c r="AP257" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="AQ257" s="10"/>
     </row>
@@ -30512,8 +30509,8 @@
       <c r="AO258" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP258" s="98" t="s">
-        <v>544</v>
+      <c r="AP258" s="96" t="s">
+        <v>543</v>
       </c>
       <c r="AQ258" s="10"/>
     </row>
@@ -30623,8 +30620,8 @@
       <c r="AO259" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP259" s="98" t="s">
-        <v>545</v>
+      <c r="AP259" s="96" t="s">
+        <v>544</v>
       </c>
       <c r="AQ259" s="10"/>
     </row>
@@ -30728,8 +30725,8 @@
       <c r="AO260" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP260" s="98" t="s">
-        <v>546</v>
+      <c r="AP260" s="96" t="s">
+        <v>545</v>
       </c>
       <c r="AQ260" s="10"/>
     </row>
@@ -30833,8 +30830,8 @@
       <c r="AO261" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP261" s="98" t="s">
-        <v>547</v>
+      <c r="AP261" s="96" t="s">
+        <v>546</v>
       </c>
       <c r="AQ261" s="10"/>
     </row>
@@ -30938,8 +30935,8 @@
       <c r="AO262" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP262" s="98" t="s">
-        <v>548</v>
+      <c r="AP262" s="96" t="s">
+        <v>547</v>
       </c>
       <c r="AQ262" s="10"/>
     </row>
@@ -31043,8 +31040,8 @@
       <c r="AO263" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP263" s="98" t="s">
-        <v>549</v>
+      <c r="AP263" s="96" t="s">
+        <v>548</v>
       </c>
       <c r="AQ263" s="10"/>
     </row>
@@ -31148,8 +31145,8 @@
       <c r="AO264" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP264" s="98" t="s">
-        <v>550</v>
+      <c r="AP264" s="96" t="s">
+        <v>549</v>
       </c>
       <c r="AQ264" s="10"/>
     </row>
@@ -31253,8 +31250,8 @@
       <c r="AO265" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP265" s="98" t="s">
-        <v>551</v>
+      <c r="AP265" s="96" t="s">
+        <v>550</v>
       </c>
       <c r="AQ265" s="10"/>
     </row>
@@ -31358,8 +31355,8 @@
       <c r="AO266" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP266" s="98" t="s">
-        <v>552</v>
+      <c r="AP266" s="96" t="s">
+        <v>551</v>
       </c>
       <c r="AQ266" s="10"/>
     </row>
@@ -31463,8 +31460,8 @@
       <c r="AO267" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP267" s="98" t="s">
-        <v>553</v>
+      <c r="AP267" s="96" t="s">
+        <v>552</v>
       </c>
       <c r="AQ267" s="10"/>
     </row>
@@ -31568,8 +31565,8 @@
       <c r="AO268" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP268" s="98" t="s">
-        <v>554</v>
+      <c r="AP268" s="96" t="s">
+        <v>553</v>
       </c>
       <c r="AQ268" s="10"/>
     </row>
@@ -31673,8 +31670,8 @@
       <c r="AO269" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP269" s="98" t="s">
-        <v>555</v>
+      <c r="AP269" s="96" t="s">
+        <v>554</v>
       </c>
       <c r="AQ269" s="10"/>
     </row>
@@ -31778,8 +31775,8 @@
       <c r="AO270" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP270" s="98" t="s">
-        <v>556</v>
+      <c r="AP270" s="96" t="s">
+        <v>555</v>
       </c>
       <c r="AQ270" s="10"/>
     </row>
@@ -31883,8 +31880,8 @@
       <c r="AO271" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP271" s="98" t="s">
-        <v>557</v>
+      <c r="AP271" s="96" t="s">
+        <v>556</v>
       </c>
       <c r="AQ271" s="10"/>
     </row>
@@ -31988,8 +31985,8 @@
       <c r="AO272" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP272" s="98" t="s">
-        <v>558</v>
+      <c r="AP272" s="96" t="s">
+        <v>557</v>
       </c>
       <c r="AQ272" s="10"/>
     </row>
@@ -32093,8 +32090,8 @@
       <c r="AO273" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP273" s="98" t="s">
-        <v>559</v>
+      <c r="AP273" s="96" t="s">
+        <v>558</v>
       </c>
       <c r="AQ273" s="10"/>
     </row>
@@ -32198,8 +32195,8 @@
       <c r="AO274" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP274" s="98" t="s">
-        <v>560</v>
+      <c r="AP274" s="96" t="s">
+        <v>559</v>
       </c>
       <c r="AQ274" s="10"/>
     </row>
@@ -32303,8 +32300,8 @@
       <c r="AO275" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP275" s="98" t="s">
-        <v>561</v>
+      <c r="AP275" s="96" t="s">
+        <v>560</v>
       </c>
       <c r="AQ275" s="10"/>
     </row>
@@ -32408,8 +32405,8 @@
       <c r="AO276" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP276" s="98" t="s">
-        <v>562</v>
+      <c r="AP276" s="96" t="s">
+        <v>561</v>
       </c>
       <c r="AQ276" s="10"/>
     </row>
@@ -32513,8 +32510,8 @@
       <c r="AO277" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP277" s="98" t="s">
-        <v>563</v>
+      <c r="AP277" s="96" t="s">
+        <v>562</v>
       </c>
       <c r="AQ277" s="10"/>
     </row>
@@ -32618,8 +32615,8 @@
       <c r="AO278" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP278" s="98" t="s">
-        <v>564</v>
+      <c r="AP278" s="96" t="s">
+        <v>563</v>
       </c>
       <c r="AQ278" s="10"/>
     </row>
@@ -32723,8 +32720,8 @@
       <c r="AO279" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP279" s="98" t="s">
-        <v>565</v>
+      <c r="AP279" s="96" t="s">
+        <v>564</v>
       </c>
       <c r="AQ279" s="10"/>
     </row>
@@ -32828,8 +32825,8 @@
       <c r="AO280" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP280" s="98" t="s">
-        <v>566</v>
+      <c r="AP280" s="96" t="s">
+        <v>565</v>
       </c>
       <c r="AQ280" s="10"/>
     </row>
@@ -32933,8 +32930,8 @@
       <c r="AO281" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP281" s="98" t="s">
-        <v>567</v>
+      <c r="AP281" s="96" t="s">
+        <v>566</v>
       </c>
       <c r="AQ281" s="10"/>
     </row>
@@ -33038,8 +33035,8 @@
       <c r="AO282" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP282" s="98" t="s">
-        <v>568</v>
+      <c r="AP282" s="96" t="s">
+        <v>567</v>
       </c>
       <c r="AQ282" s="10"/>
     </row>
@@ -33143,8 +33140,8 @@
       <c r="AO283" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP283" s="98" t="s">
-        <v>569</v>
+      <c r="AP283" s="96" t="s">
+        <v>568</v>
       </c>
       <c r="AQ283" s="10"/>
     </row>
@@ -33248,8 +33245,8 @@
       <c r="AO284" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP284" s="98" t="s">
-        <v>570</v>
+      <c r="AP284" s="96" t="s">
+        <v>569</v>
       </c>
       <c r="AQ284" s="10"/>
     </row>
@@ -33353,8 +33350,8 @@
       <c r="AO285" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP285" s="98" t="s">
-        <v>571</v>
+      <c r="AP285" s="96" t="s">
+        <v>570</v>
       </c>
       <c r="AQ285" s="10"/>
     </row>
@@ -33458,8 +33455,8 @@
       <c r="AO286" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP286" s="98" t="s">
-        <v>572</v>
+      <c r="AP286" s="96" t="s">
+        <v>571</v>
       </c>
       <c r="AQ286" s="10"/>
     </row>
@@ -33563,8 +33560,8 @@
       <c r="AO287" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP287" s="98" t="s">
-        <v>573</v>
+      <c r="AP287" s="96" t="s">
+        <v>572</v>
       </c>
       <c r="AQ287" s="10"/>
     </row>
@@ -33668,8 +33665,8 @@
       <c r="AO288" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP288" s="98" t="s">
-        <v>574</v>
+      <c r="AP288" s="96" t="s">
+        <v>573</v>
       </c>
       <c r="AQ288" s="10"/>
     </row>
@@ -33773,8 +33770,8 @@
       <c r="AO289" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP289" s="98" t="s">
-        <v>575</v>
+      <c r="AP289" s="96" t="s">
+        <v>574</v>
       </c>
       <c r="AQ289" s="10"/>
     </row>
@@ -33878,8 +33875,8 @@
       <c r="AO290" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP290" s="98" t="s">
-        <v>576</v>
+      <c r="AP290" s="96" t="s">
+        <v>575</v>
       </c>
       <c r="AQ290" s="10"/>
     </row>
@@ -33983,8 +33980,8 @@
       <c r="AO291" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP291" s="98" t="s">
-        <v>577</v>
+      <c r="AP291" s="96" t="s">
+        <v>576</v>
       </c>
       <c r="AQ291" s="10"/>
     </row>
@@ -34094,8 +34091,8 @@
       <c r="AO292" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP292" s="98" t="s">
-        <v>578</v>
+      <c r="AP292" s="96" t="s">
+        <v>577</v>
       </c>
       <c r="AQ292" s="10"/>
     </row>
@@ -34197,8 +34194,8 @@
       <c r="AO293" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP293" s="98" t="s">
-        <v>579</v>
+      <c r="AP293" s="96" t="s">
+        <v>578</v>
       </c>
       <c r="AQ293" s="10"/>
     </row>
@@ -34302,8 +34299,8 @@
       <c r="AO294" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP294" s="98" t="s">
-        <v>580</v>
+      <c r="AP294" s="96" t="s">
+        <v>579</v>
       </c>
       <c r="AQ294" s="10"/>
     </row>
@@ -34407,8 +34404,8 @@
       <c r="AO295" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP295" s="98" t="s">
-        <v>581</v>
+      <c r="AP295" s="96" t="s">
+        <v>580</v>
       </c>
       <c r="AQ295" s="10"/>
     </row>
@@ -34512,8 +34509,8 @@
       <c r="AO296" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP296" s="98" t="s">
-        <v>582</v>
+      <c r="AP296" s="96" t="s">
+        <v>581</v>
       </c>
       <c r="AQ296" s="10"/>
     </row>
@@ -34617,8 +34614,8 @@
       <c r="AO297" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP297" s="98" t="s">
-        <v>583</v>
+      <c r="AP297" s="96" t="s">
+        <v>582</v>
       </c>
       <c r="AQ297" s="10"/>
     </row>
@@ -34722,8 +34719,8 @@
       <c r="AO298" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP298" s="98" t="s">
-        <v>584</v>
+      <c r="AP298" s="96" t="s">
+        <v>583</v>
       </c>
       <c r="AQ298" s="10"/>
     </row>
@@ -34827,8 +34824,8 @@
       <c r="AO299" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP299" s="98" t="s">
-        <v>585</v>
+      <c r="AP299" s="96" t="s">
+        <v>584</v>
       </c>
       <c r="AQ299" s="10"/>
     </row>
@@ -34932,8 +34929,8 @@
       <c r="AO300" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP300" s="98" t="s">
-        <v>586</v>
+      <c r="AP300" s="96" t="s">
+        <v>585</v>
       </c>
       <c r="AQ300" s="10"/>
     </row>
@@ -35037,8 +35034,8 @@
       <c r="AO301" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP301" s="98" t="s">
-        <v>587</v>
+      <c r="AP301" s="96" t="s">
+        <v>586</v>
       </c>
       <c r="AQ301" s="10"/>
     </row>
@@ -35142,8 +35139,8 @@
       <c r="AO302" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP302" s="98" t="s">
-        <v>588</v>
+      <c r="AP302" s="96" t="s">
+        <v>587</v>
       </c>
       <c r="AQ302" s="10"/>
     </row>
@@ -35247,8 +35244,8 @@
       <c r="AO303" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP303" s="98" t="s">
-        <v>589</v>
+      <c r="AP303" s="96" t="s">
+        <v>588</v>
       </c>
       <c r="AQ303" s="10"/>
     </row>
@@ -35352,8 +35349,8 @@
       <c r="AO304" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP304" s="98" t="s">
-        <v>590</v>
+      <c r="AP304" s="96" t="s">
+        <v>589</v>
       </c>
       <c r="AQ304" s="10"/>
     </row>
@@ -35385,7 +35382,7 @@
       <c r="I305" s="6">
         <v>2.7</v>
       </c>
-      <c r="J305" s="95"/>
+      <c r="J305" s="97"/>
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
       <c r="M305" s="16"/>
@@ -35457,8 +35454,8 @@
       <c r="AO305" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP305" s="98" t="s">
-        <v>591</v>
+      <c r="AP305" s="96" t="s">
+        <v>590</v>
       </c>
       <c r="AQ305" s="10"/>
     </row>
@@ -35490,7 +35487,7 @@
       <c r="I306" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J306" s="96"/>
+      <c r="J306" s="98"/>
       <c r="K306" s="16"/>
       <c r="L306" s="16"/>
       <c r="M306" s="16"/>
@@ -35562,8 +35559,8 @@
       <c r="AO306" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP306" s="98" t="s">
-        <v>592</v>
+      <c r="AP306" s="96" t="s">
+        <v>591</v>
       </c>
       <c r="AQ306" s="10"/>
     </row>
@@ -35667,8 +35664,8 @@
       <c r="AO307" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP307" s="98" t="s">
-        <v>593</v>
+      <c r="AP307" s="96" t="s">
+        <v>592</v>
       </c>
       <c r="AQ307" s="10"/>
     </row>
@@ -35772,8 +35769,8 @@
       <c r="AO308" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP308" s="98" t="s">
-        <v>594</v>
+      <c r="AP308" s="96" t="s">
+        <v>593</v>
       </c>
       <c r="AQ308" s="10"/>
     </row>
@@ -35877,8 +35874,8 @@
       <c r="AO309" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP309" s="98" t="s">
-        <v>595</v>
+      <c r="AP309" s="96" t="s">
+        <v>594</v>
       </c>
       <c r="AQ309" s="10"/>
     </row>
@@ -35982,8 +35979,8 @@
       <c r="AO310" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP310" s="98" t="s">
-        <v>596</v>
+      <c r="AP310" s="96" t="s">
+        <v>595</v>
       </c>
       <c r="AQ310" s="10"/>
     </row>
@@ -36087,8 +36084,8 @@
       <c r="AO311" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP311" s="98" t="s">
-        <v>597</v>
+      <c r="AP311" s="96" t="s">
+        <v>596</v>
       </c>
       <c r="AQ311" s="10"/>
     </row>
@@ -36192,8 +36189,8 @@
       <c r="AO312" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP312" s="98" t="s">
-        <v>598</v>
+      <c r="AP312" s="96" t="s">
+        <v>597</v>
       </c>
       <c r="AQ312" s="10"/>
     </row>
@@ -36297,8 +36294,8 @@
       <c r="AO313" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP313" s="98" t="s">
-        <v>599</v>
+      <c r="AP313" s="96" t="s">
+        <v>598</v>
       </c>
       <c r="AQ313" s="10"/>
     </row>
@@ -36402,8 +36399,8 @@
       <c r="AO314" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP314" s="98" t="s">
-        <v>600</v>
+      <c r="AP314" s="96" t="s">
+        <v>599</v>
       </c>
       <c r="AQ314" s="10"/>
     </row>
@@ -36507,8 +36504,8 @@
       <c r="AO315" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP315" s="98" t="s">
-        <v>601</v>
+      <c r="AP315" s="96" t="s">
+        <v>600</v>
       </c>
       <c r="AQ315" s="10"/>
     </row>
@@ -36612,8 +36609,8 @@
       <c r="AO316" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP316" s="98" t="s">
-        <v>602</v>
+      <c r="AP316" s="96" t="s">
+        <v>601</v>
       </c>
       <c r="AQ316" s="10"/>
     </row>
@@ -36717,8 +36714,8 @@
       <c r="AO317" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP317" s="98" t="s">
-        <v>603</v>
+      <c r="AP317" s="96" t="s">
+        <v>602</v>
       </c>
       <c r="AQ317" s="10"/>
     </row>
@@ -36828,8 +36825,8 @@
       <c r="AO318" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP318" s="98" t="s">
-        <v>604</v>
+      <c r="AP318" s="96" t="s">
+        <v>603</v>
       </c>
       <c r="AQ318" s="10"/>
     </row>
@@ -36933,8 +36930,8 @@
       <c r="AO319" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP319" s="98" t="s">
-        <v>605</v>
+      <c r="AP319" s="96" t="s">
+        <v>604</v>
       </c>
       <c r="AQ319" s="10"/>
     </row>
@@ -37038,8 +37035,8 @@
       <c r="AO320" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP320" s="98" t="s">
-        <v>606</v>
+      <c r="AP320" s="96" t="s">
+        <v>605</v>
       </c>
       <c r="AQ320" s="10"/>
     </row>
@@ -37143,8 +37140,8 @@
       <c r="AO321" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP321" s="98" t="s">
-        <v>607</v>
+      <c r="AP321" s="96" t="s">
+        <v>606</v>
       </c>
       <c r="AQ321" s="10"/>
     </row>
@@ -37248,8 +37245,8 @@
       <c r="AO322" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP322" s="98" t="s">
-        <v>608</v>
+      <c r="AP322" s="96" t="s">
+        <v>607</v>
       </c>
       <c r="AQ322" s="10"/>
     </row>
@@ -37353,8 +37350,8 @@
       <c r="AO323" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP323" s="98" t="s">
-        <v>609</v>
+      <c r="AP323" s="96" t="s">
+        <v>608</v>
       </c>
       <c r="AQ323" s="10"/>
     </row>
@@ -37458,8 +37455,8 @@
       <c r="AO324" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP324" s="98" t="s">
-        <v>610</v>
+      <c r="AP324" s="96" t="s">
+        <v>609</v>
       </c>
       <c r="AQ324" s="10"/>
     </row>
@@ -37563,8 +37560,8 @@
       <c r="AO325" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP325" s="98" t="s">
-        <v>611</v>
+      <c r="AP325" s="96" t="s">
+        <v>610</v>
       </c>
       <c r="AQ325" s="10"/>
     </row>
@@ -37674,8 +37671,8 @@
       <c r="AO326" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP326" s="98" t="s">
-        <v>612</v>
+      <c r="AP326" s="96" t="s">
+        <v>611</v>
       </c>
       <c r="AQ326" s="10"/>
     </row>
@@ -37777,8 +37774,8 @@
       <c r="AO327" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP327" s="98" t="s">
-        <v>613</v>
+      <c r="AP327" s="96" t="s">
+        <v>612</v>
       </c>
       <c r="AQ327" s="10"/>
     </row>
@@ -37882,8 +37879,8 @@
       <c r="AO328" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP328" s="98" t="s">
-        <v>614</v>
+      <c r="AP328" s="96" t="s">
+        <v>613</v>
       </c>
       <c r="AQ328" s="10"/>
     </row>
@@ -37985,8 +37982,8 @@
       <c r="AO329" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP329" s="98" t="s">
-        <v>615</v>
+      <c r="AP329" s="96" t="s">
+        <v>614</v>
       </c>
       <c r="AQ329" s="10"/>
     </row>
@@ -38088,8 +38085,8 @@
       <c r="AO330" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP330" s="98" t="s">
-        <v>616</v>
+      <c r="AP330" s="96" t="s">
+        <v>615</v>
       </c>
       <c r="AQ330" s="10"/>
     </row>
@@ -38191,8 +38188,8 @@
       <c r="AO331" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP331" s="98" t="s">
-        <v>617</v>
+      <c r="AP331" s="96" t="s">
+        <v>616</v>
       </c>
       <c r="AQ331" s="10"/>
     </row>
@@ -38296,8 +38293,8 @@
       <c r="AO332" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP332" s="98" t="s">
-        <v>618</v>
+      <c r="AP332" s="96" t="s">
+        <v>617</v>
       </c>
       <c r="AQ332" s="10"/>
     </row>
@@ -38401,8 +38398,8 @@
       <c r="AO333" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP333" s="98" t="s">
-        <v>619</v>
+      <c r="AP333" s="96" t="s">
+        <v>618</v>
       </c>
       <c r="AQ333" s="10"/>
     </row>
@@ -38506,8 +38503,8 @@
       <c r="AO334" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP334" s="98" t="s">
-        <v>620</v>
+      <c r="AP334" s="96" t="s">
+        <v>619</v>
       </c>
       <c r="AQ334" s="10"/>
     </row>
@@ -38609,8 +38606,8 @@
       <c r="AO335" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP335" s="98" t="s">
-        <v>621</v>
+      <c r="AP335" s="96" t="s">
+        <v>620</v>
       </c>
       <c r="AQ335" s="10"/>
     </row>
@@ -38714,8 +38711,8 @@
       <c r="AO336" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP336" s="98" t="s">
-        <v>622</v>
+      <c r="AP336" s="96" t="s">
+        <v>621</v>
       </c>
       <c r="AQ336" s="10"/>
     </row>
@@ -38819,8 +38816,8 @@
       <c r="AO337" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP337" s="98" t="s">
-        <v>623</v>
+      <c r="AP337" s="96" t="s">
+        <v>622</v>
       </c>
       <c r="AQ337" s="10"/>
     </row>
@@ -38924,8 +38921,8 @@
       <c r="AO338" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP338" s="98" t="s">
-        <v>624</v>
+      <c r="AP338" s="96" t="s">
+        <v>623</v>
       </c>
       <c r="AQ338" s="10"/>
     </row>
@@ -39029,8 +39026,8 @@
       <c r="AO339" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP339" s="98" t="s">
-        <v>625</v>
+      <c r="AP339" s="96" t="s">
+        <v>624</v>
       </c>
       <c r="AQ339" s="10"/>
     </row>
@@ -39134,8 +39131,8 @@
       <c r="AO340" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP340" s="98" t="s">
-        <v>626</v>
+      <c r="AP340" s="96" t="s">
+        <v>625</v>
       </c>
       <c r="AQ340" s="10"/>
     </row>
@@ -39239,8 +39236,8 @@
       <c r="AO341" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP341" s="98" t="s">
-        <v>627</v>
+      <c r="AP341" s="96" t="s">
+        <v>626</v>
       </c>
       <c r="AQ341" s="10"/>
     </row>
@@ -39350,8 +39347,8 @@
       <c r="AO342" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP342" s="98" t="s">
-        <v>628</v>
+      <c r="AP342" s="96" t="s">
+        <v>627</v>
       </c>
       <c r="AQ342" s="10"/>
     </row>
@@ -39455,8 +39452,8 @@
       <c r="AO343" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP343" s="98" t="s">
-        <v>629</v>
+      <c r="AP343" s="96" t="s">
+        <v>628</v>
       </c>
       <c r="AQ343" s="10"/>
     </row>
@@ -39560,8 +39557,8 @@
       <c r="AO344" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP344" s="98" t="s">
-        <v>630</v>
+      <c r="AP344" s="96" t="s">
+        <v>629</v>
       </c>
       <c r="AQ344" s="10"/>
     </row>
@@ -39665,8 +39662,8 @@
       <c r="AO345" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP345" s="98" t="s">
-        <v>631</v>
+      <c r="AP345" s="96" t="s">
+        <v>630</v>
       </c>
       <c r="AQ345" s="10"/>
     </row>
@@ -39770,8 +39767,8 @@
       <c r="AO346" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP346" s="98" t="s">
-        <v>632</v>
+      <c r="AP346" s="96" t="s">
+        <v>631</v>
       </c>
       <c r="AQ346" s="10"/>
     </row>
@@ -39875,8 +39872,8 @@
       <c r="AO347" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP347" s="98" t="s">
-        <v>633</v>
+      <c r="AP347" s="96" t="s">
+        <v>632</v>
       </c>
       <c r="AQ347" s="10"/>
     </row>
@@ -39986,8 +39983,8 @@
       <c r="AO348" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP348" s="98" t="s">
-        <v>634</v>
+      <c r="AP348" s="96" t="s">
+        <v>633</v>
       </c>
       <c r="AQ348" s="10"/>
     </row>
@@ -40097,8 +40094,8 @@
       <c r="AO349" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP349" s="98" t="s">
-        <v>635</v>
+      <c r="AP349" s="96" t="s">
+        <v>634</v>
       </c>
       <c r="AQ349" s="10"/>
     </row>
@@ -40208,8 +40205,8 @@
       <c r="AO350" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AP350" s="98" t="s">
-        <v>636</v>
+      <c r="AP350" s="96" t="s">
+        <v>635</v>
       </c>
       <c r="AQ350" s="10"/>
     </row>
@@ -40319,8 +40316,8 @@
       <c r="AO351" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP351" s="98" t="s">
-        <v>637</v>
+      <c r="AP351" s="96" t="s">
+        <v>636</v>
       </c>
       <c r="AQ351" s="10"/>
     </row>
@@ -40418,8 +40415,8 @@
       <c r="AO352" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP352" s="98" t="s">
-        <v>638</v>
+      <c r="AP352" s="96" t="s">
+        <v>637</v>
       </c>
       <c r="AQ352" s="10"/>
     </row>
@@ -40523,8 +40520,8 @@
       <c r="AO353" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP353" s="98" t="s">
-        <v>639</v>
+      <c r="AP353" s="96" t="s">
+        <v>638</v>
       </c>
       <c r="AQ353" s="10"/>
     </row>
@@ -40628,8 +40625,8 @@
       <c r="AO354" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP354" s="98" t="s">
-        <v>640</v>
+      <c r="AP354" s="96" t="s">
+        <v>639</v>
       </c>
       <c r="AQ354" s="10"/>
     </row>
@@ -40733,8 +40730,8 @@
       <c r="AO355" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP355" s="98" t="s">
-        <v>641</v>
+      <c r="AP355" s="96" t="s">
+        <v>640</v>
       </c>
       <c r="AQ355" s="10"/>
     </row>
@@ -40836,8 +40833,8 @@
       <c r="AO356" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP356" s="98" t="s">
-        <v>642</v>
+      <c r="AP356" s="96" t="s">
+        <v>641</v>
       </c>
       <c r="AQ356" s="10"/>
     </row>
@@ -40941,8 +40938,8 @@
       <c r="AO357" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP357" s="98" t="s">
-        <v>643</v>
+      <c r="AP357" s="96" t="s">
+        <v>642</v>
       </c>
       <c r="AQ357" s="10"/>
     </row>
@@ -41046,8 +41043,8 @@
       <c r="AO358" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP358" s="98" t="s">
-        <v>644</v>
+      <c r="AP358" s="96" t="s">
+        <v>643</v>
       </c>
       <c r="AQ358" s="10"/>
     </row>
@@ -41151,8 +41148,8 @@
       <c r="AO359" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP359" s="98" t="s">
-        <v>645</v>
+      <c r="AP359" s="96" t="s">
+        <v>644</v>
       </c>
       <c r="AQ359" s="10"/>
     </row>
@@ -41256,8 +41253,8 @@
       <c r="AO360" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP360" s="98" t="s">
-        <v>646</v>
+      <c r="AP360" s="96" t="s">
+        <v>645</v>
       </c>
       <c r="AQ360" s="10"/>
     </row>
@@ -41361,8 +41358,8 @@
       <c r="AO361" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP361" s="98" t="s">
-        <v>647</v>
+      <c r="AP361" s="96" t="s">
+        <v>646</v>
       </c>
       <c r="AQ361" s="10"/>
     </row>
@@ -41466,8 +41463,8 @@
       <c r="AO362" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP362" s="98" t="s">
-        <v>648</v>
+      <c r="AP362" s="96" t="s">
+        <v>647</v>
       </c>
       <c r="AQ362" s="10"/>
     </row>
@@ -41571,8 +41568,8 @@
       <c r="AO363" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP363" s="98" t="s">
-        <v>649</v>
+      <c r="AP363" s="96" t="s">
+        <v>648</v>
       </c>
       <c r="AQ363" s="10"/>
     </row>
@@ -41676,8 +41673,8 @@
       <c r="AO364" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP364" s="98" t="s">
-        <v>650</v>
+      <c r="AP364" s="96" t="s">
+        <v>649</v>
       </c>
       <c r="AQ364" s="10"/>
     </row>
@@ -41781,8 +41778,8 @@
       <c r="AO365" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP365" s="98" t="s">
-        <v>651</v>
+      <c r="AP365" s="96" t="s">
+        <v>650</v>
       </c>
       <c r="AQ365" s="10"/>
     </row>
@@ -41886,8 +41883,8 @@
       <c r="AO366" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP366" s="98" t="s">
-        <v>652</v>
+      <c r="AP366" s="96" t="s">
+        <v>651</v>
       </c>
       <c r="AQ366" s="10"/>
     </row>
@@ -41991,8 +41988,8 @@
       <c r="AO367" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP367" s="98" t="s">
-        <v>653</v>
+      <c r="AP367" s="96" t="s">
+        <v>652</v>
       </c>
       <c r="AQ367" s="10"/>
     </row>
@@ -42102,8 +42099,8 @@
       <c r="AO368" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP368" s="98" t="s">
-        <v>654</v>
+      <c r="AP368" s="96" t="s">
+        <v>653</v>
       </c>
       <c r="AQ368" s="10"/>
     </row>
@@ -42203,8 +42200,8 @@
       <c r="AO369" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP369" s="98" t="s">
-        <v>655</v>
+      <c r="AP369" s="96" t="s">
+        <v>654</v>
       </c>
       <c r="AQ369" s="10"/>
     </row>
@@ -42308,8 +42305,8 @@
       <c r="AO370" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP370" s="98" t="s">
-        <v>656</v>
+      <c r="AP370" s="96" t="s">
+        <v>655</v>
       </c>
       <c r="AQ370" s="10"/>
     </row>
@@ -42413,8 +42410,8 @@
       <c r="AO371" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP371" s="98" t="s">
-        <v>657</v>
+      <c r="AP371" s="96" t="s">
+        <v>656</v>
       </c>
       <c r="AQ371" s="10"/>
     </row>
@@ -42518,8 +42515,8 @@
       <c r="AO372" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP372" s="98" t="s">
-        <v>658</v>
+      <c r="AP372" s="96" t="s">
+        <v>657</v>
       </c>
       <c r="AQ372" s="10"/>
     </row>
@@ -42623,8 +42620,8 @@
       <c r="AO373" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP373" s="98" t="s">
-        <v>659</v>
+      <c r="AP373" s="96" t="s">
+        <v>658</v>
       </c>
       <c r="AQ373" s="10"/>
     </row>
@@ -42728,8 +42725,8 @@
       <c r="AO374" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP374" s="98" t="s">
-        <v>660</v>
+      <c r="AP374" s="96" t="s">
+        <v>659</v>
       </c>
       <c r="AQ374" s="10"/>
     </row>
@@ -42839,8 +42836,8 @@
       <c r="AO375" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP375" s="98" t="s">
-        <v>661</v>
+      <c r="AP375" s="96" t="s">
+        <v>660</v>
       </c>
       <c r="AQ375" s="10"/>
     </row>
@@ -42944,8 +42941,8 @@
       <c r="AO376" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP376" s="98" t="s">
-        <v>662</v>
+      <c r="AP376" s="96" t="s">
+        <v>661</v>
       </c>
       <c r="AQ376" s="10"/>
     </row>
@@ -43049,8 +43046,8 @@
       <c r="AO377" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP377" s="98" t="s">
-        <v>663</v>
+      <c r="AP377" s="96" t="s">
+        <v>662</v>
       </c>
       <c r="AQ377" s="10"/>
     </row>
@@ -43154,8 +43151,8 @@
       <c r="AO378" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP378" s="98" t="s">
-        <v>664</v>
+      <c r="AP378" s="96" t="s">
+        <v>663</v>
       </c>
       <c r="AQ378" s="10"/>
     </row>
@@ -43259,8 +43256,8 @@
       <c r="AO379" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP379" s="98" t="s">
-        <v>665</v>
+      <c r="AP379" s="96" t="s">
+        <v>664</v>
       </c>
       <c r="AQ379" s="10"/>
     </row>
@@ -43364,8 +43361,8 @@
       <c r="AO380" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP380" s="98" t="s">
-        <v>666</v>
+      <c r="AP380" s="96" t="s">
+        <v>665</v>
       </c>
       <c r="AQ380" s="10"/>
     </row>
@@ -43469,8 +43466,8 @@
       <c r="AO381" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP381" s="98" t="s">
-        <v>667</v>
+      <c r="AP381" s="96" t="s">
+        <v>666</v>
       </c>
       <c r="AQ381" s="10"/>
     </row>
@@ -43574,8 +43571,8 @@
       <c r="AO382" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP382" s="98" t="s">
-        <v>668</v>
+      <c r="AP382" s="96" t="s">
+        <v>667</v>
       </c>
       <c r="AQ382" s="10"/>
     </row>
@@ -43679,8 +43676,8 @@
       <c r="AO383" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP383" s="98" t="s">
-        <v>669</v>
+      <c r="AP383" s="96" t="s">
+        <v>668</v>
       </c>
       <c r="AQ383" s="10"/>
     </row>
@@ -43784,8 +43781,8 @@
       <c r="AO384" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP384" s="98" t="s">
-        <v>670</v>
+      <c r="AP384" s="96" t="s">
+        <v>669</v>
       </c>
       <c r="AQ384" s="10"/>
     </row>
@@ -43889,8 +43886,8 @@
       <c r="AO385" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP385" s="98" t="s">
-        <v>671</v>
+      <c r="AP385" s="96" t="s">
+        <v>670</v>
       </c>
       <c r="AQ385" s="10"/>
     </row>
@@ -43994,8 +43991,8 @@
       <c r="AO386" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP386" s="98" t="s">
-        <v>672</v>
+      <c r="AP386" s="96" t="s">
+        <v>671</v>
       </c>
       <c r="AQ386" s="10"/>
     </row>
@@ -44099,8 +44096,8 @@
       <c r="AO387" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP387" s="98" t="s">
-        <v>673</v>
+      <c r="AP387" s="96" t="s">
+        <v>672</v>
       </c>
       <c r="AQ387" s="10"/>
     </row>
@@ -44204,8 +44201,8 @@
       <c r="AO388" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP388" s="98" t="s">
-        <v>674</v>
+      <c r="AP388" s="96" t="s">
+        <v>673</v>
       </c>
       <c r="AQ388" s="10"/>
     </row>
@@ -44309,8 +44306,8 @@
       <c r="AO389" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP389" s="98" t="s">
-        <v>675</v>
+      <c r="AP389" s="96" t="s">
+        <v>674</v>
       </c>
       <c r="AQ389" s="10"/>
     </row>
@@ -44414,8 +44411,8 @@
       <c r="AO390" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP390" s="98" t="s">
-        <v>676</v>
+      <c r="AP390" s="96" t="s">
+        <v>675</v>
       </c>
       <c r="AQ390" s="10"/>
     </row>
@@ -44519,8 +44516,8 @@
       <c r="AO391" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP391" s="98" t="s">
-        <v>677</v>
+      <c r="AP391" s="96" t="s">
+        <v>676</v>
       </c>
       <c r="AQ391" s="10"/>
     </row>
@@ -44624,8 +44621,8 @@
       <c r="AO392" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP392" s="98" t="s">
-        <v>678</v>
+      <c r="AP392" s="96" t="s">
+        <v>677</v>
       </c>
       <c r="AQ392" s="10"/>
     </row>
@@ -44729,8 +44726,8 @@
       <c r="AO393" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP393" s="98" t="s">
-        <v>679</v>
+      <c r="AP393" s="96" t="s">
+        <v>678</v>
       </c>
       <c r="AQ393" s="10"/>
     </row>
@@ -44834,8 +44831,8 @@
       <c r="AO394" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP394" s="98" t="s">
-        <v>680</v>
+      <c r="AP394" s="96" t="s">
+        <v>679</v>
       </c>
       <c r="AQ394" s="10"/>
     </row>
@@ -44939,8 +44936,8 @@
       <c r="AO395" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP395" s="98" t="s">
-        <v>681</v>
+      <c r="AP395" s="96" t="s">
+        <v>680</v>
       </c>
       <c r="AQ395" s="10"/>
     </row>
@@ -45044,8 +45041,8 @@
       <c r="AO396" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP396" s="98" t="s">
-        <v>682</v>
+      <c r="AP396" s="96" t="s">
+        <v>681</v>
       </c>
       <c r="AQ396" s="10"/>
     </row>
@@ -45149,8 +45146,8 @@
       <c r="AO397" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP397" s="98" t="s">
-        <v>683</v>
+      <c r="AP397" s="96" t="s">
+        <v>682</v>
       </c>
       <c r="AQ397" s="10"/>
     </row>
@@ -45254,8 +45251,8 @@
       <c r="AO398" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP398" s="98" t="s">
-        <v>684</v>
+      <c r="AP398" s="96" t="s">
+        <v>683</v>
       </c>
       <c r="AQ398" s="10"/>
     </row>
@@ -45359,8 +45356,8 @@
       <c r="AO399" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP399" s="98" t="s">
-        <v>685</v>
+      <c r="AP399" s="96" t="s">
+        <v>684</v>
       </c>
       <c r="AQ399" s="10"/>
     </row>
@@ -45464,8 +45461,8 @@
       <c r="AO400" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP400" s="98" t="s">
-        <v>686</v>
+      <c r="AP400" s="96" t="s">
+        <v>685</v>
       </c>
       <c r="AQ400" s="10"/>
     </row>
@@ -45569,8 +45566,8 @@
       <c r="AO401" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP401" s="98" t="s">
-        <v>687</v>
+      <c r="AP401" s="96" t="s">
+        <v>686</v>
       </c>
       <c r="AQ401" s="10"/>
     </row>
@@ -45674,8 +45671,8 @@
       <c r="AO402" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP402" s="98" t="s">
-        <v>688</v>
+      <c r="AP402" s="96" t="s">
+        <v>687</v>
       </c>
       <c r="AQ402" s="10"/>
     </row>
@@ -45779,8 +45776,8 @@
       <c r="AO403" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP403" s="98" t="s">
-        <v>689</v>
+      <c r="AP403" s="96" t="s">
+        <v>688</v>
       </c>
       <c r="AQ403" s="10"/>
     </row>
@@ -45890,8 +45887,8 @@
       <c r="AO404" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP404" s="98" t="s">
-        <v>690</v>
+      <c r="AP404" s="96" t="s">
+        <v>689</v>
       </c>
       <c r="AQ404" s="10"/>
     </row>
@@ -45997,8 +45994,8 @@
       <c r="AO405" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP405" s="98" t="s">
-        <v>691</v>
+      <c r="AP405" s="96" t="s">
+        <v>690</v>
       </c>
       <c r="AQ405" s="10"/>
     </row>
@@ -46104,8 +46101,8 @@
       <c r="AO406" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP406" s="98" t="s">
-        <v>692</v>
+      <c r="AP406" s="96" t="s">
+        <v>691</v>
       </c>
       <c r="AQ406" s="10"/>
     </row>
@@ -46211,8 +46208,8 @@
       <c r="AO407" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP407" s="98" t="s">
-        <v>693</v>
+      <c r="AP407" s="96" t="s">
+        <v>692</v>
       </c>
       <c r="AQ407" s="10"/>
     </row>
@@ -46318,8 +46315,8 @@
       <c r="AO408" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP408" s="98" t="s">
-        <v>694</v>
+      <c r="AP408" s="96" t="s">
+        <v>693</v>
       </c>
       <c r="AQ408" s="10"/>
     </row>
@@ -46423,8 +46420,8 @@
       <c r="AO409" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP409" s="98" t="s">
-        <v>695</v>
+      <c r="AP409" s="96" t="s">
+        <v>694</v>
       </c>
       <c r="AQ409" s="10"/>
     </row>
@@ -46528,8 +46525,8 @@
       <c r="AO410" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP410" s="98" t="s">
-        <v>696</v>
+      <c r="AP410" s="96" t="s">
+        <v>695</v>
       </c>
       <c r="AQ410" s="10"/>
     </row>
@@ -46633,8 +46630,8 @@
       <c r="AO411" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP411" s="98" t="s">
-        <v>697</v>
+      <c r="AP411" s="96" t="s">
+        <v>696</v>
       </c>
       <c r="AQ411" s="10"/>
     </row>
@@ -46738,8 +46735,8 @@
       <c r="AO412" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP412" s="98" t="s">
-        <v>698</v>
+      <c r="AP412" s="96" t="s">
+        <v>697</v>
       </c>
       <c r="AQ412" s="10"/>
     </row>
@@ -46843,8 +46840,8 @@
       <c r="AO413" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP413" s="98" t="s">
-        <v>699</v>
+      <c r="AP413" s="96" t="s">
+        <v>698</v>
       </c>
       <c r="AQ413" s="10"/>
     </row>
@@ -46948,8 +46945,8 @@
       <c r="AO414" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP414" s="98" t="s">
-        <v>700</v>
+      <c r="AP414" s="96" t="s">
+        <v>699</v>
       </c>
       <c r="AQ414" s="10"/>
     </row>
@@ -47055,8 +47052,8 @@
       <c r="AO415" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP415" s="98" t="s">
-        <v>701</v>
+      <c r="AP415" s="96" t="s">
+        <v>700</v>
       </c>
       <c r="AQ415" s="10"/>
     </row>
@@ -47160,8 +47157,8 @@
       <c r="AO416" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP416" s="98" t="s">
-        <v>702</v>
+      <c r="AP416" s="96" t="s">
+        <v>701</v>
       </c>
       <c r="AQ416" s="10"/>
     </row>
@@ -47265,8 +47262,8 @@
       <c r="AO417" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP417" s="98" t="s">
-        <v>703</v>
+      <c r="AP417" s="96" t="s">
+        <v>702</v>
       </c>
       <c r="AQ417" s="10"/>
     </row>
@@ -47370,8 +47367,8 @@
       <c r="AO418" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP418" s="98" t="s">
-        <v>704</v>
+      <c r="AP418" s="96" t="s">
+        <v>703</v>
       </c>
       <c r="AQ418" s="10"/>
     </row>
@@ -47475,8 +47472,8 @@
       <c r="AO419" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP419" s="98" t="s">
-        <v>705</v>
+      <c r="AP419" s="96" t="s">
+        <v>704</v>
       </c>
       <c r="AQ419" s="10"/>
     </row>
@@ -47580,8 +47577,8 @@
       <c r="AO420" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP420" s="98" t="s">
-        <v>706</v>
+      <c r="AP420" s="96" t="s">
+        <v>705</v>
       </c>
       <c r="AQ420" s="10"/>
     </row>
@@ -47685,8 +47682,8 @@
       <c r="AO421" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP421" s="98" t="s">
-        <v>707</v>
+      <c r="AP421" s="96" t="s">
+        <v>706</v>
       </c>
       <c r="AQ421" s="10"/>
     </row>
@@ -47790,8 +47787,8 @@
       <c r="AO422" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP422" s="98" t="s">
-        <v>708</v>
+      <c r="AP422" s="96" t="s">
+        <v>707</v>
       </c>
       <c r="AQ422" s="10"/>
     </row>
@@ -47895,8 +47892,8 @@
       <c r="AO423" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP423" s="98" t="s">
-        <v>709</v>
+      <c r="AP423" s="96" t="s">
+        <v>708</v>
       </c>
       <c r="AQ423" s="10"/>
     </row>
@@ -48000,8 +47997,8 @@
       <c r="AO424" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP424" s="98" t="s">
-        <v>710</v>
+      <c r="AP424" s="96" t="s">
+        <v>709</v>
       </c>
       <c r="AQ424" s="10"/>
     </row>
@@ -48105,8 +48102,8 @@
       <c r="AO425" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP425" s="98" t="s">
-        <v>711</v>
+      <c r="AP425" s="96" t="s">
+        <v>710</v>
       </c>
       <c r="AQ425" s="10"/>
     </row>
@@ -48210,8 +48207,8 @@
       <c r="AO426" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP426" s="98" t="s">
-        <v>712</v>
+      <c r="AP426" s="96" t="s">
+        <v>711</v>
       </c>
       <c r="AQ426" s="10"/>
     </row>
@@ -48315,8 +48312,8 @@
       <c r="AO427" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP427" s="98" t="s">
-        <v>713</v>
+      <c r="AP427" s="96" t="s">
+        <v>712</v>
       </c>
       <c r="AQ427" s="10"/>
     </row>
@@ -48420,8 +48417,8 @@
       <c r="AO428" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP428" s="98" t="s">
-        <v>714</v>
+      <c r="AP428" s="96" t="s">
+        <v>713</v>
       </c>
       <c r="AQ428" s="10"/>
     </row>
@@ -48531,8 +48528,8 @@
       <c r="AO429" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP429" s="98" t="s">
-        <v>715</v>
+      <c r="AP429" s="96" t="s">
+        <v>714</v>
       </c>
       <c r="AQ429" s="10"/>
     </row>
@@ -48636,8 +48633,8 @@
       <c r="AO430" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP430" s="98" t="s">
-        <v>716</v>
+      <c r="AP430" s="96" t="s">
+        <v>715</v>
       </c>
       <c r="AQ430" s="10"/>
     </row>
@@ -48741,8 +48738,8 @@
       <c r="AO431" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP431" s="98" t="s">
-        <v>717</v>
+      <c r="AP431" s="96" t="s">
+        <v>716</v>
       </c>
       <c r="AQ431" s="10"/>
     </row>
@@ -48846,8 +48843,8 @@
       <c r="AO432" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP432" s="98" t="s">
-        <v>718</v>
+      <c r="AP432" s="96" t="s">
+        <v>717</v>
       </c>
       <c r="AQ432" s="10"/>
     </row>
@@ -48951,8 +48948,8 @@
       <c r="AO433" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP433" s="98" t="s">
-        <v>719</v>
+      <c r="AP433" s="96" t="s">
+        <v>718</v>
       </c>
       <c r="AQ433" s="10"/>
     </row>
@@ -49056,8 +49053,8 @@
       <c r="AO434" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP434" s="98" t="s">
-        <v>720</v>
+      <c r="AP434" s="96" t="s">
+        <v>719</v>
       </c>
       <c r="AQ434" s="10"/>
     </row>
@@ -49163,8 +49160,8 @@
       <c r="AO435" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP435" s="98" t="s">
-        <v>721</v>
+      <c r="AP435" s="96" t="s">
+        <v>720</v>
       </c>
       <c r="AQ435" s="10"/>
     </row>
@@ -49268,8 +49265,8 @@
       <c r="AO436" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP436" s="98" t="s">
-        <v>722</v>
+      <c r="AP436" s="96" t="s">
+        <v>721</v>
       </c>
       <c r="AQ436" s="10"/>
     </row>
@@ -49373,8 +49370,8 @@
       <c r="AO437" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP437" s="98" t="s">
-        <v>723</v>
+      <c r="AP437" s="96" t="s">
+        <v>722</v>
       </c>
       <c r="AQ437" s="10"/>
     </row>
@@ -49478,8 +49475,8 @@
       <c r="AO438" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP438" s="98" t="s">
-        <v>724</v>
+      <c r="AP438" s="96" t="s">
+        <v>723</v>
       </c>
       <c r="AQ438" s="10"/>
     </row>
@@ -49579,8 +49576,8 @@
       <c r="AO439" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP439" s="98" t="s">
-        <v>725</v>
+      <c r="AP439" s="96" t="s">
+        <v>724</v>
       </c>
       <c r="AQ439" s="10"/>
     </row>
@@ -49684,8 +49681,8 @@
       <c r="AO440" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP440" s="98" t="s">
-        <v>726</v>
+      <c r="AP440" s="96" t="s">
+        <v>725</v>
       </c>
       <c r="AQ440" s="10"/>
     </row>
@@ -49789,8 +49786,8 @@
       <c r="AO441" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP441" s="98" t="s">
-        <v>727</v>
+      <c r="AP441" s="96" t="s">
+        <v>726</v>
       </c>
       <c r="AQ441" s="10"/>
     </row>
@@ -49890,8 +49887,8 @@
       <c r="AO442" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP442" s="98" t="s">
-        <v>728</v>
+      <c r="AP442" s="96" t="s">
+        <v>727</v>
       </c>
       <c r="AQ442" s="10"/>
     </row>
@@ -49993,8 +49990,8 @@
       <c r="AO443" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP443" s="98" t="s">
-        <v>729</v>
+      <c r="AP443" s="96" t="s">
+        <v>728</v>
       </c>
       <c r="AQ443" s="10"/>
     </row>
@@ -50096,8 +50093,8 @@
       <c r="AO444" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP444" s="98" t="s">
-        <v>730</v>
+      <c r="AP444" s="96" t="s">
+        <v>729</v>
       </c>
       <c r="AQ444" s="10"/>
     </row>
@@ -50199,8 +50196,8 @@
       <c r="AO445" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP445" s="98" t="s">
-        <v>731</v>
+      <c r="AP445" s="96" t="s">
+        <v>730</v>
       </c>
       <c r="AQ445" s="10"/>
     </row>
@@ -50302,8 +50299,8 @@
       <c r="AO446" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP446" s="98" t="s">
-        <v>732</v>
+      <c r="AP446" s="96" t="s">
+        <v>731</v>
       </c>
       <c r="AQ446" s="10"/>
     </row>
@@ -50407,8 +50404,8 @@
       <c r="AO447" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP447" s="98" t="s">
-        <v>733</v>
+      <c r="AP447" s="96" t="s">
+        <v>732</v>
       </c>
       <c r="AQ447" s="10"/>
     </row>
@@ -50512,8 +50509,8 @@
       <c r="AO448" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP448" s="98" t="s">
-        <v>734</v>
+      <c r="AP448" s="96" t="s">
+        <v>733</v>
       </c>
       <c r="AQ448" s="10"/>
     </row>
@@ -50615,8 +50612,8 @@
       <c r="AO449" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP449" s="98" t="s">
-        <v>735</v>
+      <c r="AP449" s="96" t="s">
+        <v>734</v>
       </c>
       <c r="AQ449" s="10"/>
     </row>
@@ -50720,8 +50717,8 @@
       <c r="AO450" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP450" s="98" t="s">
-        <v>736</v>
+      <c r="AP450" s="96" t="s">
+        <v>735</v>
       </c>
       <c r="AQ450" s="10"/>
     </row>
@@ -50825,8 +50822,8 @@
       <c r="AO451" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP451" s="98" t="s">
-        <v>737</v>
+      <c r="AP451" s="96" t="s">
+        <v>736</v>
       </c>
       <c r="AQ451" s="10"/>
     </row>
@@ -50928,8 +50925,8 @@
       <c r="AO452" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP452" s="98" t="s">
-        <v>738</v>
+      <c r="AP452" s="96" t="s">
+        <v>737</v>
       </c>
       <c r="AQ452" s="10"/>
     </row>
@@ -51033,8 +51030,8 @@
       <c r="AO453" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP453" s="98" t="s">
-        <v>739</v>
+      <c r="AP453" s="96" t="s">
+        <v>738</v>
       </c>
       <c r="AQ453" s="10"/>
     </row>
@@ -51138,8 +51135,8 @@
       <c r="AO454" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP454" s="98" t="s">
-        <v>740</v>
+      <c r="AP454" s="96" t="s">
+        <v>739</v>
       </c>
       <c r="AQ454" s="10"/>
     </row>
@@ -51243,8 +51240,8 @@
       <c r="AO455" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP455" s="98" t="s">
-        <v>741</v>
+      <c r="AP455" s="96" t="s">
+        <v>740</v>
       </c>
       <c r="AQ455" s="10"/>
     </row>
@@ -51348,8 +51345,8 @@
       <c r="AO456" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP456" s="98" t="s">
-        <v>742</v>
+      <c r="AP456" s="96" t="s">
+        <v>741</v>
       </c>
       <c r="AQ456" s="10"/>
     </row>
@@ -51453,8 +51450,8 @@
       <c r="AO457" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP457" s="98" t="s">
-        <v>743</v>
+      <c r="AP457" s="96" t="s">
+        <v>742</v>
       </c>
       <c r="AQ457" s="10"/>
     </row>
@@ -51558,8 +51555,8 @@
       <c r="AO458" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP458" s="98" t="s">
-        <v>744</v>
+      <c r="AP458" s="96" t="s">
+        <v>743</v>
       </c>
       <c r="AQ458" s="10"/>
     </row>
@@ -51665,8 +51662,8 @@
       <c r="AO459" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP459" s="98" t="s">
-        <v>745</v>
+      <c r="AP459" s="96" t="s">
+        <v>744</v>
       </c>
       <c r="AQ459" s="10"/>
     </row>
@@ -51772,8 +51769,8 @@
       <c r="AO460" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP460" s="98" t="s">
-        <v>746</v>
+      <c r="AP460" s="96" t="s">
+        <v>745</v>
       </c>
       <c r="AQ460" s="10"/>
     </row>
@@ -51879,8 +51876,8 @@
       <c r="AO461" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP461" s="98" t="s">
-        <v>747</v>
+      <c r="AP461" s="96" t="s">
+        <v>746</v>
       </c>
       <c r="AQ461" s="10"/>
     </row>
@@ -51986,8 +51983,8 @@
       <c r="AO462" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP462" s="98" t="s">
-        <v>748</v>
+      <c r="AP462" s="96" t="s">
+        <v>747</v>
       </c>
       <c r="AQ462" s="10"/>
     </row>
@@ -52091,8 +52088,8 @@
       <c r="AO463" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP463" s="98" t="s">
-        <v>749</v>
+      <c r="AP463" s="96" t="s">
+        <v>748</v>
       </c>
       <c r="AQ463" s="10"/>
     </row>
@@ -52196,8 +52193,8 @@
       <c r="AO464" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP464" s="98" t="s">
-        <v>750</v>
+      <c r="AP464" s="96" t="s">
+        <v>749</v>
       </c>
       <c r="AQ464" s="10"/>
     </row>
@@ -52301,8 +52298,8 @@
       <c r="AO465" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP465" s="98" t="s">
-        <v>751</v>
+      <c r="AP465" s="96" t="s">
+        <v>750</v>
       </c>
       <c r="AQ465" s="10"/>
     </row>
@@ -52404,8 +52401,8 @@
       <c r="AO466" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP466" s="98" t="s">
-        <v>752</v>
+      <c r="AP466" s="96" t="s">
+        <v>751</v>
       </c>
       <c r="AQ466" s="10"/>
     </row>
@@ -52505,8 +52502,8 @@
       </c>
       <c r="AN467" s="10"/>
       <c r="AO467" s="10"/>
-      <c r="AP467" s="98" t="s">
-        <v>753</v>
+      <c r="AP467" s="96" t="s">
+        <v>752</v>
       </c>
       <c r="AQ467" s="10"/>
     </row>
@@ -52604,8 +52601,8 @@
       </c>
       <c r="AN468" s="10"/>
       <c r="AO468" s="10"/>
-      <c r="AP468" s="98" t="s">
-        <v>754</v>
+      <c r="AP468" s="96" t="s">
+        <v>753</v>
       </c>
       <c r="AQ468" s="10"/>
     </row>
@@ -52703,8 +52700,8 @@
       </c>
       <c r="AN469" s="10"/>
       <c r="AO469" s="10"/>
-      <c r="AP469" s="98" t="s">
-        <v>755</v>
+      <c r="AP469" s="96" t="s">
+        <v>754</v>
       </c>
       <c r="AQ469" s="10"/>
     </row>
@@ -52802,8 +52799,8 @@
       </c>
       <c r="AN470" s="10"/>
       <c r="AO470" s="10"/>
-      <c r="AP470" s="98" t="s">
-        <v>756</v>
+      <c r="AP470" s="96" t="s">
+        <v>755</v>
       </c>
       <c r="AQ470" s="10"/>
     </row>
@@ -52903,8 +52900,8 @@
       </c>
       <c r="AN471" s="10"/>
       <c r="AO471" s="10"/>
-      <c r="AP471" s="98" t="s">
-        <v>757</v>
+      <c r="AP471" s="96" t="s">
+        <v>756</v>
       </c>
       <c r="AQ471" s="10"/>
     </row>
@@ -53002,8 +52999,8 @@
       </c>
       <c r="AN472" s="10"/>
       <c r="AO472" s="10"/>
-      <c r="AP472" s="98" t="s">
-        <v>758</v>
+      <c r="AP472" s="96" t="s">
+        <v>757</v>
       </c>
       <c r="AQ472" s="10"/>
     </row>
@@ -53101,8 +53098,8 @@
       </c>
       <c r="AN473" s="10"/>
       <c r="AO473" s="10"/>
-      <c r="AP473" s="98" t="s">
-        <v>759</v>
+      <c r="AP473" s="96" t="s">
+        <v>758</v>
       </c>
       <c r="AQ473" s="10"/>
     </row>
@@ -53200,8 +53197,8 @@
       </c>
       <c r="AN474" s="10"/>
       <c r="AO474" s="10"/>
-      <c r="AP474" s="98" t="s">
-        <v>760</v>
+      <c r="AP474" s="96" t="s">
+        <v>759</v>
       </c>
       <c r="AQ474" s="10"/>
     </row>
@@ -53299,8 +53296,8 @@
       </c>
       <c r="AN475" s="10"/>
       <c r="AO475" s="10"/>
-      <c r="AP475" s="98" t="s">
-        <v>761</v>
+      <c r="AP475" s="96" t="s">
+        <v>760</v>
       </c>
       <c r="AQ475" s="10"/>
     </row>
@@ -53398,8 +53395,8 @@
       </c>
       <c r="AN476" s="10"/>
       <c r="AO476" s="10"/>
-      <c r="AP476" s="98" t="s">
-        <v>762</v>
+      <c r="AP476" s="96" t="s">
+        <v>761</v>
       </c>
       <c r="AQ476" s="10"/>
     </row>
@@ -53497,8 +53494,8 @@
       </c>
       <c r="AN477" s="10"/>
       <c r="AO477" s="10"/>
-      <c r="AP477" s="98" t="s">
-        <v>763</v>
+      <c r="AP477" s="96" t="s">
+        <v>762</v>
       </c>
       <c r="AQ477" s="10"/>
     </row>
@@ -53596,8 +53593,8 @@
       </c>
       <c r="AN478" s="10"/>
       <c r="AO478" s="10"/>
-      <c r="AP478" s="98" t="s">
-        <v>764</v>
+      <c r="AP478" s="96" t="s">
+        <v>763</v>
       </c>
       <c r="AQ478" s="10"/>
     </row>
@@ -53695,8 +53692,8 @@
       </c>
       <c r="AN479" s="10"/>
       <c r="AO479" s="10"/>
-      <c r="AP479" s="98" t="s">
-        <v>765</v>
+      <c r="AP479" s="96" t="s">
+        <v>764</v>
       </c>
       <c r="AQ479" s="10"/>
     </row>
@@ -53794,8 +53791,8 @@
       </c>
       <c r="AN480" s="10"/>
       <c r="AO480" s="10"/>
-      <c r="AP480" s="98" t="s">
-        <v>766</v>
+      <c r="AP480" s="96" t="s">
+        <v>765</v>
       </c>
       <c r="AQ480" s="10"/>
     </row>
@@ -53895,8 +53892,8 @@
       </c>
       <c r="AN481" s="10"/>
       <c r="AO481" s="10"/>
-      <c r="AP481" s="98" t="s">
-        <v>767</v>
+      <c r="AP481" s="96" t="s">
+        <v>766</v>
       </c>
       <c r="AQ481" s="10"/>
     </row>
@@ -53994,8 +53991,8 @@
       </c>
       <c r="AN482" s="10"/>
       <c r="AO482" s="10"/>
-      <c r="AP482" s="98" t="s">
-        <v>768</v>
+      <c r="AP482" s="96" t="s">
+        <v>767</v>
       </c>
       <c r="AQ482" s="10"/>
     </row>
@@ -54093,8 +54090,8 @@
       </c>
       <c r="AN483" s="10"/>
       <c r="AO483" s="10"/>
-      <c r="AP483" s="98" t="s">
-        <v>769</v>
+      <c r="AP483" s="96" t="s">
+        <v>768</v>
       </c>
       <c r="AQ483" s="10"/>
     </row>
@@ -54192,8 +54189,8 @@
       </c>
       <c r="AN484" s="10"/>
       <c r="AO484" s="10"/>
-      <c r="AP484" s="98" t="s">
-        <v>770</v>
+      <c r="AP484" s="96" t="s">
+        <v>769</v>
       </c>
       <c r="AQ484" s="10"/>
     </row>
@@ -54293,8 +54290,8 @@
       </c>
       <c r="AN485" s="10"/>
       <c r="AO485" s="10"/>
-      <c r="AP485" s="98" t="s">
-        <v>771</v>
+      <c r="AP485" s="96" t="s">
+        <v>770</v>
       </c>
       <c r="AQ485" s="10"/>
     </row>
@@ -54392,8 +54389,8 @@
       </c>
       <c r="AN486" s="10"/>
       <c r="AO486" s="10"/>
-      <c r="AP486" s="98" t="s">
-        <v>772</v>
+      <c r="AP486" s="96" t="s">
+        <v>771</v>
       </c>
       <c r="AQ486" s="10"/>
     </row>
@@ -54493,8 +54490,8 @@
       </c>
       <c r="AN487" s="10"/>
       <c r="AO487" s="10"/>
-      <c r="AP487" s="98" t="s">
-        <v>773</v>
+      <c r="AP487" s="96" t="s">
+        <v>772</v>
       </c>
       <c r="AQ487" s="10"/>
     </row>
@@ -54594,8 +54591,8 @@
       </c>
       <c r="AN488" s="10"/>
       <c r="AO488" s="10"/>
-      <c r="AP488" s="98" t="s">
-        <v>774</v>
+      <c r="AP488" s="96" t="s">
+        <v>773</v>
       </c>
       <c r="AQ488" s="10"/>
     </row>
@@ -54693,8 +54690,8 @@
       </c>
       <c r="AN489" s="10"/>
       <c r="AO489" s="10"/>
-      <c r="AP489" s="98" t="s">
-        <v>775</v>
+      <c r="AP489" s="96" t="s">
+        <v>774</v>
       </c>
       <c r="AQ489" s="10"/>
     </row>
@@ -54794,8 +54791,8 @@
       </c>
       <c r="AN490" s="10"/>
       <c r="AO490" s="10"/>
-      <c r="AP490" s="98" t="s">
-        <v>776</v>
+      <c r="AP490" s="96" t="s">
+        <v>775</v>
       </c>
       <c r="AQ490" s="10"/>
     </row>
@@ -54893,8 +54890,8 @@
       </c>
       <c r="AN491" s="10"/>
       <c r="AO491" s="10"/>
-      <c r="AP491" s="98" t="s">
-        <v>777</v>
+      <c r="AP491" s="96" t="s">
+        <v>776</v>
       </c>
       <c r="AQ491" s="10"/>
     </row>
@@ -54994,8 +54991,8 @@
       </c>
       <c r="AN492" s="10"/>
       <c r="AO492" s="10"/>
-      <c r="AP492" s="98" t="s">
-        <v>778</v>
+      <c r="AP492" s="96" t="s">
+        <v>777</v>
       </c>
       <c r="AQ492" s="10"/>
     </row>
@@ -55095,8 +55092,8 @@
       </c>
       <c r="AN493" s="10"/>
       <c r="AO493" s="10"/>
-      <c r="AP493" s="98" t="s">
-        <v>779</v>
+      <c r="AP493" s="96" t="s">
+        <v>778</v>
       </c>
       <c r="AQ493" s="10"/>
     </row>
@@ -55196,8 +55193,8 @@
       </c>
       <c r="AN494" s="10"/>
       <c r="AO494" s="10"/>
-      <c r="AP494" s="98" t="s">
-        <v>780</v>
+      <c r="AP494" s="96" t="s">
+        <v>779</v>
       </c>
       <c r="AQ494" s="10"/>
     </row>
@@ -55297,8 +55294,8 @@
       </c>
       <c r="AN495" s="10"/>
       <c r="AO495" s="10"/>
-      <c r="AP495" s="98" t="s">
-        <v>781</v>
+      <c r="AP495" s="96" t="s">
+        <v>780</v>
       </c>
       <c r="AQ495" s="10"/>
     </row>
@@ -55396,8 +55393,8 @@
       </c>
       <c r="AN496" s="10"/>
       <c r="AO496" s="10"/>
-      <c r="AP496" s="98" t="s">
-        <v>782</v>
+      <c r="AP496" s="96" t="s">
+        <v>781</v>
       </c>
       <c r="AQ496" s="10"/>
     </row>
@@ -55497,8 +55494,8 @@
       </c>
       <c r="AN497" s="10"/>
       <c r="AO497" s="10"/>
-      <c r="AP497" s="98" t="s">
-        <v>783</v>
+      <c r="AP497" s="96" t="s">
+        <v>782</v>
       </c>
       <c r="AQ497" s="10"/>
     </row>
@@ -55598,8 +55595,8 @@
       </c>
       <c r="AN498" s="10"/>
       <c r="AO498" s="10"/>
-      <c r="AP498" s="98" t="s">
-        <v>784</v>
+      <c r="AP498" s="96" t="s">
+        <v>783</v>
       </c>
       <c r="AQ498" s="10"/>
     </row>
@@ -55699,8 +55696,8 @@
       </c>
       <c r="AN499" s="10"/>
       <c r="AO499" s="10"/>
-      <c r="AP499" s="98" t="s">
-        <v>785</v>
+      <c r="AP499" s="96" t="s">
+        <v>784</v>
       </c>
       <c r="AQ499" s="10"/>
     </row>
@@ -55800,8 +55797,8 @@
       </c>
       <c r="AN500" s="10"/>
       <c r="AO500" s="10"/>
-      <c r="AP500" s="98" t="s">
-        <v>786</v>
+      <c r="AP500" s="96" t="s">
+        <v>785</v>
       </c>
       <c r="AQ500" s="10"/>
     </row>
@@ -55899,8 +55896,8 @@
       </c>
       <c r="AN501" s="10"/>
       <c r="AO501" s="10"/>
-      <c r="AP501" s="98" t="s">
-        <v>787</v>
+      <c r="AP501" s="96" t="s">
+        <v>786</v>
       </c>
       <c r="AQ501" s="10"/>
     </row>
@@ -56000,8 +55997,8 @@
       </c>
       <c r="AN502" s="10"/>
       <c r="AO502" s="10"/>
-      <c r="AP502" s="98" t="s">
-        <v>788</v>
+      <c r="AP502" s="96" t="s">
+        <v>787</v>
       </c>
       <c r="AQ502" s="10"/>
     </row>
@@ -56099,8 +56096,8 @@
       </c>
       <c r="AN503" s="10"/>
       <c r="AO503" s="10"/>
-      <c r="AP503" s="98" t="s">
-        <v>789</v>
+      <c r="AP503" s="96" t="s">
+        <v>788</v>
       </c>
       <c r="AQ503" s="10"/>
     </row>
@@ -56202,8 +56199,8 @@
       <c r="AO504" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP504" s="98" t="s">
-        <v>790</v>
+      <c r="AP504" s="96" t="s">
+        <v>789</v>
       </c>
       <c r="AQ504" s="10"/>
     </row>
@@ -56307,8 +56304,8 @@
       <c r="AO505" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP505" s="98" t="s">
-        <v>791</v>
+      <c r="AP505" s="96" t="s">
+        <v>790</v>
       </c>
       <c r="AQ505" s="10"/>
     </row>
@@ -56410,8 +56407,8 @@
       <c r="AO506" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP506" s="98" t="s">
-        <v>792</v>
+      <c r="AP506" s="96" t="s">
+        <v>791</v>
       </c>
       <c r="AQ506" s="10"/>
     </row>
@@ -56515,8 +56512,8 @@
       <c r="AO507" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP507" s="98" t="s">
-        <v>793</v>
+      <c r="AP507" s="96" t="s">
+        <v>792</v>
       </c>
       <c r="AQ507" s="10"/>
     </row>
@@ -56618,8 +56615,8 @@
       <c r="AO508" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP508" s="98" t="s">
-        <v>794</v>
+      <c r="AP508" s="96" t="s">
+        <v>793</v>
       </c>
       <c r="AQ508" s="10"/>
     </row>
@@ -56721,8 +56718,8 @@
       <c r="AO509" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP509" s="98" t="s">
-        <v>795</v>
+      <c r="AP509" s="96" t="s">
+        <v>794</v>
       </c>
       <c r="AQ509" s="10"/>
     </row>
@@ -56826,8 +56823,8 @@
       <c r="AO510" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP510" s="98" t="s">
-        <v>796</v>
+      <c r="AP510" s="96" t="s">
+        <v>795</v>
       </c>
       <c r="AQ510" s="10"/>
     </row>
@@ -56929,8 +56926,8 @@
       <c r="AO511" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP511" s="98" t="s">
-        <v>797</v>
+      <c r="AP511" s="96" t="s">
+        <v>796</v>
       </c>
       <c r="AQ511" s="10"/>
     </row>
@@ -57034,8 +57031,8 @@
       <c r="AO512" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP512" s="98" t="s">
-        <v>798</v>
+      <c r="AP512" s="96" t="s">
+        <v>797</v>
       </c>
       <c r="AQ512" s="10"/>
     </row>
@@ -57139,8 +57136,8 @@
       <c r="AO513" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP513" s="98" t="s">
-        <v>799</v>
+      <c r="AP513" s="96" t="s">
+        <v>798</v>
       </c>
       <c r="AQ513" s="10"/>
     </row>
@@ -57244,8 +57241,8 @@
       <c r="AO514" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP514" s="98" t="s">
-        <v>800</v>
+      <c r="AP514" s="96" t="s">
+        <v>799</v>
       </c>
       <c r="AQ514" s="10"/>
     </row>
@@ -57351,8 +57348,8 @@
       <c r="AO515" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP515" s="98" t="s">
-        <v>801</v>
+      <c r="AP515" s="96" t="s">
+        <v>800</v>
       </c>
       <c r="AQ515" s="10"/>
     </row>
@@ -57456,8 +57453,8 @@
       <c r="AO516" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP516" s="98" t="s">
-        <v>802</v>
+      <c r="AP516" s="96" t="s">
+        <v>801</v>
       </c>
       <c r="AQ516" s="10"/>
     </row>
@@ -57559,8 +57556,8 @@
       <c r="AO517" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP517" s="98" t="s">
-        <v>803</v>
+      <c r="AP517" s="96" t="s">
+        <v>802</v>
       </c>
       <c r="AQ517" s="10"/>
     </row>
@@ -57666,8 +57663,8 @@
       <c r="AO518" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP518" s="98" t="s">
-        <v>804</v>
+      <c r="AP518" s="96" t="s">
+        <v>803</v>
       </c>
       <c r="AQ518" s="10"/>
     </row>
@@ -57771,8 +57768,8 @@
       <c r="AO519" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP519" s="98" t="s">
-        <v>805</v>
+      <c r="AP519" s="96" t="s">
+        <v>804</v>
       </c>
       <c r="AQ519" s="10"/>
     </row>
@@ -57876,8 +57873,8 @@
       <c r="AO520" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP520" s="98" t="s">
-        <v>806</v>
+      <c r="AP520" s="96" t="s">
+        <v>805</v>
       </c>
       <c r="AQ520" s="10"/>
     </row>
@@ -57981,8 +57978,8 @@
       <c r="AO521" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP521" s="98" t="s">
-        <v>807</v>
+      <c r="AP521" s="96" t="s">
+        <v>806</v>
       </c>
       <c r="AQ521" s="10"/>
     </row>
@@ -58086,8 +58083,8 @@
       <c r="AO522" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP522" s="98" t="s">
-        <v>808</v>
+      <c r="AP522" s="96" t="s">
+        <v>807</v>
       </c>
       <c r="AQ522" s="10"/>
     </row>
@@ -58193,8 +58190,8 @@
       <c r="AO523" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP523" s="98" t="s">
-        <v>809</v>
+      <c r="AP523" s="96" t="s">
+        <v>808</v>
       </c>
       <c r="AQ523" s="10"/>
     </row>
@@ -58298,8 +58295,8 @@
       <c r="AO524" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP524" s="98" t="s">
-        <v>810</v>
+      <c r="AP524" s="96" t="s">
+        <v>809</v>
       </c>
       <c r="AQ524" s="10"/>
     </row>
@@ -58403,8 +58400,8 @@
       <c r="AO525" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP525" s="98" t="s">
-        <v>811</v>
+      <c r="AP525" s="96" t="s">
+        <v>810</v>
       </c>
       <c r="AQ525" s="10"/>
     </row>
@@ -58508,8 +58505,8 @@
       <c r="AO526" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP526" s="98" t="s">
-        <v>812</v>
+      <c r="AP526" s="96" t="s">
+        <v>811</v>
       </c>
       <c r="AQ526" s="10"/>
     </row>
@@ -58613,8 +58610,8 @@
       <c r="AO527" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP527" s="98" t="s">
-        <v>813</v>
+      <c r="AP527" s="96" t="s">
+        <v>812</v>
       </c>
       <c r="AQ527" s="10"/>
     </row>
@@ -58720,8 +58717,8 @@
       <c r="AO528" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP528" s="98" t="s">
-        <v>814</v>
+      <c r="AP528" s="96" t="s">
+        <v>813</v>
       </c>
       <c r="AQ528" s="10"/>
     </row>
@@ -58825,8 +58822,8 @@
       <c r="AO529" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP529" s="98" t="s">
-        <v>815</v>
+      <c r="AP529" s="96" t="s">
+        <v>814</v>
       </c>
       <c r="AQ529" s="10"/>
     </row>
@@ -58932,8 +58929,8 @@
       <c r="AO530" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP530" s="98" t="s">
-        <v>816</v>
+      <c r="AP530" s="96" t="s">
+        <v>815</v>
       </c>
       <c r="AQ530" s="10"/>
     </row>
@@ -59035,8 +59032,8 @@
       <c r="AO531" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP531" s="98" t="s">
-        <v>817</v>
+      <c r="AP531" s="96" t="s">
+        <v>816</v>
       </c>
       <c r="AQ531" s="10"/>
     </row>
@@ -59138,8 +59135,8 @@
       <c r="AO532" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP532" s="98" t="s">
-        <v>818</v>
+      <c r="AP532" s="96" t="s">
+        <v>817</v>
       </c>
       <c r="AQ532" s="10"/>
     </row>
@@ -59243,8 +59240,8 @@
       <c r="AO533" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP533" s="98" t="s">
-        <v>819</v>
+      <c r="AP533" s="96" t="s">
+        <v>818</v>
       </c>
       <c r="AQ533" s="10"/>
     </row>
@@ -59348,8 +59345,8 @@
       <c r="AO534" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP534" s="98" t="s">
-        <v>820</v>
+      <c r="AP534" s="96" t="s">
+        <v>819</v>
       </c>
       <c r="AQ534" s="10"/>
     </row>
@@ -59453,8 +59450,8 @@
       <c r="AO535" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP535" s="98" t="s">
-        <v>821</v>
+      <c r="AP535" s="96" t="s">
+        <v>820</v>
       </c>
       <c r="AQ535" s="10"/>
     </row>
@@ -59558,8 +59555,8 @@
       <c r="AO536" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP536" s="98" t="s">
-        <v>822</v>
+      <c r="AP536" s="96" t="s">
+        <v>821</v>
       </c>
       <c r="AQ536" s="10"/>
     </row>
@@ -59661,8 +59658,8 @@
       <c r="AO537" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP537" s="98" t="s">
-        <v>823</v>
+      <c r="AP537" s="96" t="s">
+        <v>822</v>
       </c>
       <c r="AQ537" s="10"/>
     </row>
@@ -59766,8 +59763,8 @@
       <c r="AO538" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP538" s="98" t="s">
-        <v>824</v>
+      <c r="AP538" s="96" t="s">
+        <v>823</v>
       </c>
       <c r="AQ538" s="10"/>
     </row>
@@ -59873,8 +59870,8 @@
       <c r="AO539" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP539" s="98" t="s">
-        <v>825</v>
+      <c r="AP539" s="96" t="s">
+        <v>824</v>
       </c>
       <c r="AQ539" s="10"/>
     </row>
@@ -59978,8 +59975,8 @@
       <c r="AO540" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP540" s="98" t="s">
-        <v>826</v>
+      <c r="AP540" s="96" t="s">
+        <v>825</v>
       </c>
       <c r="AQ540" s="10"/>
     </row>
@@ -60083,8 +60080,8 @@
       <c r="AO541" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP541" s="98" t="s">
-        <v>827</v>
+      <c r="AP541" s="96" t="s">
+        <v>826</v>
       </c>
       <c r="AQ541" s="10"/>
     </row>
@@ -60188,8 +60185,8 @@
       <c r="AO542" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP542" s="98" t="s">
-        <v>828</v>
+      <c r="AP542" s="96" t="s">
+        <v>827</v>
       </c>
       <c r="AQ542" s="10"/>
     </row>
@@ -60295,8 +60292,8 @@
       <c r="AO543" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP543" s="98" t="s">
-        <v>829</v>
+      <c r="AP543" s="96" t="s">
+        <v>828</v>
       </c>
       <c r="AQ543" s="10"/>
     </row>
@@ -60398,8 +60395,8 @@
       <c r="AO544" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP544" s="98" t="s">
-        <v>830</v>
+      <c r="AP544" s="96" t="s">
+        <v>829</v>
       </c>
       <c r="AQ544" s="10"/>
     </row>
@@ -60503,8 +60500,8 @@
       <c r="AO545" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP545" s="98" t="s">
-        <v>831</v>
+      <c r="AP545" s="96" t="s">
+        <v>830</v>
       </c>
       <c r="AQ545" s="10"/>
     </row>
@@ -60608,8 +60605,8 @@
       <c r="AO546" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP546" s="98" t="s">
-        <v>832</v>
+      <c r="AP546" s="96" t="s">
+        <v>831</v>
       </c>
       <c r="AQ546" s="10"/>
     </row>
@@ -60713,8 +60710,8 @@
       <c r="AO547" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP547" s="98" t="s">
-        <v>833</v>
+      <c r="AP547" s="96" t="s">
+        <v>832</v>
       </c>
       <c r="AQ547" s="10"/>
     </row>
@@ -60818,8 +60815,8 @@
       <c r="AO548" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP548" s="98" t="s">
-        <v>834</v>
+      <c r="AP548" s="96" t="s">
+        <v>833</v>
       </c>
       <c r="AQ548" s="10"/>
     </row>
@@ -60923,8 +60920,8 @@
       <c r="AO549" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP549" s="98" t="s">
-        <v>835</v>
+      <c r="AP549" s="96" t="s">
+        <v>834</v>
       </c>
       <c r="AQ549" s="10"/>
     </row>
@@ -61030,8 +61027,8 @@
       <c r="AO550" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP550" s="98" t="s">
-        <v>836</v>
+      <c r="AP550" s="96" t="s">
+        <v>835</v>
       </c>
       <c r="AQ550" s="10"/>
     </row>
@@ -61135,8 +61132,8 @@
       <c r="AO551" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP551" s="98" t="s">
-        <v>837</v>
+      <c r="AP551" s="96" t="s">
+        <v>836</v>
       </c>
       <c r="AQ551" s="10"/>
     </row>
@@ -61240,8 +61237,8 @@
       <c r="AO552" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP552" s="98" t="s">
-        <v>838</v>
+      <c r="AP552" s="96" t="s">
+        <v>837</v>
       </c>
       <c r="AQ552" s="10"/>
     </row>
@@ -61345,8 +61342,8 @@
       <c r="AO553" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP553" s="98" t="s">
-        <v>839</v>
+      <c r="AP553" s="96" t="s">
+        <v>838</v>
       </c>
       <c r="AQ553" s="10"/>
     </row>
@@ -61450,8 +61447,8 @@
       <c r="AO554" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP554" s="98" t="s">
-        <v>840</v>
+      <c r="AP554" s="96" t="s">
+        <v>839</v>
       </c>
       <c r="AQ554" s="10"/>
     </row>
@@ -61555,8 +61552,8 @@
       <c r="AO555" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP555" s="98" t="s">
-        <v>841</v>
+      <c r="AP555" s="96" t="s">
+        <v>840</v>
       </c>
       <c r="AQ555" s="10"/>
     </row>
@@ -61658,8 +61655,8 @@
       <c r="AO556" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP556" s="98" t="s">
-        <v>842</v>
+      <c r="AP556" s="96" t="s">
+        <v>841</v>
       </c>
       <c r="AQ556" s="10"/>
     </row>
@@ -61761,8 +61758,8 @@
       <c r="AO557" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP557" s="98" t="s">
-        <v>843</v>
+      <c r="AP557" s="96" t="s">
+        <v>842</v>
       </c>
       <c r="AQ557" s="10"/>
     </row>
@@ -61864,8 +61861,8 @@
       <c r="AO558" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP558" s="98" t="s">
-        <v>844</v>
+      <c r="AP558" s="96" t="s">
+        <v>843</v>
       </c>
       <c r="AQ558" s="10"/>
     </row>
@@ -61969,8 +61966,8 @@
       <c r="AO559" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP559" s="98" t="s">
-        <v>845</v>
+      <c r="AP559" s="96" t="s">
+        <v>844</v>
       </c>
       <c r="AQ559" s="10"/>
     </row>
@@ -62074,8 +62071,8 @@
       <c r="AO560" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP560" s="98" t="s">
-        <v>846</v>
+      <c r="AP560" s="96" t="s">
+        <v>845</v>
       </c>
       <c r="AQ560" s="10"/>
     </row>
@@ -62179,8 +62176,8 @@
       <c r="AO561" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP561" s="98" t="s">
-        <v>847</v>
+      <c r="AP561" s="96" t="s">
+        <v>846</v>
       </c>
       <c r="AQ561" s="10"/>
     </row>
@@ -62282,8 +62279,8 @@
       <c r="AO562" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP562" s="98" t="s">
-        <v>848</v>
+      <c r="AP562" s="96" t="s">
+        <v>847</v>
       </c>
       <c r="AQ562" s="10"/>
     </row>
@@ -62387,8 +62384,8 @@
       <c r="AO563" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP563" s="98" t="s">
-        <v>849</v>
+      <c r="AP563" s="96" t="s">
+        <v>848</v>
       </c>
       <c r="AQ563" s="10"/>
     </row>
@@ -62492,8 +62489,8 @@
       <c r="AO564" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP564" s="98" t="s">
-        <v>850</v>
+      <c r="AP564" s="96" t="s">
+        <v>849</v>
       </c>
       <c r="AQ564" s="10"/>
     </row>
@@ -62597,8 +62594,8 @@
       <c r="AO565" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP565" s="98" t="s">
-        <v>851</v>
+      <c r="AP565" s="96" t="s">
+        <v>850</v>
       </c>
       <c r="AQ565" s="10"/>
     </row>
@@ -62700,8 +62697,8 @@
       <c r="AO566" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP566" s="98" t="s">
-        <v>852</v>
+      <c r="AP566" s="96" t="s">
+        <v>851</v>
       </c>
       <c r="AQ566" s="10"/>
     </row>
@@ -62803,8 +62800,8 @@
       <c r="AO567" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP567" s="98" t="s">
-        <v>853</v>
+      <c r="AP567" s="96" t="s">
+        <v>852</v>
       </c>
       <c r="AQ567" s="10"/>
     </row>
@@ -62908,8 +62905,8 @@
       <c r="AO568" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP568" s="98" t="s">
-        <v>854</v>
+      <c r="AP568" s="96" t="s">
+        <v>853</v>
       </c>
       <c r="AQ568" s="10"/>
     </row>
@@ -63011,8 +63008,8 @@
       <c r="AO569" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP569" s="98" t="s">
-        <v>855</v>
+      <c r="AP569" s="96" t="s">
+        <v>854</v>
       </c>
       <c r="AQ569" s="10"/>
     </row>

--- a/data/vgp_database/Mogollon-Datil_volcanics.xlsx
+++ b/data/vgp_database/Mogollon-Datil_volcanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0693D-20E5-FF4A-B614-9F0A9B0D38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76103D54-04C4-7A49-B721-CD01D08AB0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6913" uniqueCount="298">
   <si>
     <t>Name:</t>
   </si>
@@ -929,1678 +929,7 @@
     <t>10.1029/JB093iB05p04869:10.1029/91JB00603</t>
   </si>
   <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00604</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00605</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00606</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00607</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00608</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00609</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00610</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00611</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00612</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00613</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00614</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00615</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00616</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00617</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00618</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00619</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00620</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00621</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00622</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00623</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00624</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00625</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00626</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00627</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00628</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00629</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00630</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00631</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00632</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00633</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00634</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00635</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00636</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00637</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00638</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00639</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00640</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00641</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00642</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00643</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00644</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00645</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00646</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00647</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00648</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00649</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00650</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00651</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00652</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00653</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00654</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00655</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00656</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00657</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00658</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00659</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00660</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00661</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00662</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00663</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00664</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00665</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00666</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00667</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00668</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00669</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00670</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00671</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00672</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00673</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00674</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00675</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00676</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00677</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00678</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00679</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00680</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00681</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00682</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00683</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00684</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00685</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00686</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00687</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00688</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00689</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00690</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00691</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00692</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00693</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00694</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00695</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00696</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00697</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00698</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00699</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00700</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00701</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00702</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00703</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00704</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00705</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00706</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00707</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00708</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00709</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00710</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00711</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00712</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00713</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00714</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00715</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00716</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00717</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00718</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00719</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00720</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00721</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00722</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00723</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00724</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00725</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00726</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00727</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00728</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00729</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00730</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00731</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00732</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00733</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00734</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00735</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00736</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00737</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00738</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00739</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00740</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00741</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00742</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00743</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00744</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00745</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00746</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00747</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00748</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00749</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00750</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00751</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00752</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00753</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00754</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00755</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00756</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00757</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00758</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00759</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00760</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00761</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00762</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00763</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00764</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00765</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00766</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00767</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00768</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00769</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00770</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00771</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00772</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00773</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00774</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00775</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00776</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00777</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00778</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00779</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00780</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00781</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00782</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00783</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00784</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00785</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00786</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00787</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00788</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00789</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00790</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00791</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00792</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00793</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00794</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00795</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00796</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00797</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00798</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00799</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00800</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00801</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00802</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00803</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00804</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00805</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00806</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00807</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00808</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00809</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00810</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00811</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00812</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00813</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00814</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00815</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00816</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00817</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00818</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00819</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00820</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00821</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00822</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00823</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00824</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00825</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00826</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00827</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00828</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00829</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00830</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00831</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00832</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00833</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00834</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00835</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00836</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00837</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00838</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00839</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00840</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00841</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00842</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00843</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00844</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00845</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00846</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00847</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00848</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00849</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00850</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00851</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00852</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00853</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00854</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00855</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00856</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00857</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00858</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00859</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00860</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00861</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00862</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00863</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00864</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00865</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00866</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00867</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00868</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00869</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00870</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00871</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00872</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00873</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00874</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00875</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00876</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00877</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00878</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00879</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00880</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00881</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00882</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00883</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00884</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00885</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00886</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00887</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00888</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00889</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00890</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00891</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00892</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00893</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00894</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00895</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00896</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00897</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00898</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00899</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00900</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00901</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00902</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00903</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00904</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00905</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00906</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00907</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00908</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00909</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00910</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00911</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00912</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00913</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00914</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00915</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00916</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00917</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00918</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00919</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00920</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00921</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00922</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00923</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00924</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00925</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00926</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00927</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00928</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00929</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00930</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00931</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00932</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00933</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00934</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00935</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00936</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00937</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00938</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00939</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00940</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00941</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00942</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00943</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00944</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00945</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00946</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00947</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00948</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00949</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00950</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00951</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00952</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00953</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00954</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00955</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00956</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00957</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00958</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00959</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00960</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00961</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00962</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00963</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00964</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00965</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00966</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00967</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00968</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00969</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00970</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00971</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00972</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00973</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00974</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00975</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00976</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00977</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00978</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00979</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00980</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00981</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00982</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00983</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00984</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00985</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00986</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00987</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00988</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00989</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00990</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00991</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00992</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00993</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00994</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00995</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00996</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00997</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00998</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB00999</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01000</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01001</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01002</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01003</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01004</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01005</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01006</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01007</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01008</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01009</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01010</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01011</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01012</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01013</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01014</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01015</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01016</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01017</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01018</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01019</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01020</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01021</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01022</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01023</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01024</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01025</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01026</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01027</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01028</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01029</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01030</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01031</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01032</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01033</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01034</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01035</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01036</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01037</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01038</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01039</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01040</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01041</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01042</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01043</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01044</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01045</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01046</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01047</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01048</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01049</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01050</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01051</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01052</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01053</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01054</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01055</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01056</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01057</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01058</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01059</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01060</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01061</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01062</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01063</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01064</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01065</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01066</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01067</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01068</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01069</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01070</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01071</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01072</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01073</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01074</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01075</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01076</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01077</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01078</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01079</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01080</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01081</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01082</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01083</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01084</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01085</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01086</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01087</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01088</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01089</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01090</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01091</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01092</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01093</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01094</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01095</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01096</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01097</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01098</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01099</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01100</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01101</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01102</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01103</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01104</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01105</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01106</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01107</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01108</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01109</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01110</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01111</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01112</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01113</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01114</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01115</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01116</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01117</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01118</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01119</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01120</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01121</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01122</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01123</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01124</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01125</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01126</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01127</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01128</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01129</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01130</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01131</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01132</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01133</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01134</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01135</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01136</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01137</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01138</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01139</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01140</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01141</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01142</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01143</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01144</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01145</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01146</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01147</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01148</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01149</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01150</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01151</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01152</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01153</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01154</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01155</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01156</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01157</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01158</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01159</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01160</t>
-  </si>
-  <si>
-    <t>10.1029/JB093iB05p04869:10.1029/91JB01161</t>
+    <t>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</t>
   </si>
 </sst>
 </file>
@@ -3399,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R33" workbookViewId="0">
-      <selection activeCell="AA43" sqref="AA43"/>
+    <sheetView tabSelected="1" topLeftCell="AH531" workbookViewId="0">
+      <selection activeCell="AP110" sqref="AP110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3421,7 +1750,10 @@
     <col min="34" max="34" width="13.1640625" customWidth="1"/>
     <col min="35" max="35" width="19.5" customWidth="1"/>
     <col min="36" max="36" width="23.33203125" customWidth="1"/>
-    <col min="37" max="43" width="10.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="52.5" customWidth="1"/>
+    <col min="39" max="39" width="31.5" customWidth="1"/>
+    <col min="40" max="43" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16">
@@ -4427,8 +2759,9 @@
       <c r="AO12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP12" s="96" t="s">
-        <v>297</v>
+      <c r="AP12" s="96" t="str">
+        <f>AP11</f>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ12" s="10"/>
     </row>
@@ -4532,8 +2865,9 @@
       <c r="AO13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP13" s="96" t="s">
-        <v>298</v>
+      <c r="AP13" s="96" t="str">
+        <f t="shared" ref="AP13:AP76" si="0">AP12</f>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ13" s="10"/>
     </row>
@@ -4639,8 +2973,9 @@
       <c r="AO14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP14" s="96" t="s">
-        <v>299</v>
+      <c r="AP14" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ14" s="10"/>
     </row>
@@ -4744,8 +3079,9 @@
       <c r="AO15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="96" t="s">
-        <v>300</v>
+      <c r="AP15" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ15" s="10"/>
     </row>
@@ -4849,8 +3185,9 @@
       <c r="AO16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP16" s="96" t="s">
-        <v>301</v>
+      <c r="AP16" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ16" s="10"/>
     </row>
@@ -4954,8 +3291,9 @@
       <c r="AO17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AP17" s="96" t="s">
-        <v>302</v>
+      <c r="AP17" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ17" s="10"/>
     </row>
@@ -5063,8 +3401,9 @@
       <c r="AO18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP18" s="96" t="s">
-        <v>303</v>
+      <c r="AP18" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -5170,8 +3509,9 @@
       <c r="AO19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP19" s="96" t="s">
-        <v>304</v>
+      <c r="AP19" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ19" s="10"/>
     </row>
@@ -5277,8 +3617,9 @@
       <c r="AO20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP20" s="96" t="s">
-        <v>305</v>
+      <c r="AP20" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ20" s="10"/>
     </row>
@@ -5384,8 +3725,9 @@
       <c r="AO21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP21" s="96" t="s">
-        <v>306</v>
+      <c r="AP21" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ21" s="10"/>
     </row>
@@ -5491,8 +3833,9 @@
       <c r="AO22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP22" s="96" t="s">
-        <v>307</v>
+      <c r="AP22" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ22" s="10"/>
     </row>
@@ -5598,8 +3941,9 @@
       <c r="AO23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP23" s="96" t="s">
-        <v>308</v>
+      <c r="AP23" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ23" s="10"/>
     </row>
@@ -5705,8 +4049,9 @@
       <c r="AO24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP24" s="96" t="s">
-        <v>309</v>
+      <c r="AP24" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ24" s="10"/>
     </row>
@@ -5814,8 +4159,9 @@
       <c r="AO25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP25" s="96" t="s">
-        <v>310</v>
+      <c r="AP25" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ25" s="10"/>
     </row>
@@ -5921,8 +4267,9 @@
       <c r="AO26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP26" s="96" t="s">
-        <v>311</v>
+      <c r="AP26" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ26" s="10"/>
     </row>
@@ -6028,8 +4375,9 @@
       <c r="AO27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP27" s="96" t="s">
-        <v>312</v>
+      <c r="AP27" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ27" s="10"/>
     </row>
@@ -6135,8 +4483,9 @@
       <c r="AO28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP28" s="96" t="s">
-        <v>313</v>
+      <c r="AP28" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ28" s="10"/>
     </row>
@@ -6240,8 +4589,9 @@
       <c r="AO29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP29" s="96" t="s">
-        <v>314</v>
+      <c r="AP29" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ29" s="10"/>
     </row>
@@ -6347,8 +4697,9 @@
       <c r="AO30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP30" s="96" t="s">
-        <v>315</v>
+      <c r="AP30" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ30" s="10"/>
     </row>
@@ -6454,8 +4805,9 @@
       <c r="AO31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP31" s="96" t="s">
-        <v>316</v>
+      <c r="AP31" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ31" s="10"/>
     </row>
@@ -6563,8 +4915,9 @@
       <c r="AO32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP32" s="96" t="s">
-        <v>317</v>
+      <c r="AP32" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ32" s="10"/>
     </row>
@@ -6672,8 +5025,9 @@
       <c r="AO33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP33" s="96" t="s">
-        <v>318</v>
+      <c r="AP33" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ33" s="10"/>
     </row>
@@ -6779,8 +5133,9 @@
       <c r="AO34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP34" s="96" t="s">
-        <v>319</v>
+      <c r="AP34" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ34" s="10"/>
     </row>
@@ -6886,8 +5241,9 @@
       <c r="AO35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP35" s="96" t="s">
-        <v>320</v>
+      <c r="AP35" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ35" s="10"/>
     </row>
@@ -6993,8 +5349,9 @@
       <c r="AO36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP36" s="96" t="s">
-        <v>321</v>
+      <c r="AP36" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ36" s="10"/>
     </row>
@@ -7100,8 +5457,9 @@
       <c r="AO37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP37" s="96" t="s">
-        <v>322</v>
+      <c r="AP37" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ37" s="10"/>
     </row>
@@ -7207,8 +5565,9 @@
       <c r="AO38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP38" s="96" t="s">
-        <v>323</v>
+      <c r="AP38" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ38" s="10"/>
     </row>
@@ -7314,8 +5673,9 @@
       <c r="AO39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP39" s="96" t="s">
-        <v>324</v>
+      <c r="AP39" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ39" s="10"/>
     </row>
@@ -7421,8 +5781,9 @@
       <c r="AO40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP40" s="96" t="s">
-        <v>325</v>
+      <c r="AP40" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ40" s="10"/>
     </row>
@@ -7526,8 +5887,9 @@
       <c r="AO41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP41" s="96" t="s">
-        <v>326</v>
+      <c r="AP41" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ41" s="10"/>
     </row>
@@ -7629,8 +5991,9 @@
       <c r="AO42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP42" s="96" t="s">
-        <v>327</v>
+      <c r="AP42" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ42" s="10"/>
     </row>
@@ -7736,8 +6099,9 @@
       <c r="AO43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP43" s="96" t="s">
-        <v>328</v>
+      <c r="AP43" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ43" s="10"/>
     </row>
@@ -7841,8 +6205,9 @@
       <c r="AO44" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP44" s="96" t="s">
-        <v>329</v>
+      <c r="AP44" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ44" s="10"/>
     </row>
@@ -7950,8 +6315,9 @@
       <c r="AO45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP45" s="96" t="s">
-        <v>330</v>
+      <c r="AP45" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ45" s="10"/>
     </row>
@@ -8059,8 +6425,9 @@
       <c r="AO46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP46" s="96" t="s">
-        <v>331</v>
+      <c r="AP46" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ46" s="10"/>
     </row>
@@ -8166,8 +6533,9 @@
       <c r="AO47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP47" s="96" t="s">
-        <v>332</v>
+      <c r="AP47" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ47" s="10"/>
     </row>
@@ -8275,8 +6643,9 @@
       <c r="AO48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP48" s="96" t="s">
-        <v>333</v>
+      <c r="AP48" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ48" s="10"/>
     </row>
@@ -8384,8 +6753,9 @@
       <c r="AO49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP49" s="96" t="s">
-        <v>334</v>
+      <c r="AP49" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ49" s="10"/>
     </row>
@@ -8491,8 +6861,9 @@
       <c r="AO50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP50" s="96" t="s">
-        <v>335</v>
+      <c r="AP50" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ50" s="10"/>
     </row>
@@ -8596,8 +6967,9 @@
       <c r="AO51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP51" s="96" t="s">
-        <v>336</v>
+      <c r="AP51" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ51" s="10"/>
     </row>
@@ -8703,8 +7075,9 @@
       <c r="AO52" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP52" s="96" t="s">
-        <v>337</v>
+      <c r="AP52" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ52" s="10"/>
     </row>
@@ -8810,8 +7183,9 @@
       <c r="AO53" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP53" s="96" t="s">
-        <v>338</v>
+      <c r="AP53" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ53" s="10"/>
     </row>
@@ -8915,8 +7289,9 @@
       <c r="AO54" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP54" s="96" t="s">
-        <v>339</v>
+      <c r="AP54" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ54" s="10"/>
     </row>
@@ -9024,8 +7399,9 @@
       <c r="AO55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP55" s="96" t="s">
-        <v>340</v>
+      <c r="AP55" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ55" s="10"/>
     </row>
@@ -9133,8 +7509,9 @@
       <c r="AO56" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP56" s="96" t="s">
-        <v>341</v>
+      <c r="AP56" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ56" s="10"/>
     </row>
@@ -9240,8 +7617,9 @@
       <c r="AO57" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP57" s="96" t="s">
-        <v>342</v>
+      <c r="AP57" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ57" s="10"/>
     </row>
@@ -9347,8 +7725,9 @@
       <c r="AO58" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP58" s="96" t="s">
-        <v>343</v>
+      <c r="AP58" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ58" s="10"/>
     </row>
@@ -9456,8 +7835,9 @@
       <c r="AO59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP59" s="96" t="s">
-        <v>344</v>
+      <c r="AP59" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ59" s="10"/>
     </row>
@@ -9565,8 +7945,9 @@
       <c r="AO60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP60" s="96" t="s">
-        <v>345</v>
+      <c r="AP60" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ60" s="10"/>
     </row>
@@ -9672,8 +8053,9 @@
       <c r="AO61" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP61" s="96" t="s">
-        <v>346</v>
+      <c r="AP61" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ61" s="10"/>
     </row>
@@ -9781,8 +8163,9 @@
       <c r="AO62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP62" s="96" t="s">
-        <v>347</v>
+      <c r="AP62" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ62" s="10"/>
     </row>
@@ -9890,8 +8273,9 @@
       <c r="AO63" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP63" s="96" t="s">
-        <v>348</v>
+      <c r="AP63" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ63" s="10"/>
     </row>
@@ -9999,8 +8383,9 @@
       <c r="AO64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP64" s="96" t="s">
-        <v>349</v>
+      <c r="AP64" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ64" s="10"/>
     </row>
@@ -10108,8 +8493,9 @@
       <c r="AO65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP65" s="96" t="s">
-        <v>350</v>
+      <c r="AP65" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ65" s="10"/>
     </row>
@@ -10215,8 +8601,9 @@
       <c r="AO66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP66" s="96" t="s">
-        <v>351</v>
+      <c r="AP66" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ66" s="10"/>
     </row>
@@ -10324,8 +8711,9 @@
       <c r="AO67" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP67" s="96" t="s">
-        <v>352</v>
+      <c r="AP67" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ67" s="10"/>
     </row>
@@ -10433,8 +8821,9 @@
       <c r="AO68" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP68" s="96" t="s">
-        <v>353</v>
+      <c r="AP68" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ68" s="10"/>
     </row>
@@ -10540,8 +8929,9 @@
       <c r="AO69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP69" s="96" t="s">
-        <v>354</v>
+      <c r="AP69" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ69" s="10"/>
     </row>
@@ -10649,8 +9039,9 @@
       <c r="AO70" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP70" s="96" t="s">
-        <v>355</v>
+      <c r="AP70" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ70" s="10"/>
     </row>
@@ -10758,8 +9149,9 @@
       <c r="AO71" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP71" s="96" t="s">
-        <v>356</v>
+      <c r="AP71" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ71" s="10"/>
     </row>
@@ -10865,8 +9257,9 @@
       <c r="AO72" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP72" s="96" t="s">
-        <v>357</v>
+      <c r="AP72" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ72" s="10"/>
     </row>
@@ -10972,8 +9365,9 @@
       <c r="AO73" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP73" s="96" t="s">
-        <v>358</v>
+      <c r="AP73" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ73" s="10"/>
     </row>
@@ -11077,8 +9471,9 @@
       <c r="AO74" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP74" s="96" t="s">
-        <v>359</v>
+      <c r="AP74" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ74" s="10"/>
     </row>
@@ -11182,8 +9577,9 @@
       <c r="AO75" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP75" s="96" t="s">
-        <v>360</v>
+      <c r="AP75" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ75" s="10"/>
     </row>
@@ -11287,8 +9683,9 @@
       <c r="AO76" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP76" s="96" t="s">
-        <v>361</v>
+      <c r="AP76" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ76" s="10"/>
     </row>
@@ -11392,8 +9789,9 @@
       <c r="AO77" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP77" s="96" t="s">
-        <v>362</v>
+      <c r="AP77" s="96" t="str">
+        <f t="shared" ref="AP77:AP140" si="1">AP76</f>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ77" s="10"/>
     </row>
@@ -11497,8 +9895,9 @@
       <c r="AO78" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP78" s="96" t="s">
-        <v>363</v>
+      <c r="AP78" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ78" s="10"/>
     </row>
@@ -11606,8 +10005,9 @@
       <c r="AO79" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP79" s="96" t="s">
-        <v>364</v>
+      <c r="AP79" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ79" s="10"/>
     </row>
@@ -11715,8 +10115,9 @@
       <c r="AO80" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP80" s="96" t="s">
-        <v>365</v>
+      <c r="AP80" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ80" s="10"/>
     </row>
@@ -11822,8 +10223,9 @@
       <c r="AO81" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP81" s="96" t="s">
-        <v>366</v>
+      <c r="AP81" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ81" s="10"/>
     </row>
@@ -11929,8 +10331,9 @@
       <c r="AO82" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP82" s="96" t="s">
-        <v>367</v>
+      <c r="AP82" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ82" s="10"/>
     </row>
@@ -12036,8 +10439,9 @@
       <c r="AO83" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP83" s="96" t="s">
-        <v>368</v>
+      <c r="AP83" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ83" s="10"/>
     </row>
@@ -12143,8 +10547,9 @@
       <c r="AO84" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP84" s="96" t="s">
-        <v>369</v>
+      <c r="AP84" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ84" s="10"/>
     </row>
@@ -12250,8 +10655,9 @@
       <c r="AO85" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP85" s="96" t="s">
-        <v>370</v>
+      <c r="AP85" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ85" s="10"/>
     </row>
@@ -12357,8 +10763,9 @@
       <c r="AO86" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP86" s="96" t="s">
-        <v>371</v>
+      <c r="AP86" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ86" s="10"/>
     </row>
@@ -12466,8 +10873,9 @@
       <c r="AO87" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP87" s="96" t="s">
-        <v>372</v>
+      <c r="AP87" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ87" s="10"/>
     </row>
@@ -12571,8 +10979,9 @@
       <c r="AO88" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP88" s="96" t="s">
-        <v>373</v>
+      <c r="AP88" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ88" s="10"/>
     </row>
@@ -12676,8 +11085,9 @@
       <c r="AO89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP89" s="96" t="s">
-        <v>374</v>
+      <c r="AP89" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ89" s="10"/>
     </row>
@@ -12779,8 +11189,9 @@
       <c r="AO90" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP90" s="96" t="s">
-        <v>375</v>
+      <c r="AP90" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ90" s="10"/>
     </row>
@@ -12884,8 +11295,9 @@
       <c r="AO91" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP91" s="96" t="s">
-        <v>376</v>
+      <c r="AP91" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ91" s="10"/>
     </row>
@@ -12987,8 +11399,9 @@
       <c r="AO92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP92" s="96" t="s">
-        <v>377</v>
+      <c r="AP92" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ92" s="10"/>
     </row>
@@ -13094,8 +11507,9 @@
       <c r="AO93" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP93" s="96" t="s">
-        <v>378</v>
+      <c r="AP93" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ93" s="10"/>
     </row>
@@ -13201,8 +11615,9 @@
       <c r="AO94" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP94" s="96" t="s">
-        <v>379</v>
+      <c r="AP94" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ94" s="10"/>
     </row>
@@ -13310,8 +11725,9 @@
       <c r="AO95" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP95" s="96" t="s">
-        <v>380</v>
+      <c r="AP95" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ95" s="10"/>
     </row>
@@ -13419,8 +11835,9 @@
       <c r="AO96" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP96" s="96" t="s">
-        <v>381</v>
+      <c r="AP96" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ96" s="10"/>
     </row>
@@ -13528,8 +11945,9 @@
       <c r="AO97" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP97" s="96" t="s">
-        <v>382</v>
+      <c r="AP97" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ97" s="10"/>
     </row>
@@ -13637,8 +12055,9 @@
       <c r="AO98" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP98" s="96" t="s">
-        <v>383</v>
+      <c r="AP98" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ98" s="10"/>
     </row>
@@ -13744,8 +12163,9 @@
       <c r="AO99" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP99" s="96" t="s">
-        <v>384</v>
+      <c r="AP99" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ99" s="10"/>
     </row>
@@ -13853,8 +12273,9 @@
       <c r="AO100" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP100" s="96" t="s">
-        <v>385</v>
+      <c r="AP100" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ100" s="10"/>
     </row>
@@ -13960,8 +12381,9 @@
       <c r="AO101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP101" s="96" t="s">
-        <v>386</v>
+      <c r="AP101" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ101" s="10"/>
     </row>
@@ -14065,8 +12487,9 @@
       <c r="AO102" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP102" s="96" t="s">
-        <v>387</v>
+      <c r="AP102" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ102" s="10"/>
     </row>
@@ -14170,8 +12593,9 @@
       <c r="AO103" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP103" s="96" t="s">
-        <v>388</v>
+      <c r="AP103" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ103" s="10"/>
     </row>
@@ -14277,8 +12701,9 @@
       <c r="AO104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP104" s="96" t="s">
-        <v>389</v>
+      <c r="AP104" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ104" s="10"/>
     </row>
@@ -14382,8 +12807,9 @@
       <c r="AO105" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP105" s="96" t="s">
-        <v>390</v>
+      <c r="AP105" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ105" s="10"/>
     </row>
@@ -14489,8 +12915,9 @@
       <c r="AO106" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP106" s="96" t="s">
-        <v>391</v>
+      <c r="AP106" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ106" s="10"/>
     </row>
@@ -14594,8 +13021,9 @@
       <c r="AO107" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP107" s="96" t="s">
-        <v>392</v>
+      <c r="AP107" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ107" s="10"/>
     </row>
@@ -14701,8 +13129,9 @@
       <c r="AO108" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP108" s="96" t="s">
-        <v>393</v>
+      <c r="AP108" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB093iB05p04869:10.1029/91JB00603</v>
       </c>
       <c r="AQ108" s="10"/>
     </row>
@@ -14807,7 +13236,7 @@
         <v>97</v>
       </c>
       <c r="AP109" s="96" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="AQ109" s="10"/>
     </row>
@@ -14911,8 +13340,9 @@
       <c r="AO110" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP110" s="96" t="s">
-        <v>395</v>
+      <c r="AP110" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ110" s="10"/>
     </row>
@@ -15016,8 +13446,9 @@
       <c r="AO111" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP111" s="96" t="s">
-        <v>396</v>
+      <c r="AP111" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ111" s="10"/>
     </row>
@@ -15121,8 +13552,9 @@
       <c r="AO112" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP112" s="96" t="s">
-        <v>397</v>
+      <c r="AP112" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ112" s="10"/>
     </row>
@@ -15226,8 +13658,9 @@
       <c r="AO113" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP113" s="96" t="s">
-        <v>398</v>
+      <c r="AP113" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ113" s="10"/>
     </row>
@@ -15331,8 +13764,9 @@
       <c r="AO114" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP114" s="96" t="s">
-        <v>399</v>
+      <c r="AP114" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ114" s="10"/>
     </row>
@@ -15436,8 +13870,9 @@
       <c r="AO115" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP115" s="96" t="s">
-        <v>400</v>
+      <c r="AP115" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ115" s="10"/>
     </row>
@@ -15541,8 +13976,9 @@
       <c r="AO116" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP116" s="96" t="s">
-        <v>401</v>
+      <c r="AP116" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ116" s="10"/>
     </row>
@@ -15646,8 +14082,9 @@
       <c r="AO117" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP117" s="96" t="s">
-        <v>402</v>
+      <c r="AP117" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ117" s="10"/>
     </row>
@@ -15751,8 +14188,9 @@
       <c r="AO118" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP118" s="96" t="s">
-        <v>403</v>
+      <c r="AP118" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ118" s="10"/>
     </row>
@@ -15856,8 +14294,9 @@
       <c r="AO119" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP119" s="96" t="s">
-        <v>404</v>
+      <c r="AP119" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ119" s="10"/>
     </row>
@@ -15961,8 +14400,9 @@
       <c r="AO120" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP120" s="96" t="s">
-        <v>405</v>
+      <c r="AP120" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ120" s="10"/>
     </row>
@@ -16066,8 +14506,9 @@
       <c r="AO121" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP121" s="96" t="s">
-        <v>406</v>
+      <c r="AP121" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ121" s="10"/>
     </row>
@@ -16171,8 +14612,9 @@
       <c r="AO122" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP122" s="96" t="s">
-        <v>407</v>
+      <c r="AP122" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ122" s="10"/>
     </row>
@@ -16276,8 +14718,9 @@
       <c r="AO123" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP123" s="96" t="s">
-        <v>408</v>
+      <c r="AP123" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ123" s="10"/>
     </row>
@@ -16381,8 +14824,9 @@
       <c r="AO124" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP124" s="96" t="s">
-        <v>409</v>
+      <c r="AP124" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ124" s="10"/>
     </row>
@@ -16486,8 +14930,9 @@
       <c r="AO125" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP125" s="96" t="s">
-        <v>410</v>
+      <c r="AP125" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ125" s="10"/>
     </row>
@@ -16591,8 +15036,9 @@
       <c r="AO126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP126" s="96" t="s">
-        <v>411</v>
+      <c r="AP126" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ126" s="10"/>
     </row>
@@ -16696,8 +15142,9 @@
       <c r="AO127" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP127" s="96" t="s">
-        <v>412</v>
+      <c r="AP127" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ127" s="10"/>
     </row>
@@ -16807,8 +15254,9 @@
       <c r="AO128" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP128" s="96" t="s">
-        <v>413</v>
+      <c r="AP128" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ128" s="10"/>
     </row>
@@ -16914,8 +15362,9 @@
       <c r="AO129" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP129" s="96" t="s">
-        <v>414</v>
+      <c r="AP129" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ129" s="10"/>
     </row>
@@ -17021,8 +15470,9 @@
       <c r="AO130" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP130" s="96" t="s">
-        <v>415</v>
+      <c r="AP130" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ130" s="10"/>
     </row>
@@ -17128,8 +15578,9 @@
       <c r="AO131" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP131" s="96" t="s">
-        <v>416</v>
+      <c r="AP131" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ131" s="10"/>
     </row>
@@ -17235,8 +15686,9 @@
       <c r="AO132" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP132" s="96" t="s">
-        <v>417</v>
+      <c r="AP132" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ132" s="10"/>
     </row>
@@ -17340,8 +15792,9 @@
       <c r="AO133" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP133" s="96" t="s">
-        <v>418</v>
+      <c r="AP133" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ133" s="10"/>
     </row>
@@ -17445,8 +15898,9 @@
       <c r="AO134" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP134" s="96" t="s">
-        <v>419</v>
+      <c r="AP134" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ134" s="10"/>
     </row>
@@ -17550,8 +16004,9 @@
       <c r="AO135" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP135" s="96" t="s">
-        <v>420</v>
+      <c r="AP135" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ135" s="10"/>
     </row>
@@ -17655,8 +16110,9 @@
       <c r="AO136" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP136" s="96" t="s">
-        <v>421</v>
+      <c r="AP136" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ136" s="10"/>
     </row>
@@ -17760,8 +16216,9 @@
       <c r="AO137" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP137" s="96" t="s">
-        <v>422</v>
+      <c r="AP137" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ137" s="10"/>
     </row>
@@ -17865,8 +16322,9 @@
       <c r="AO138" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP138" s="96" t="s">
-        <v>423</v>
+      <c r="AP138" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ138" s="10"/>
     </row>
@@ -17970,8 +16428,9 @@
       <c r="AO139" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP139" s="96" t="s">
-        <v>424</v>
+      <c r="AP139" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ139" s="10"/>
     </row>
@@ -18075,8 +16534,9 @@
       <c r="AO140" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP140" s="96" t="s">
-        <v>425</v>
+      <c r="AP140" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ140" s="10"/>
     </row>
@@ -18180,8 +16640,9 @@
       <c r="AO141" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP141" s="96" t="s">
-        <v>426</v>
+      <c r="AP141" s="96" t="str">
+        <f t="shared" ref="AP141:AP204" si="2">AP140</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ141" s="10"/>
     </row>
@@ -18285,8 +16746,9 @@
       <c r="AO142" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP142" s="96" t="s">
-        <v>427</v>
+      <c r="AP142" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ142" s="10"/>
     </row>
@@ -18390,8 +16852,9 @@
       <c r="AO143" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP143" s="96" t="s">
-        <v>428</v>
+      <c r="AP143" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ143" s="10"/>
     </row>
@@ -18495,8 +16958,9 @@
       <c r="AO144" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP144" s="96" t="s">
-        <v>429</v>
+      <c r="AP144" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ144" s="10"/>
     </row>
@@ -18600,8 +17064,9 @@
       <c r="AO145" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP145" s="96" t="s">
-        <v>430</v>
+      <c r="AP145" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ145" s="10"/>
     </row>
@@ -18705,8 +17170,9 @@
       <c r="AO146" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP146" s="96" t="s">
-        <v>431</v>
+      <c r="AP146" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ146" s="10"/>
     </row>
@@ -18810,8 +17276,9 @@
       <c r="AO147" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP147" s="96" t="s">
-        <v>432</v>
+      <c r="AP147" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ147" s="10"/>
     </row>
@@ -18915,8 +17382,9 @@
       <c r="AO148" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP148" s="96" t="s">
-        <v>433</v>
+      <c r="AP148" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ148" s="10"/>
     </row>
@@ -19020,8 +17488,9 @@
       <c r="AO149" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP149" s="96" t="s">
-        <v>434</v>
+      <c r="AP149" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ149" s="10"/>
     </row>
@@ -19125,8 +17594,9 @@
       <c r="AO150" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP150" s="96" t="s">
-        <v>435</v>
+      <c r="AP150" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ150" s="10"/>
     </row>
@@ -19230,8 +17700,9 @@
       <c r="AO151" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP151" s="96" t="s">
-        <v>436</v>
+      <c r="AP151" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ151" s="10"/>
     </row>
@@ -19335,8 +17806,9 @@
       <c r="AO152" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP152" s="96" t="s">
-        <v>437</v>
+      <c r="AP152" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ152" s="10"/>
     </row>
@@ -19440,8 +17912,9 @@
       <c r="AO153" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP153" s="96" t="s">
-        <v>438</v>
+      <c r="AP153" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ153" s="10"/>
     </row>
@@ -19545,8 +18018,9 @@
       <c r="AO154" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP154" s="96" t="s">
-        <v>439</v>
+      <c r="AP154" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ154" s="10"/>
     </row>
@@ -19650,8 +18124,9 @@
       <c r="AO155" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP155" s="96" t="s">
-        <v>440</v>
+      <c r="AP155" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ155" s="10"/>
     </row>
@@ -19755,8 +18230,9 @@
       <c r="AO156" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP156" s="96" t="s">
-        <v>441</v>
+      <c r="AP156" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ156" s="10"/>
     </row>
@@ -19860,8 +18336,9 @@
       <c r="AO157" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP157" s="96" t="s">
-        <v>442</v>
+      <c r="AP157" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ157" s="10"/>
     </row>
@@ -19965,8 +18442,9 @@
       <c r="AO158" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP158" s="96" t="s">
-        <v>443</v>
+      <c r="AP158" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ158" s="10"/>
     </row>
@@ -20070,8 +18548,9 @@
       <c r="AO159" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP159" s="96" t="s">
-        <v>444</v>
+      <c r="AP159" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ159" s="10"/>
     </row>
@@ -20175,8 +18654,9 @@
       <c r="AO160" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP160" s="96" t="s">
-        <v>445</v>
+      <c r="AP160" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ160" s="10"/>
     </row>
@@ -20280,8 +18760,9 @@
       <c r="AO161" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP161" s="96" t="s">
-        <v>446</v>
+      <c r="AP161" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ161" s="10"/>
     </row>
@@ -20385,8 +18866,9 @@
       <c r="AO162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP162" s="96" t="s">
-        <v>447</v>
+      <c r="AP162" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ162" s="10"/>
     </row>
@@ -20490,8 +18972,9 @@
       <c r="AO163" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP163" s="96" t="s">
-        <v>448</v>
+      <c r="AP163" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ163" s="10"/>
     </row>
@@ -20595,8 +19078,9 @@
       <c r="AO164" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP164" s="96" t="s">
-        <v>449</v>
+      <c r="AP164" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ164" s="10"/>
     </row>
@@ -20700,8 +19184,9 @@
       <c r="AO165" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP165" s="96" t="s">
-        <v>450</v>
+      <c r="AP165" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ165" s="10"/>
     </row>
@@ -20805,8 +19290,9 @@
       <c r="AO166" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP166" s="96" t="s">
-        <v>451</v>
+      <c r="AP166" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ166" s="10"/>
     </row>
@@ -20910,8 +19396,9 @@
       <c r="AO167" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP167" s="96" t="s">
-        <v>452</v>
+      <c r="AP167" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ167" s="10"/>
     </row>
@@ -21015,8 +19502,9 @@
       <c r="AO168" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP168" s="96" t="s">
-        <v>453</v>
+      <c r="AP168" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ168" s="10"/>
     </row>
@@ -21120,8 +19608,9 @@
       <c r="AO169" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP169" s="96" t="s">
-        <v>454</v>
+      <c r="AP169" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ169" s="10"/>
     </row>
@@ -21225,8 +19714,9 @@
       <c r="AO170" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP170" s="96" t="s">
-        <v>455</v>
+      <c r="AP170" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ170" s="10"/>
     </row>
@@ -21330,8 +19820,9 @@
       <c r="AO171" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP171" s="96" t="s">
-        <v>456</v>
+      <c r="AP171" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ171" s="10"/>
     </row>
@@ -21435,8 +19926,9 @@
       <c r="AO172" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP172" s="96" t="s">
-        <v>457</v>
+      <c r="AP172" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ172" s="10"/>
     </row>
@@ -21540,8 +20032,9 @@
       <c r="AO173" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP173" s="96" t="s">
-        <v>458</v>
+      <c r="AP173" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ173" s="10"/>
     </row>
@@ -21645,8 +20138,9 @@
       <c r="AO174" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP174" s="96" t="s">
-        <v>459</v>
+      <c r="AP174" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ174" s="10"/>
     </row>
@@ -21750,8 +20244,9 @@
       <c r="AO175" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP175" s="96" t="s">
-        <v>460</v>
+      <c r="AP175" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ175" s="10"/>
     </row>
@@ -21861,8 +20356,9 @@
       <c r="AO176" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AP176" s="96" t="s">
-        <v>461</v>
+      <c r="AP176" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ176" s="41"/>
     </row>
@@ -21964,8 +20460,9 @@
       <c r="AO177" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP177" s="96" t="s">
-        <v>462</v>
+      <c r="AP177" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ177" s="10"/>
     </row>
@@ -22069,8 +20566,9 @@
       <c r="AO178" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP178" s="96" t="s">
-        <v>463</v>
+      <c r="AP178" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ178" s="10"/>
     </row>
@@ -22174,8 +20672,9 @@
       <c r="AO179" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP179" s="96" t="s">
-        <v>464</v>
+      <c r="AP179" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ179" s="10"/>
     </row>
@@ -22279,8 +20778,9 @@
       <c r="AO180" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP180" s="96" t="s">
-        <v>465</v>
+      <c r="AP180" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ180" s="10"/>
     </row>
@@ -22384,8 +20884,9 @@
       <c r="AO181" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP181" s="96" t="s">
-        <v>466</v>
+      <c r="AP181" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ181" s="10"/>
     </row>
@@ -22489,8 +20990,9 @@
       <c r="AO182" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP182" s="96" t="s">
-        <v>467</v>
+      <c r="AP182" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ182" s="10"/>
     </row>
@@ -22594,8 +21096,9 @@
       <c r="AO183" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP183" s="96" t="s">
-        <v>468</v>
+      <c r="AP183" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ183" s="10"/>
     </row>
@@ -22699,8 +21202,9 @@
       <c r="AO184" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP184" s="96" t="s">
-        <v>469</v>
+      <c r="AP184" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ184" s="10"/>
     </row>
@@ -22804,8 +21308,9 @@
       <c r="AO185" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP185" s="96" t="s">
-        <v>470</v>
+      <c r="AP185" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ185" s="10"/>
     </row>
@@ -22909,8 +21414,9 @@
       <c r="AO186" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP186" s="96" t="s">
-        <v>471</v>
+      <c r="AP186" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ186" s="10"/>
     </row>
@@ -23014,8 +21520,9 @@
       <c r="AO187" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP187" s="96" t="s">
-        <v>472</v>
+      <c r="AP187" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ187" s="10"/>
     </row>
@@ -23119,8 +21626,9 @@
       <c r="AO188" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP188" s="96" t="s">
-        <v>473</v>
+      <c r="AP188" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ188" s="10"/>
     </row>
@@ -23224,8 +21732,9 @@
       <c r="AO189" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP189" s="96" t="s">
-        <v>474</v>
+      <c r="AP189" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ189" s="10"/>
     </row>
@@ -23329,8 +21838,9 @@
       <c r="AO190" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP190" s="96" t="s">
-        <v>475</v>
+      <c r="AP190" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ190" s="10"/>
     </row>
@@ -23434,8 +21944,9 @@
       <c r="AO191" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP191" s="96" t="s">
-        <v>476</v>
+      <c r="AP191" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ191" s="10"/>
     </row>
@@ -23539,8 +22050,9 @@
       <c r="AO192" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP192" s="96" t="s">
-        <v>477</v>
+      <c r="AP192" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ192" s="10"/>
     </row>
@@ -23644,8 +22156,9 @@
       <c r="AO193" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP193" s="96" t="s">
-        <v>478</v>
+      <c r="AP193" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ193" s="10"/>
     </row>
@@ -23749,8 +22262,9 @@
       <c r="AO194" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP194" s="96" t="s">
-        <v>479</v>
+      <c r="AP194" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ194" s="10"/>
     </row>
@@ -23854,8 +22368,9 @@
       <c r="AO195" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP195" s="96" t="s">
-        <v>480</v>
+      <c r="AP195" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ195" s="10"/>
     </row>
@@ -23959,8 +22474,9 @@
       <c r="AO196" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP196" s="96" t="s">
-        <v>481</v>
+      <c r="AP196" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ196" s="10"/>
     </row>
@@ -24064,8 +22580,9 @@
       <c r="AO197" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP197" s="96" t="s">
-        <v>482</v>
+      <c r="AP197" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ197" s="10"/>
     </row>
@@ -24169,8 +22686,9 @@
       <c r="AO198" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP198" s="96" t="s">
-        <v>483</v>
+      <c r="AP198" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ198" s="10"/>
     </row>
@@ -24276,8 +22794,9 @@
       <c r="AO199" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP199" s="96" t="s">
-        <v>484</v>
+      <c r="AP199" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ199" s="10"/>
     </row>
@@ -24381,8 +22900,9 @@
       <c r="AO200" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP200" s="96" t="s">
-        <v>485</v>
+      <c r="AP200" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ200" s="10"/>
     </row>
@@ -24486,8 +23006,9 @@
       <c r="AO201" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP201" s="96" t="s">
-        <v>486</v>
+      <c r="AP201" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ201" s="10"/>
     </row>
@@ -24591,8 +23112,9 @@
       <c r="AO202" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP202" s="96" t="s">
-        <v>487</v>
+      <c r="AP202" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ202" s="10"/>
     </row>
@@ -24696,8 +23218,9 @@
       <c r="AO203" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP203" s="96" t="s">
-        <v>488</v>
+      <c r="AP203" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ203" s="10"/>
     </row>
@@ -24801,8 +23324,9 @@
       <c r="AO204" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP204" s="96" t="s">
-        <v>489</v>
+      <c r="AP204" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ204" s="10"/>
     </row>
@@ -24912,8 +23436,9 @@
       <c r="AO205" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP205" s="96" t="s">
-        <v>490</v>
+      <c r="AP205" s="96" t="str">
+        <f t="shared" ref="AP205:AP268" si="3">AP204</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ205" s="10"/>
     </row>
@@ -25017,8 +23542,9 @@
       <c r="AO206" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP206" s="96" t="s">
-        <v>491</v>
+      <c r="AP206" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ206" s="10"/>
     </row>
@@ -25122,8 +23648,9 @@
       <c r="AO207" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP207" s="96" t="s">
-        <v>492</v>
+      <c r="AP207" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ207" s="10"/>
     </row>
@@ -25227,8 +23754,9 @@
       <c r="AO208" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP208" s="96" t="s">
-        <v>493</v>
+      <c r="AP208" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ208" s="10"/>
     </row>
@@ -25332,8 +23860,9 @@
       <c r="AO209" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP209" s="96" t="s">
-        <v>494</v>
+      <c r="AP209" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ209" s="10"/>
     </row>
@@ -25437,8 +23966,9 @@
       <c r="AO210" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP210" s="96" t="s">
-        <v>495</v>
+      <c r="AP210" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ210" s="10"/>
     </row>
@@ -25542,8 +24072,9 @@
       <c r="AO211" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP211" s="96" t="s">
-        <v>496</v>
+      <c r="AP211" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ211" s="10"/>
     </row>
@@ -25653,8 +24184,9 @@
       <c r="AO212" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP212" s="96" t="s">
-        <v>497</v>
+      <c r="AP212" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ212" s="10"/>
     </row>
@@ -25758,8 +24290,9 @@
       <c r="AO213" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP213" s="96" t="s">
-        <v>498</v>
+      <c r="AP213" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ213" s="10"/>
     </row>
@@ -25863,8 +24396,9 @@
       <c r="AO214" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP214" s="96" t="s">
-        <v>499</v>
+      <c r="AP214" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ214" s="10"/>
     </row>
@@ -25968,8 +24502,9 @@
       <c r="AO215" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP215" s="96" t="s">
-        <v>500</v>
+      <c r="AP215" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ215" s="10"/>
     </row>
@@ -26073,8 +24608,9 @@
       <c r="AO216" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP216" s="96" t="s">
-        <v>501</v>
+      <c r="AP216" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ216" s="10"/>
     </row>
@@ -26178,8 +24714,9 @@
       <c r="AO217" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP217" s="96" t="s">
-        <v>502</v>
+      <c r="AP217" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ217" s="10"/>
     </row>
@@ -26283,8 +24820,9 @@
       <c r="AO218" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP218" s="96" t="s">
-        <v>503</v>
+      <c r="AP218" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ218" s="10"/>
     </row>
@@ -26388,8 +24926,9 @@
       <c r="AO219" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP219" s="96" t="s">
-        <v>504</v>
+      <c r="AP219" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ219" s="10"/>
     </row>
@@ -26493,8 +25032,9 @@
       <c r="AO220" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP220" s="96" t="s">
-        <v>505</v>
+      <c r="AP220" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ220" s="10"/>
     </row>
@@ -26598,8 +25138,9 @@
       <c r="AO221" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP221" s="96" t="s">
-        <v>506</v>
+      <c r="AP221" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ221" s="10"/>
     </row>
@@ -26703,8 +25244,9 @@
       <c r="AO222" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP222" s="96" t="s">
-        <v>507</v>
+      <c r="AP222" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ222" s="10"/>
     </row>
@@ -26808,8 +25350,9 @@
       <c r="AO223" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP223" s="96" t="s">
-        <v>508</v>
+      <c r="AP223" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ223" s="10"/>
     </row>
@@ -26913,8 +25456,9 @@
       <c r="AO224" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP224" s="96" t="s">
-        <v>509</v>
+      <c r="AP224" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ224" s="10"/>
     </row>
@@ -27018,8 +25562,9 @@
       <c r="AO225" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP225" s="96" t="s">
-        <v>510</v>
+      <c r="AP225" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ225" s="10"/>
     </row>
@@ -27123,8 +25668,9 @@
       <c r="AO226" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP226" s="96" t="s">
-        <v>511</v>
+      <c r="AP226" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ226" s="10"/>
     </row>
@@ -27228,8 +25774,9 @@
       <c r="AO227" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP227" s="96" t="s">
-        <v>512</v>
+      <c r="AP227" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ227" s="10"/>
     </row>
@@ -27333,8 +25880,9 @@
       <c r="AO228" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP228" s="96" t="s">
-        <v>513</v>
+      <c r="AP228" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ228" s="10"/>
     </row>
@@ -27438,8 +25986,9 @@
       <c r="AO229" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP229" s="96" t="s">
-        <v>514</v>
+      <c r="AP229" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ229" s="10"/>
     </row>
@@ -27543,8 +26092,9 @@
       <c r="AO230" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP230" s="96" t="s">
-        <v>515</v>
+      <c r="AP230" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ230" s="10"/>
     </row>
@@ -27648,8 +26198,9 @@
       <c r="AO231" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP231" s="96" t="s">
-        <v>516</v>
+      <c r="AP231" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ231" s="10"/>
     </row>
@@ -27753,8 +26304,9 @@
       <c r="AO232" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP232" s="96" t="s">
-        <v>517</v>
+      <c r="AP232" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ232" s="10"/>
     </row>
@@ -27858,8 +26410,9 @@
       <c r="AO233" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP233" s="96" t="s">
-        <v>518</v>
+      <c r="AP233" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ233" s="10"/>
     </row>
@@ -27963,8 +26516,9 @@
       <c r="AO234" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP234" s="96" t="s">
-        <v>519</v>
+      <c r="AP234" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ234" s="10"/>
     </row>
@@ -28068,8 +26622,9 @@
       <c r="AO235" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP235" s="96" t="s">
-        <v>520</v>
+      <c r="AP235" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ235" s="10"/>
     </row>
@@ -28179,8 +26734,9 @@
       <c r="AO236" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AP236" s="96" t="s">
-        <v>521</v>
+      <c r="AP236" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ236" s="10"/>
     </row>
@@ -28284,8 +26840,9 @@
       <c r="AO237" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP237" s="96" t="s">
-        <v>522</v>
+      <c r="AP237" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ237" s="10"/>
     </row>
@@ -28389,8 +26946,9 @@
       <c r="AO238" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP238" s="96" t="s">
-        <v>523</v>
+      <c r="AP238" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ238" s="10"/>
     </row>
@@ -28492,8 +27050,9 @@
       <c r="AO239" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP239" s="96" t="s">
-        <v>524</v>
+      <c r="AP239" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ239" s="10"/>
     </row>
@@ -28591,8 +27150,9 @@
       <c r="AO240" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP240" s="96" t="s">
-        <v>525</v>
+      <c r="AP240" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ240" s="10"/>
     </row>
@@ -28698,8 +27258,9 @@
       <c r="AO241" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP241" s="96" t="s">
-        <v>526</v>
+      <c r="AP241" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ241" s="10"/>
     </row>
@@ -28805,8 +27366,9 @@
       <c r="AO242" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP242" s="96" t="s">
-        <v>527</v>
+      <c r="AP242" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ242" s="10"/>
     </row>
@@ -28912,8 +27474,9 @@
       <c r="AO243" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP243" s="96" t="s">
-        <v>528</v>
+      <c r="AP243" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ243" s="10"/>
     </row>
@@ -29019,8 +27582,9 @@
       <c r="AO244" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP244" s="96" t="s">
-        <v>529</v>
+      <c r="AP244" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ244" s="10"/>
     </row>
@@ -29126,8 +27690,9 @@
       <c r="AO245" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP245" s="96" t="s">
-        <v>530</v>
+      <c r="AP245" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ245" s="10"/>
     </row>
@@ -29233,8 +27798,9 @@
       <c r="AO246" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP246" s="96" t="s">
-        <v>531</v>
+      <c r="AP246" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ246" s="10"/>
     </row>
@@ -29340,8 +27906,9 @@
       <c r="AO247" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP247" s="96" t="s">
-        <v>532</v>
+      <c r="AP247" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ247" s="10"/>
     </row>
@@ -29447,8 +28014,9 @@
       <c r="AO248" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP248" s="96" t="s">
-        <v>533</v>
+      <c r="AP248" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ248" s="10"/>
     </row>
@@ -29554,8 +28122,9 @@
       <c r="AO249" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP249" s="96" t="s">
-        <v>534</v>
+      <c r="AP249" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ249" s="10"/>
     </row>
@@ -29661,8 +28230,9 @@
       <c r="AO250" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP250" s="96" t="s">
-        <v>535</v>
+      <c r="AP250" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ250" s="10"/>
     </row>
@@ -29774,8 +28344,9 @@
       <c r="AO251" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP251" s="96" t="s">
-        <v>536</v>
+      <c r="AP251" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ251" s="10"/>
     </row>
@@ -29879,8 +28450,9 @@
       <c r="AO252" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP252" s="96" t="s">
-        <v>537</v>
+      <c r="AP252" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ252" s="10"/>
     </row>
@@ -29984,8 +28556,9 @@
       <c r="AO253" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP253" s="96" t="s">
-        <v>538</v>
+      <c r="AP253" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ253" s="10"/>
     </row>
@@ -30089,8 +28662,9 @@
       <c r="AO254" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP254" s="96" t="s">
-        <v>539</v>
+      <c r="AP254" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ254" s="10"/>
     </row>
@@ -30194,8 +28768,9 @@
       <c r="AO255" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP255" s="96" t="s">
-        <v>540</v>
+      <c r="AP255" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ255" s="10"/>
     </row>
@@ -30299,8 +28874,9 @@
       <c r="AO256" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP256" s="96" t="s">
-        <v>541</v>
+      <c r="AP256" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ256" s="10"/>
     </row>
@@ -30404,8 +28980,9 @@
       <c r="AO257" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP257" s="96" t="s">
-        <v>542</v>
+      <c r="AP257" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ257" s="10"/>
     </row>
@@ -30509,8 +29086,9 @@
       <c r="AO258" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP258" s="96" t="s">
-        <v>543</v>
+      <c r="AP258" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ258" s="10"/>
     </row>
@@ -30620,8 +29198,9 @@
       <c r="AO259" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP259" s="96" t="s">
-        <v>544</v>
+      <c r="AP259" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ259" s="10"/>
     </row>
@@ -30725,8 +29304,9 @@
       <c r="AO260" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP260" s="96" t="s">
-        <v>545</v>
+      <c r="AP260" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ260" s="10"/>
     </row>
@@ -30830,8 +29410,9 @@
       <c r="AO261" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP261" s="96" t="s">
-        <v>546</v>
+      <c r="AP261" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ261" s="10"/>
     </row>
@@ -30935,8 +29516,9 @@
       <c r="AO262" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP262" s="96" t="s">
-        <v>547</v>
+      <c r="AP262" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ262" s="10"/>
     </row>
@@ -31040,8 +29622,9 @@
       <c r="AO263" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP263" s="96" t="s">
-        <v>548</v>
+      <c r="AP263" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ263" s="10"/>
     </row>
@@ -31145,8 +29728,9 @@
       <c r="AO264" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP264" s="96" t="s">
-        <v>549</v>
+      <c r="AP264" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ264" s="10"/>
     </row>
@@ -31250,8 +29834,9 @@
       <c r="AO265" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP265" s="96" t="s">
-        <v>550</v>
+      <c r="AP265" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ265" s="10"/>
     </row>
@@ -31355,8 +29940,9 @@
       <c r="AO266" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP266" s="96" t="s">
-        <v>551</v>
+      <c r="AP266" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ266" s="10"/>
     </row>
@@ -31460,8 +30046,9 @@
       <c r="AO267" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP267" s="96" t="s">
-        <v>552</v>
+      <c r="AP267" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ267" s="10"/>
     </row>
@@ -31565,8 +30152,9 @@
       <c r="AO268" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP268" s="96" t="s">
-        <v>553</v>
+      <c r="AP268" s="96" t="str">
+        <f t="shared" si="3"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ268" s="10"/>
     </row>
@@ -31670,8 +30258,9 @@
       <c r="AO269" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP269" s="96" t="s">
-        <v>554</v>
+      <c r="AP269" s="96" t="str">
+        <f t="shared" ref="AP269:AP332" si="4">AP268</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ269" s="10"/>
     </row>
@@ -31775,8 +30364,9 @@
       <c r="AO270" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP270" s="96" t="s">
-        <v>555</v>
+      <c r="AP270" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ270" s="10"/>
     </row>
@@ -31880,8 +30470,9 @@
       <c r="AO271" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP271" s="96" t="s">
-        <v>556</v>
+      <c r="AP271" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ271" s="10"/>
     </row>
@@ -31985,8 +30576,9 @@
       <c r="AO272" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP272" s="96" t="s">
-        <v>557</v>
+      <c r="AP272" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ272" s="10"/>
     </row>
@@ -32090,8 +30682,9 @@
       <c r="AO273" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP273" s="96" t="s">
-        <v>558</v>
+      <c r="AP273" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ273" s="10"/>
     </row>
@@ -32195,8 +30788,9 @@
       <c r="AO274" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP274" s="96" t="s">
-        <v>559</v>
+      <c r="AP274" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ274" s="10"/>
     </row>
@@ -32300,8 +30894,9 @@
       <c r="AO275" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP275" s="96" t="s">
-        <v>560</v>
+      <c r="AP275" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ275" s="10"/>
     </row>
@@ -32405,8 +31000,9 @@
       <c r="AO276" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP276" s="96" t="s">
-        <v>561</v>
+      <c r="AP276" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ276" s="10"/>
     </row>
@@ -32510,8 +31106,9 @@
       <c r="AO277" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP277" s="96" t="s">
-        <v>562</v>
+      <c r="AP277" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ277" s="10"/>
     </row>
@@ -32615,8 +31212,9 @@
       <c r="AO278" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP278" s="96" t="s">
-        <v>563</v>
+      <c r="AP278" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ278" s="10"/>
     </row>
@@ -32720,8 +31318,9 @@
       <c r="AO279" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP279" s="96" t="s">
-        <v>564</v>
+      <c r="AP279" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ279" s="10"/>
     </row>
@@ -32825,8 +31424,9 @@
       <c r="AO280" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP280" s="96" t="s">
-        <v>565</v>
+      <c r="AP280" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ280" s="10"/>
     </row>
@@ -32930,8 +31530,9 @@
       <c r="AO281" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP281" s="96" t="s">
-        <v>566</v>
+      <c r="AP281" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ281" s="10"/>
     </row>
@@ -33035,8 +31636,9 @@
       <c r="AO282" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP282" s="96" t="s">
-        <v>567</v>
+      <c r="AP282" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ282" s="10"/>
     </row>
@@ -33140,8 +31742,9 @@
       <c r="AO283" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP283" s="96" t="s">
-        <v>568</v>
+      <c r="AP283" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ283" s="10"/>
     </row>
@@ -33245,8 +31848,9 @@
       <c r="AO284" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP284" s="96" t="s">
-        <v>569</v>
+      <c r="AP284" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ284" s="10"/>
     </row>
@@ -33350,8 +31954,9 @@
       <c r="AO285" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP285" s="96" t="s">
-        <v>570</v>
+      <c r="AP285" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ285" s="10"/>
     </row>
@@ -33455,8 +32060,9 @@
       <c r="AO286" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP286" s="96" t="s">
-        <v>571</v>
+      <c r="AP286" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ286" s="10"/>
     </row>
@@ -33560,8 +32166,9 @@
       <c r="AO287" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP287" s="96" t="s">
-        <v>572</v>
+      <c r="AP287" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ287" s="10"/>
     </row>
@@ -33665,8 +32272,9 @@
       <c r="AO288" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP288" s="96" t="s">
-        <v>573</v>
+      <c r="AP288" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ288" s="10"/>
     </row>
@@ -33770,8 +32378,9 @@
       <c r="AO289" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP289" s="96" t="s">
-        <v>574</v>
+      <c r="AP289" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ289" s="10"/>
     </row>
@@ -33875,8 +32484,9 @@
       <c r="AO290" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP290" s="96" t="s">
-        <v>575</v>
+      <c r="AP290" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ290" s="10"/>
     </row>
@@ -33980,8 +32590,9 @@
       <c r="AO291" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP291" s="96" t="s">
-        <v>576</v>
+      <c r="AP291" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ291" s="10"/>
     </row>
@@ -34091,8 +32702,9 @@
       <c r="AO292" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP292" s="96" t="s">
-        <v>577</v>
+      <c r="AP292" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ292" s="10"/>
     </row>
@@ -34194,8 +32806,9 @@
       <c r="AO293" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP293" s="96" t="s">
-        <v>578</v>
+      <c r="AP293" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ293" s="10"/>
     </row>
@@ -34299,8 +32912,9 @@
       <c r="AO294" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP294" s="96" t="s">
-        <v>579</v>
+      <c r="AP294" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ294" s="10"/>
     </row>
@@ -34404,8 +33018,9 @@
       <c r="AO295" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP295" s="96" t="s">
-        <v>580</v>
+      <c r="AP295" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ295" s="10"/>
     </row>
@@ -34509,8 +33124,9 @@
       <c r="AO296" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP296" s="96" t="s">
-        <v>581</v>
+      <c r="AP296" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ296" s="10"/>
     </row>
@@ -34614,8 +33230,9 @@
       <c r="AO297" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP297" s="96" t="s">
-        <v>582</v>
+      <c r="AP297" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ297" s="10"/>
     </row>
@@ -34719,8 +33336,9 @@
       <c r="AO298" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP298" s="96" t="s">
-        <v>583</v>
+      <c r="AP298" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ298" s="10"/>
     </row>
@@ -34824,8 +33442,9 @@
       <c r="AO299" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP299" s="96" t="s">
-        <v>584</v>
+      <c r="AP299" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ299" s="10"/>
     </row>
@@ -34929,8 +33548,9 @@
       <c r="AO300" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP300" s="96" t="s">
-        <v>585</v>
+      <c r="AP300" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ300" s="10"/>
     </row>
@@ -35034,8 +33654,9 @@
       <c r="AO301" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP301" s="96" t="s">
-        <v>586</v>
+      <c r="AP301" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ301" s="10"/>
     </row>
@@ -35139,8 +33760,9 @@
       <c r="AO302" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP302" s="96" t="s">
-        <v>587</v>
+      <c r="AP302" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ302" s="10"/>
     </row>
@@ -35244,8 +33866,9 @@
       <c r="AO303" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP303" s="96" t="s">
-        <v>588</v>
+      <c r="AP303" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ303" s="10"/>
     </row>
@@ -35349,8 +33972,9 @@
       <c r="AO304" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP304" s="96" t="s">
-        <v>589</v>
+      <c r="AP304" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ304" s="10"/>
     </row>
@@ -35454,8 +34078,9 @@
       <c r="AO305" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP305" s="96" t="s">
-        <v>590</v>
+      <c r="AP305" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ305" s="10"/>
     </row>
@@ -35559,8 +34184,9 @@
       <c r="AO306" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP306" s="96" t="s">
-        <v>591</v>
+      <c r="AP306" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ306" s="10"/>
     </row>
@@ -35664,8 +34290,9 @@
       <c r="AO307" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP307" s="96" t="s">
-        <v>592</v>
+      <c r="AP307" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ307" s="10"/>
     </row>
@@ -35769,8 +34396,9 @@
       <c r="AO308" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP308" s="96" t="s">
-        <v>593</v>
+      <c r="AP308" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ308" s="10"/>
     </row>
@@ -35874,8 +34502,9 @@
       <c r="AO309" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP309" s="96" t="s">
-        <v>594</v>
+      <c r="AP309" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ309" s="10"/>
     </row>
@@ -35979,8 +34608,9 @@
       <c r="AO310" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP310" s="96" t="s">
-        <v>595</v>
+      <c r="AP310" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ310" s="10"/>
     </row>
@@ -36084,8 +34714,9 @@
       <c r="AO311" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP311" s="96" t="s">
-        <v>596</v>
+      <c r="AP311" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ311" s="10"/>
     </row>
@@ -36189,8 +34820,9 @@
       <c r="AO312" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP312" s="96" t="s">
-        <v>597</v>
+      <c r="AP312" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ312" s="10"/>
     </row>
@@ -36294,8 +34926,9 @@
       <c r="AO313" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP313" s="96" t="s">
-        <v>598</v>
+      <c r="AP313" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ313" s="10"/>
     </row>
@@ -36399,8 +35032,9 @@
       <c r="AO314" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP314" s="96" t="s">
-        <v>599</v>
+      <c r="AP314" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ314" s="10"/>
     </row>
@@ -36504,8 +35138,9 @@
       <c r="AO315" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP315" s="96" t="s">
-        <v>600</v>
+      <c r="AP315" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ315" s="10"/>
     </row>
@@ -36609,8 +35244,9 @@
       <c r="AO316" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP316" s="96" t="s">
-        <v>601</v>
+      <c r="AP316" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ316" s="10"/>
     </row>
@@ -36714,8 +35350,9 @@
       <c r="AO317" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP317" s="96" t="s">
-        <v>602</v>
+      <c r="AP317" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ317" s="10"/>
     </row>
@@ -36825,8 +35462,9 @@
       <c r="AO318" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP318" s="96" t="s">
-        <v>603</v>
+      <c r="AP318" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ318" s="10"/>
     </row>
@@ -36930,8 +35568,9 @@
       <c r="AO319" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP319" s="96" t="s">
-        <v>604</v>
+      <c r="AP319" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ319" s="10"/>
     </row>
@@ -37035,8 +35674,9 @@
       <c r="AO320" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP320" s="96" t="s">
-        <v>605</v>
+      <c r="AP320" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ320" s="10"/>
     </row>
@@ -37140,8 +35780,9 @@
       <c r="AO321" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP321" s="96" t="s">
-        <v>606</v>
+      <c r="AP321" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ321" s="10"/>
     </row>
@@ -37245,8 +35886,9 @@
       <c r="AO322" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP322" s="96" t="s">
-        <v>607</v>
+      <c r="AP322" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ322" s="10"/>
     </row>
@@ -37350,8 +35992,9 @@
       <c r="AO323" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP323" s="96" t="s">
-        <v>608</v>
+      <c r="AP323" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ323" s="10"/>
     </row>
@@ -37455,8 +36098,9 @@
       <c r="AO324" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP324" s="96" t="s">
-        <v>609</v>
+      <c r="AP324" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ324" s="10"/>
     </row>
@@ -37560,8 +36204,9 @@
       <c r="AO325" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP325" s="96" t="s">
-        <v>610</v>
+      <c r="AP325" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ325" s="10"/>
     </row>
@@ -37671,8 +36316,9 @@
       <c r="AO326" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP326" s="96" t="s">
-        <v>611</v>
+      <c r="AP326" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ326" s="10"/>
     </row>
@@ -37774,8 +36420,9 @@
       <c r="AO327" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP327" s="96" t="s">
-        <v>612</v>
+      <c r="AP327" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ327" s="10"/>
     </row>
@@ -37879,8 +36526,9 @@
       <c r="AO328" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP328" s="96" t="s">
-        <v>613</v>
+      <c r="AP328" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ328" s="10"/>
     </row>
@@ -37982,8 +36630,9 @@
       <c r="AO329" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP329" s="96" t="s">
-        <v>614</v>
+      <c r="AP329" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ329" s="10"/>
     </row>
@@ -38085,8 +36734,9 @@
       <c r="AO330" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP330" s="96" t="s">
-        <v>615</v>
+      <c r="AP330" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ330" s="10"/>
     </row>
@@ -38188,8 +36838,9 @@
       <c r="AO331" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP331" s="96" t="s">
-        <v>616</v>
+      <c r="AP331" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ331" s="10"/>
     </row>
@@ -38293,8 +36944,9 @@
       <c r="AO332" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP332" s="96" t="s">
-        <v>617</v>
+      <c r="AP332" s="96" t="str">
+        <f t="shared" si="4"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ332" s="10"/>
     </row>
@@ -38398,8 +37050,9 @@
       <c r="AO333" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP333" s="96" t="s">
-        <v>618</v>
+      <c r="AP333" s="96" t="str">
+        <f t="shared" ref="AP333:AP396" si="5">AP332</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ333" s="10"/>
     </row>
@@ -38503,8 +37156,9 @@
       <c r="AO334" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP334" s="96" t="s">
-        <v>619</v>
+      <c r="AP334" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ334" s="10"/>
     </row>
@@ -38606,8 +37260,9 @@
       <c r="AO335" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP335" s="96" t="s">
-        <v>620</v>
+      <c r="AP335" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ335" s="10"/>
     </row>
@@ -38711,8 +37366,9 @@
       <c r="AO336" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP336" s="96" t="s">
-        <v>621</v>
+      <c r="AP336" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ336" s="10"/>
     </row>
@@ -38816,8 +37472,9 @@
       <c r="AO337" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP337" s="96" t="s">
-        <v>622</v>
+      <c r="AP337" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ337" s="10"/>
     </row>
@@ -38921,8 +37578,9 @@
       <c r="AO338" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP338" s="96" t="s">
-        <v>623</v>
+      <c r="AP338" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ338" s="10"/>
     </row>
@@ -39026,8 +37684,9 @@
       <c r="AO339" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP339" s="96" t="s">
-        <v>624</v>
+      <c r="AP339" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ339" s="10"/>
     </row>
@@ -39131,8 +37790,9 @@
       <c r="AO340" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP340" s="96" t="s">
-        <v>625</v>
+      <c r="AP340" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ340" s="10"/>
     </row>
@@ -39236,8 +37896,9 @@
       <c r="AO341" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP341" s="96" t="s">
-        <v>626</v>
+      <c r="AP341" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ341" s="10"/>
     </row>
@@ -39347,8 +38008,9 @@
       <c r="AO342" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP342" s="96" t="s">
-        <v>627</v>
+      <c r="AP342" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ342" s="10"/>
     </row>
@@ -39452,8 +38114,9 @@
       <c r="AO343" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP343" s="96" t="s">
-        <v>628</v>
+      <c r="AP343" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ343" s="10"/>
     </row>
@@ -39557,8 +38220,9 @@
       <c r="AO344" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP344" s="96" t="s">
-        <v>629</v>
+      <c r="AP344" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ344" s="10"/>
     </row>
@@ -39662,8 +38326,9 @@
       <c r="AO345" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP345" s="96" t="s">
-        <v>630</v>
+      <c r="AP345" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ345" s="10"/>
     </row>
@@ -39767,8 +38432,9 @@
       <c r="AO346" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP346" s="96" t="s">
-        <v>631</v>
+      <c r="AP346" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ346" s="10"/>
     </row>
@@ -39872,8 +38538,9 @@
       <c r="AO347" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP347" s="96" t="s">
-        <v>632</v>
+      <c r="AP347" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ347" s="10"/>
     </row>
@@ -39983,8 +38650,9 @@
       <c r="AO348" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AP348" s="96" t="s">
-        <v>633</v>
+      <c r="AP348" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ348" s="10"/>
     </row>
@@ -40094,8 +38762,9 @@
       <c r="AO349" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP349" s="96" t="s">
-        <v>634</v>
+      <c r="AP349" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ349" s="10"/>
     </row>
@@ -40205,8 +38874,9 @@
       <c r="AO350" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AP350" s="96" t="s">
-        <v>635</v>
+      <c r="AP350" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ350" s="10"/>
     </row>
@@ -40316,8 +38986,9 @@
       <c r="AO351" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP351" s="96" t="s">
-        <v>636</v>
+      <c r="AP351" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ351" s="10"/>
     </row>
@@ -40415,8 +39086,9 @@
       <c r="AO352" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP352" s="96" t="s">
-        <v>637</v>
+      <c r="AP352" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ352" s="10"/>
     </row>
@@ -40520,8 +39192,9 @@
       <c r="AO353" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP353" s="96" t="s">
-        <v>638</v>
+      <c r="AP353" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ353" s="10"/>
     </row>
@@ -40625,8 +39298,9 @@
       <c r="AO354" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP354" s="96" t="s">
-        <v>639</v>
+      <c r="AP354" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ354" s="10"/>
     </row>
@@ -40730,8 +39404,9 @@
       <c r="AO355" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP355" s="96" t="s">
-        <v>640</v>
+      <c r="AP355" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ355" s="10"/>
     </row>
@@ -40833,8 +39508,9 @@
       <c r="AO356" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP356" s="96" t="s">
-        <v>641</v>
+      <c r="AP356" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ356" s="10"/>
     </row>
@@ -40938,8 +39614,9 @@
       <c r="AO357" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP357" s="96" t="s">
-        <v>642</v>
+      <c r="AP357" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ357" s="10"/>
     </row>
@@ -41043,8 +39720,9 @@
       <c r="AO358" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP358" s="96" t="s">
-        <v>643</v>
+      <c r="AP358" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ358" s="10"/>
     </row>
@@ -41148,8 +39826,9 @@
       <c r="AO359" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP359" s="96" t="s">
-        <v>644</v>
+      <c r="AP359" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ359" s="10"/>
     </row>
@@ -41253,8 +39932,9 @@
       <c r="AO360" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP360" s="96" t="s">
-        <v>645</v>
+      <c r="AP360" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ360" s="10"/>
     </row>
@@ -41358,8 +40038,9 @@
       <c r="AO361" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP361" s="96" t="s">
-        <v>646</v>
+      <c r="AP361" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ361" s="10"/>
     </row>
@@ -41463,8 +40144,9 @@
       <c r="AO362" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP362" s="96" t="s">
-        <v>647</v>
+      <c r="AP362" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ362" s="10"/>
     </row>
@@ -41568,8 +40250,9 @@
       <c r="AO363" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP363" s="96" t="s">
-        <v>648</v>
+      <c r="AP363" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ363" s="10"/>
     </row>
@@ -41673,8 +40356,9 @@
       <c r="AO364" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP364" s="96" t="s">
-        <v>649</v>
+      <c r="AP364" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ364" s="10"/>
     </row>
@@ -41778,8 +40462,9 @@
       <c r="AO365" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP365" s="96" t="s">
-        <v>650</v>
+      <c r="AP365" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ365" s="10"/>
     </row>
@@ -41883,8 +40568,9 @@
       <c r="AO366" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP366" s="96" t="s">
-        <v>651</v>
+      <c r="AP366" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ366" s="10"/>
     </row>
@@ -41988,8 +40674,9 @@
       <c r="AO367" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP367" s="96" t="s">
-        <v>652</v>
+      <c r="AP367" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ367" s="10"/>
     </row>
@@ -42099,8 +40786,9 @@
       <c r="AO368" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP368" s="96" t="s">
-        <v>653</v>
+      <c r="AP368" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ368" s="10"/>
     </row>
@@ -42112,11 +40800,11 @@
         <v>146</v>
       </c>
       <c r="C369" s="19">
-        <f t="shared" ref="C369:D369" si="0">AVERAGE(C105:C106)</f>
+        <f t="shared" ref="C369:D369" si="6">AVERAGE(C105:C106)</f>
         <v>32.760000000000005</v>
       </c>
       <c r="D369" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-107.735</v>
       </c>
       <c r="E369" s="6">
@@ -42200,8 +40888,9 @@
       <c r="AO369" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP369" s="96" t="s">
-        <v>654</v>
+      <c r="AP369" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ369" s="10"/>
     </row>
@@ -42305,8 +40994,9 @@
       <c r="AO370" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP370" s="96" t="s">
-        <v>655</v>
+      <c r="AP370" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ370" s="10"/>
     </row>
@@ -42410,8 +41100,9 @@
       <c r="AO371" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP371" s="96" t="s">
-        <v>656</v>
+      <c r="AP371" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ371" s="10"/>
     </row>
@@ -42515,8 +41206,9 @@
       <c r="AO372" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP372" s="96" t="s">
-        <v>657</v>
+      <c r="AP372" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ372" s="10"/>
     </row>
@@ -42620,8 +41312,9 @@
       <c r="AO373" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP373" s="96" t="s">
-        <v>658</v>
+      <c r="AP373" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ373" s="10"/>
     </row>
@@ -42725,8 +41418,9 @@
       <c r="AO374" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP374" s="96" t="s">
-        <v>659</v>
+      <c r="AP374" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ374" s="10"/>
     </row>
@@ -42836,8 +41530,9 @@
       <c r="AO375" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP375" s="96" t="s">
-        <v>660</v>
+      <c r="AP375" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ375" s="10"/>
     </row>
@@ -42941,8 +41636,9 @@
       <c r="AO376" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP376" s="96" t="s">
-        <v>661</v>
+      <c r="AP376" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ376" s="10"/>
     </row>
@@ -43046,8 +41742,9 @@
       <c r="AO377" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP377" s="96" t="s">
-        <v>662</v>
+      <c r="AP377" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ377" s="10"/>
     </row>
@@ -43151,8 +41848,9 @@
       <c r="AO378" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP378" s="96" t="s">
-        <v>663</v>
+      <c r="AP378" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ378" s="10"/>
     </row>
@@ -43256,8 +41954,9 @@
       <c r="AO379" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP379" s="96" t="s">
-        <v>664</v>
+      <c r="AP379" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ379" s="10"/>
     </row>
@@ -43361,8 +42060,9 @@
       <c r="AO380" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP380" s="96" t="s">
-        <v>665</v>
+      <c r="AP380" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ380" s="10"/>
     </row>
@@ -43466,8 +42166,9 @@
       <c r="AO381" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP381" s="96" t="s">
-        <v>666</v>
+      <c r="AP381" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ381" s="10"/>
     </row>
@@ -43571,8 +42272,9 @@
       <c r="AO382" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP382" s="96" t="s">
-        <v>667</v>
+      <c r="AP382" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ382" s="10"/>
     </row>
@@ -43676,8 +42378,9 @@
       <c r="AO383" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP383" s="96" t="s">
-        <v>668</v>
+      <c r="AP383" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ383" s="10"/>
     </row>
@@ -43781,8 +42484,9 @@
       <c r="AO384" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP384" s="96" t="s">
-        <v>669</v>
+      <c r="AP384" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ384" s="10"/>
     </row>
@@ -43886,8 +42590,9 @@
       <c r="AO385" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP385" s="96" t="s">
-        <v>670</v>
+      <c r="AP385" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ385" s="10"/>
     </row>
@@ -43991,8 +42696,9 @@
       <c r="AO386" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP386" s="96" t="s">
-        <v>671</v>
+      <c r="AP386" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ386" s="10"/>
     </row>
@@ -44096,8 +42802,9 @@
       <c r="AO387" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP387" s="96" t="s">
-        <v>672</v>
+      <c r="AP387" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ387" s="10"/>
     </row>
@@ -44201,8 +42908,9 @@
       <c r="AO388" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP388" s="96" t="s">
-        <v>673</v>
+      <c r="AP388" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ388" s="10"/>
     </row>
@@ -44306,8 +43014,9 @@
       <c r="AO389" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP389" s="96" t="s">
-        <v>674</v>
+      <c r="AP389" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ389" s="10"/>
     </row>
@@ -44411,8 +43120,9 @@
       <c r="AO390" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP390" s="96" t="s">
-        <v>675</v>
+      <c r="AP390" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ390" s="10"/>
     </row>
@@ -44516,8 +43226,9 @@
       <c r="AO391" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP391" s="96" t="s">
-        <v>676</v>
+      <c r="AP391" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ391" s="10"/>
     </row>
@@ -44621,8 +43332,9 @@
       <c r="AO392" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP392" s="96" t="s">
-        <v>677</v>
+      <c r="AP392" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ392" s="10"/>
     </row>
@@ -44726,8 +43438,9 @@
       <c r="AO393" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP393" s="96" t="s">
-        <v>678</v>
+      <c r="AP393" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ393" s="10"/>
     </row>
@@ -44831,8 +43544,9 @@
       <c r="AO394" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP394" s="96" t="s">
-        <v>679</v>
+      <c r="AP394" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ394" s="10"/>
     </row>
@@ -44936,8 +43650,9 @@
       <c r="AO395" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP395" s="96" t="s">
-        <v>680</v>
+      <c r="AP395" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ395" s="10"/>
     </row>
@@ -45041,8 +43756,9 @@
       <c r="AO396" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP396" s="96" t="s">
-        <v>681</v>
+      <c r="AP396" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ396" s="10"/>
     </row>
@@ -45146,8 +43862,9 @@
       <c r="AO397" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP397" s="96" t="s">
-        <v>682</v>
+      <c r="AP397" s="96" t="str">
+        <f t="shared" ref="AP397:AP460" si="7">AP396</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ397" s="10"/>
     </row>
@@ -45251,8 +43968,9 @@
       <c r="AO398" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP398" s="96" t="s">
-        <v>683</v>
+      <c r="AP398" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ398" s="10"/>
     </row>
@@ -45356,8 +44074,9 @@
       <c r="AO399" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP399" s="96" t="s">
-        <v>684</v>
+      <c r="AP399" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ399" s="10"/>
     </row>
@@ -45461,8 +44180,9 @@
       <c r="AO400" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP400" s="96" t="s">
-        <v>685</v>
+      <c r="AP400" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ400" s="10"/>
     </row>
@@ -45566,8 +44286,9 @@
       <c r="AO401" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP401" s="96" t="s">
-        <v>686</v>
+      <c r="AP401" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ401" s="10"/>
     </row>
@@ -45671,8 +44392,9 @@
       <c r="AO402" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP402" s="96" t="s">
-        <v>687</v>
+      <c r="AP402" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ402" s="10"/>
     </row>
@@ -45776,8 +44498,9 @@
       <c r="AO403" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP403" s="96" t="s">
-        <v>688</v>
+      <c r="AP403" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ403" s="10"/>
     </row>
@@ -45887,8 +44610,9 @@
       <c r="AO404" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AP404" s="96" t="s">
-        <v>689</v>
+      <c r="AP404" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ404" s="10"/>
     </row>
@@ -45994,8 +44718,9 @@
       <c r="AO405" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP405" s="96" t="s">
-        <v>690</v>
+      <c r="AP405" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ405" s="10"/>
     </row>
@@ -46101,8 +44826,9 @@
       <c r="AO406" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP406" s="96" t="s">
-        <v>691</v>
+      <c r="AP406" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ406" s="10"/>
     </row>
@@ -46208,8 +44934,9 @@
       <c r="AO407" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP407" s="96" t="s">
-        <v>692</v>
+      <c r="AP407" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ407" s="10"/>
     </row>
@@ -46315,8 +45042,9 @@
       <c r="AO408" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP408" s="96" t="s">
-        <v>693</v>
+      <c r="AP408" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ408" s="10"/>
     </row>
@@ -46420,8 +45148,9 @@
       <c r="AO409" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP409" s="96" t="s">
-        <v>694</v>
+      <c r="AP409" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ409" s="10"/>
     </row>
@@ -46525,8 +45254,9 @@
       <c r="AO410" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP410" s="96" t="s">
-        <v>695</v>
+      <c r="AP410" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ410" s="10"/>
     </row>
@@ -46630,8 +45360,9 @@
       <c r="AO411" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP411" s="96" t="s">
-        <v>696</v>
+      <c r="AP411" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ411" s="10"/>
     </row>
@@ -46735,8 +45466,9 @@
       <c r="AO412" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP412" s="96" t="s">
-        <v>697</v>
+      <c r="AP412" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ412" s="10"/>
     </row>
@@ -46840,8 +45572,9 @@
       <c r="AO413" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP413" s="96" t="s">
-        <v>698</v>
+      <c r="AP413" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ413" s="10"/>
     </row>
@@ -46945,8 +45678,9 @@
       <c r="AO414" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP414" s="96" t="s">
-        <v>699</v>
+      <c r="AP414" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ414" s="10"/>
     </row>
@@ -47052,8 +45786,9 @@
       <c r="AO415" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP415" s="96" t="s">
-        <v>700</v>
+      <c r="AP415" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ415" s="10"/>
     </row>
@@ -47157,8 +45892,9 @@
       <c r="AO416" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP416" s="96" t="s">
-        <v>701</v>
+      <c r="AP416" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ416" s="10"/>
     </row>
@@ -47262,8 +45998,9 @@
       <c r="AO417" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP417" s="96" t="s">
-        <v>702</v>
+      <c r="AP417" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ417" s="10"/>
     </row>
@@ -47367,8 +46104,9 @@
       <c r="AO418" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP418" s="96" t="s">
-        <v>703</v>
+      <c r="AP418" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ418" s="10"/>
     </row>
@@ -47472,8 +46210,9 @@
       <c r="AO419" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP419" s="96" t="s">
-        <v>704</v>
+      <c r="AP419" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ419" s="10"/>
     </row>
@@ -47577,8 +46316,9 @@
       <c r="AO420" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP420" s="96" t="s">
-        <v>705</v>
+      <c r="AP420" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ420" s="10"/>
     </row>
@@ -47682,8 +46422,9 @@
       <c r="AO421" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP421" s="96" t="s">
-        <v>706</v>
+      <c r="AP421" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ421" s="10"/>
     </row>
@@ -47787,8 +46528,9 @@
       <c r="AO422" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP422" s="96" t="s">
-        <v>707</v>
+      <c r="AP422" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ422" s="10"/>
     </row>
@@ -47892,8 +46634,9 @@
       <c r="AO423" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP423" s="96" t="s">
-        <v>708</v>
+      <c r="AP423" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ423" s="10"/>
     </row>
@@ -47997,8 +46740,9 @@
       <c r="AO424" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP424" s="96" t="s">
-        <v>709</v>
+      <c r="AP424" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ424" s="10"/>
     </row>
@@ -48102,8 +46846,9 @@
       <c r="AO425" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP425" s="96" t="s">
-        <v>710</v>
+      <c r="AP425" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ425" s="10"/>
     </row>
@@ -48207,8 +46952,9 @@
       <c r="AO426" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP426" s="96" t="s">
-        <v>711</v>
+      <c r="AP426" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ426" s="10"/>
     </row>
@@ -48312,8 +47058,9 @@
       <c r="AO427" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP427" s="96" t="s">
-        <v>712</v>
+      <c r="AP427" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ427" s="10"/>
     </row>
@@ -48417,8 +47164,9 @@
       <c r="AO428" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP428" s="96" t="s">
-        <v>713</v>
+      <c r="AP428" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ428" s="10"/>
     </row>
@@ -48528,8 +47276,9 @@
       <c r="AO429" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP429" s="96" t="s">
-        <v>714</v>
+      <c r="AP429" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ429" s="10"/>
     </row>
@@ -48633,8 +47382,9 @@
       <c r="AO430" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP430" s="96" t="s">
-        <v>715</v>
+      <c r="AP430" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ430" s="10"/>
     </row>
@@ -48738,8 +47488,9 @@
       <c r="AO431" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP431" s="96" t="s">
-        <v>716</v>
+      <c r="AP431" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ431" s="10"/>
     </row>
@@ -48843,8 +47594,9 @@
       <c r="AO432" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP432" s="96" t="s">
-        <v>717</v>
+      <c r="AP432" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ432" s="10"/>
     </row>
@@ -48948,8 +47700,9 @@
       <c r="AO433" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP433" s="96" t="s">
-        <v>718</v>
+      <c r="AP433" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ433" s="10"/>
     </row>
@@ -49053,8 +47806,9 @@
       <c r="AO434" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP434" s="96" t="s">
-        <v>719</v>
+      <c r="AP434" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ434" s="10"/>
     </row>
@@ -49160,8 +47914,9 @@
       <c r="AO435" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AP435" s="96" t="s">
-        <v>720</v>
+      <c r="AP435" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ435" s="10"/>
     </row>
@@ -49265,8 +48020,9 @@
       <c r="AO436" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP436" s="96" t="s">
-        <v>721</v>
+      <c r="AP436" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ436" s="10"/>
     </row>
@@ -49370,8 +48126,9 @@
       <c r="AO437" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP437" s="96" t="s">
-        <v>722</v>
+      <c r="AP437" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ437" s="10"/>
     </row>
@@ -49475,8 +48232,9 @@
       <c r="AO438" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP438" s="96" t="s">
-        <v>723</v>
+      <c r="AP438" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ438" s="10"/>
     </row>
@@ -49576,8 +48334,9 @@
       <c r="AO439" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP439" s="96" t="s">
-        <v>724</v>
+      <c r="AP439" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ439" s="10"/>
     </row>
@@ -49681,8 +48440,9 @@
       <c r="AO440" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP440" s="96" t="s">
-        <v>725</v>
+      <c r="AP440" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ440" s="10"/>
     </row>
@@ -49786,8 +48546,9 @@
       <c r="AO441" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP441" s="96" t="s">
-        <v>726</v>
+      <c r="AP441" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ441" s="10"/>
     </row>
@@ -49887,8 +48648,9 @@
       <c r="AO442" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP442" s="96" t="s">
-        <v>727</v>
+      <c r="AP442" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ442" s="10"/>
     </row>
@@ -49990,8 +48752,9 @@
       <c r="AO443" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP443" s="96" t="s">
-        <v>728</v>
+      <c r="AP443" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ443" s="10"/>
     </row>
@@ -50093,8 +48856,9 @@
       <c r="AO444" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP444" s="96" t="s">
-        <v>729</v>
+      <c r="AP444" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ444" s="10"/>
     </row>
@@ -50196,8 +48960,9 @@
       <c r="AO445" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP445" s="96" t="s">
-        <v>730</v>
+      <c r="AP445" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ445" s="10"/>
     </row>
@@ -50299,8 +49064,9 @@
       <c r="AO446" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP446" s="96" t="s">
-        <v>731</v>
+      <c r="AP446" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ446" s="10"/>
     </row>
@@ -50404,8 +49170,9 @@
       <c r="AO447" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP447" s="96" t="s">
-        <v>732</v>
+      <c r="AP447" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ447" s="10"/>
     </row>
@@ -50509,8 +49276,9 @@
       <c r="AO448" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP448" s="96" t="s">
-        <v>733</v>
+      <c r="AP448" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ448" s="10"/>
     </row>
@@ -50612,8 +49380,9 @@
       <c r="AO449" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AP449" s="96" t="s">
-        <v>734</v>
+      <c r="AP449" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ449" s="10"/>
     </row>
@@ -50717,8 +49486,9 @@
       <c r="AO450" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP450" s="96" t="s">
-        <v>735</v>
+      <c r="AP450" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ450" s="10"/>
     </row>
@@ -50822,8 +49592,9 @@
       <c r="AO451" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP451" s="96" t="s">
-        <v>736</v>
+      <c r="AP451" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ451" s="10"/>
     </row>
@@ -50925,8 +49696,9 @@
       <c r="AO452" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP452" s="96" t="s">
-        <v>737</v>
+      <c r="AP452" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ452" s="10"/>
     </row>
@@ -51030,8 +49802,9 @@
       <c r="AO453" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP453" s="96" t="s">
-        <v>738</v>
+      <c r="AP453" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ453" s="10"/>
     </row>
@@ -51135,8 +49908,9 @@
       <c r="AO454" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP454" s="96" t="s">
-        <v>739</v>
+      <c r="AP454" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ454" s="10"/>
     </row>
@@ -51240,8 +50014,9 @@
       <c r="AO455" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP455" s="96" t="s">
-        <v>740</v>
+      <c r="AP455" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ455" s="10"/>
     </row>
@@ -51345,8 +50120,9 @@
       <c r="AO456" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP456" s="96" t="s">
-        <v>741</v>
+      <c r="AP456" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ456" s="10"/>
     </row>
@@ -51450,8 +50226,9 @@
       <c r="AO457" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP457" s="96" t="s">
-        <v>742</v>
+      <c r="AP457" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ457" s="10"/>
     </row>
@@ -51555,8 +50332,9 @@
       <c r="AO458" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP458" s="96" t="s">
-        <v>743</v>
+      <c r="AP458" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ458" s="10"/>
     </row>
@@ -51662,8 +50440,9 @@
       <c r="AO459" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP459" s="96" t="s">
-        <v>744</v>
+      <c r="AP459" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ459" s="10"/>
     </row>
@@ -51769,8 +50548,9 @@
       <c r="AO460" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP460" s="96" t="s">
-        <v>745</v>
+      <c r="AP460" s="96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ460" s="10"/>
     </row>
@@ -51876,8 +50656,9 @@
       <c r="AO461" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP461" s="96" t="s">
-        <v>746</v>
+      <c r="AP461" s="96" t="str">
+        <f t="shared" ref="AP461:AP524" si="8">AP460</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ461" s="10"/>
     </row>
@@ -51983,8 +50764,9 @@
       <c r="AO462" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AP462" s="96" t="s">
-        <v>747</v>
+      <c r="AP462" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ462" s="10"/>
     </row>
@@ -52088,8 +50870,9 @@
       <c r="AO463" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP463" s="96" t="s">
-        <v>748</v>
+      <c r="AP463" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ463" s="10"/>
     </row>
@@ -52193,8 +50976,9 @@
       <c r="AO464" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP464" s="96" t="s">
-        <v>749</v>
+      <c r="AP464" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ464" s="10"/>
     </row>
@@ -52298,8 +51082,9 @@
       <c r="AO465" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP465" s="96" t="s">
-        <v>750</v>
+      <c r="AP465" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ465" s="10"/>
     </row>
@@ -52401,8 +51186,9 @@
       <c r="AO466" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AP466" s="96" t="s">
-        <v>751</v>
+      <c r="AP466" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ466" s="10"/>
     </row>
@@ -52502,8 +51288,9 @@
       </c>
       <c r="AN467" s="10"/>
       <c r="AO467" s="10"/>
-      <c r="AP467" s="96" t="s">
-        <v>752</v>
+      <c r="AP467" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ467" s="10"/>
     </row>
@@ -52601,8 +51388,9 @@
       </c>
       <c r="AN468" s="10"/>
       <c r="AO468" s="10"/>
-      <c r="AP468" s="96" t="s">
-        <v>753</v>
+      <c r="AP468" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ468" s="10"/>
     </row>
@@ -52700,8 +51488,9 @@
       </c>
       <c r="AN469" s="10"/>
       <c r="AO469" s="10"/>
-      <c r="AP469" s="96" t="s">
-        <v>754</v>
+      <c r="AP469" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ469" s="10"/>
     </row>
@@ -52799,8 +51588,9 @@
       </c>
       <c r="AN470" s="10"/>
       <c r="AO470" s="10"/>
-      <c r="AP470" s="96" t="s">
-        <v>755</v>
+      <c r="AP470" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ470" s="10"/>
     </row>
@@ -52900,8 +51690,9 @@
       </c>
       <c r="AN471" s="10"/>
       <c r="AO471" s="10"/>
-      <c r="AP471" s="96" t="s">
-        <v>756</v>
+      <c r="AP471" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ471" s="10"/>
     </row>
@@ -52999,8 +51790,9 @@
       </c>
       <c r="AN472" s="10"/>
       <c r="AO472" s="10"/>
-      <c r="AP472" s="96" t="s">
-        <v>757</v>
+      <c r="AP472" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ472" s="10"/>
     </row>
@@ -53098,8 +51890,9 @@
       </c>
       <c r="AN473" s="10"/>
       <c r="AO473" s="10"/>
-      <c r="AP473" s="96" t="s">
-        <v>758</v>
+      <c r="AP473" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ473" s="10"/>
     </row>
@@ -53197,8 +51990,9 @@
       </c>
       <c r="AN474" s="10"/>
       <c r="AO474" s="10"/>
-      <c r="AP474" s="96" t="s">
-        <v>759</v>
+      <c r="AP474" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ474" s="10"/>
     </row>
@@ -53296,8 +52090,9 @@
       </c>
       <c r="AN475" s="10"/>
       <c r="AO475" s="10"/>
-      <c r="AP475" s="96" t="s">
-        <v>760</v>
+      <c r="AP475" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ475" s="10"/>
     </row>
@@ -53395,8 +52190,9 @@
       </c>
       <c r="AN476" s="10"/>
       <c r="AO476" s="10"/>
-      <c r="AP476" s="96" t="s">
-        <v>761</v>
+      <c r="AP476" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ476" s="10"/>
     </row>
@@ -53494,8 +52290,9 @@
       </c>
       <c r="AN477" s="10"/>
       <c r="AO477" s="10"/>
-      <c r="AP477" s="96" t="s">
-        <v>762</v>
+      <c r="AP477" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ477" s="10"/>
     </row>
@@ -53593,8 +52390,9 @@
       </c>
       <c r="AN478" s="10"/>
       <c r="AO478" s="10"/>
-      <c r="AP478" s="96" t="s">
-        <v>763</v>
+      <c r="AP478" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ478" s="10"/>
     </row>
@@ -53692,8 +52490,9 @@
       </c>
       <c r="AN479" s="10"/>
       <c r="AO479" s="10"/>
-      <c r="AP479" s="96" t="s">
-        <v>764</v>
+      <c r="AP479" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ479" s="10"/>
     </row>
@@ -53791,8 +52590,9 @@
       </c>
       <c r="AN480" s="10"/>
       <c r="AO480" s="10"/>
-      <c r="AP480" s="96" t="s">
-        <v>765</v>
+      <c r="AP480" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ480" s="10"/>
     </row>
@@ -53892,8 +52692,9 @@
       </c>
       <c r="AN481" s="10"/>
       <c r="AO481" s="10"/>
-      <c r="AP481" s="96" t="s">
-        <v>766</v>
+      <c r="AP481" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ481" s="10"/>
     </row>
@@ -53991,8 +52792,9 @@
       </c>
       <c r="AN482" s="10"/>
       <c r="AO482" s="10"/>
-      <c r="AP482" s="96" t="s">
-        <v>767</v>
+      <c r="AP482" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ482" s="10"/>
     </row>
@@ -54090,8 +52892,9 @@
       </c>
       <c r="AN483" s="10"/>
       <c r="AO483" s="10"/>
-      <c r="AP483" s="96" t="s">
-        <v>768</v>
+      <c r="AP483" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ483" s="10"/>
     </row>
@@ -54189,8 +52992,9 @@
       </c>
       <c r="AN484" s="10"/>
       <c r="AO484" s="10"/>
-      <c r="AP484" s="96" t="s">
-        <v>769</v>
+      <c r="AP484" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ484" s="10"/>
     </row>
@@ -54290,8 +53094,9 @@
       </c>
       <c r="AN485" s="10"/>
       <c r="AO485" s="10"/>
-      <c r="AP485" s="96" t="s">
-        <v>770</v>
+      <c r="AP485" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ485" s="10"/>
     </row>
@@ -54389,8 +53194,9 @@
       </c>
       <c r="AN486" s="10"/>
       <c r="AO486" s="10"/>
-      <c r="AP486" s="96" t="s">
-        <v>771</v>
+      <c r="AP486" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ486" s="10"/>
     </row>
@@ -54490,8 +53296,9 @@
       </c>
       <c r="AN487" s="10"/>
       <c r="AO487" s="10"/>
-      <c r="AP487" s="96" t="s">
-        <v>772</v>
+      <c r="AP487" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ487" s="10"/>
     </row>
@@ -54591,8 +53398,9 @@
       </c>
       <c r="AN488" s="10"/>
       <c r="AO488" s="10"/>
-      <c r="AP488" s="96" t="s">
-        <v>773</v>
+      <c r="AP488" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ488" s="10"/>
     </row>
@@ -54690,8 +53498,9 @@
       </c>
       <c r="AN489" s="10"/>
       <c r="AO489" s="10"/>
-      <c r="AP489" s="96" t="s">
-        <v>774</v>
+      <c r="AP489" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ489" s="10"/>
     </row>
@@ -54791,8 +53600,9 @@
       </c>
       <c r="AN490" s="10"/>
       <c r="AO490" s="10"/>
-      <c r="AP490" s="96" t="s">
-        <v>775</v>
+      <c r="AP490" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ490" s="10"/>
     </row>
@@ -54890,8 +53700,9 @@
       </c>
       <c r="AN491" s="10"/>
       <c r="AO491" s="10"/>
-      <c r="AP491" s="96" t="s">
-        <v>776</v>
+      <c r="AP491" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ491" s="10"/>
     </row>
@@ -54991,8 +53802,9 @@
       </c>
       <c r="AN492" s="10"/>
       <c r="AO492" s="10"/>
-      <c r="AP492" s="96" t="s">
-        <v>777</v>
+      <c r="AP492" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ492" s="10"/>
     </row>
@@ -55092,8 +53904,9 @@
       </c>
       <c r="AN493" s="10"/>
       <c r="AO493" s="10"/>
-      <c r="AP493" s="96" t="s">
-        <v>778</v>
+      <c r="AP493" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ493" s="10"/>
     </row>
@@ -55193,8 +54006,9 @@
       </c>
       <c r="AN494" s="10"/>
       <c r="AO494" s="10"/>
-      <c r="AP494" s="96" t="s">
-        <v>779</v>
+      <c r="AP494" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ494" s="10"/>
     </row>
@@ -55294,8 +54108,9 @@
       </c>
       <c r="AN495" s="10"/>
       <c r="AO495" s="10"/>
-      <c r="AP495" s="96" t="s">
-        <v>780</v>
+      <c r="AP495" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ495" s="10"/>
     </row>
@@ -55393,8 +54208,9 @@
       </c>
       <c r="AN496" s="10"/>
       <c r="AO496" s="10"/>
-      <c r="AP496" s="96" t="s">
-        <v>781</v>
+      <c r="AP496" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ496" s="10"/>
     </row>
@@ -55494,8 +54310,9 @@
       </c>
       <c r="AN497" s="10"/>
       <c r="AO497" s="10"/>
-      <c r="AP497" s="96" t="s">
-        <v>782</v>
+      <c r="AP497" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ497" s="10"/>
     </row>
@@ -55595,8 +54412,9 @@
       </c>
       <c r="AN498" s="10"/>
       <c r="AO498" s="10"/>
-      <c r="AP498" s="96" t="s">
-        <v>783</v>
+      <c r="AP498" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ498" s="10"/>
     </row>
@@ -55696,8 +54514,9 @@
       </c>
       <c r="AN499" s="10"/>
       <c r="AO499" s="10"/>
-      <c r="AP499" s="96" t="s">
-        <v>784</v>
+      <c r="AP499" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ499" s="10"/>
     </row>
@@ -55797,8 +54616,9 @@
       </c>
       <c r="AN500" s="10"/>
       <c r="AO500" s="10"/>
-      <c r="AP500" s="96" t="s">
-        <v>785</v>
+      <c r="AP500" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ500" s="10"/>
     </row>
@@ -55896,8 +54716,9 @@
       </c>
       <c r="AN501" s="10"/>
       <c r="AO501" s="10"/>
-      <c r="AP501" s="96" t="s">
-        <v>786</v>
+      <c r="AP501" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ501" s="10"/>
     </row>
@@ -55997,8 +54818,9 @@
       </c>
       <c r="AN502" s="10"/>
       <c r="AO502" s="10"/>
-      <c r="AP502" s="96" t="s">
-        <v>787</v>
+      <c r="AP502" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ502" s="10"/>
     </row>
@@ -56096,8 +54918,9 @@
       </c>
       <c r="AN503" s="10"/>
       <c r="AO503" s="10"/>
-      <c r="AP503" s="96" t="s">
-        <v>788</v>
+      <c r="AP503" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ503" s="10"/>
     </row>
@@ -56199,8 +55022,9 @@
       <c r="AO504" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP504" s="96" t="s">
-        <v>789</v>
+      <c r="AP504" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ504" s="10"/>
     </row>
@@ -56304,8 +55128,9 @@
       <c r="AO505" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP505" s="96" t="s">
-        <v>790</v>
+      <c r="AP505" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ505" s="10"/>
     </row>
@@ -56407,8 +55232,9 @@
       <c r="AO506" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP506" s="96" t="s">
-        <v>791</v>
+      <c r="AP506" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ506" s="10"/>
     </row>
@@ -56512,8 +55338,9 @@
       <c r="AO507" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP507" s="96" t="s">
-        <v>792</v>
+      <c r="AP507" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ507" s="10"/>
     </row>
@@ -56615,8 +55442,9 @@
       <c r="AO508" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP508" s="96" t="s">
-        <v>793</v>
+      <c r="AP508" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ508" s="10"/>
     </row>
@@ -56718,8 +55546,9 @@
       <c r="AO509" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP509" s="96" t="s">
-        <v>794</v>
+      <c r="AP509" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ509" s="10"/>
     </row>
@@ -56823,8 +55652,9 @@
       <c r="AO510" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP510" s="96" t="s">
-        <v>795</v>
+      <c r="AP510" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ510" s="10"/>
     </row>
@@ -56926,8 +55756,9 @@
       <c r="AO511" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP511" s="96" t="s">
-        <v>796</v>
+      <c r="AP511" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ511" s="10"/>
     </row>
@@ -57031,8 +55862,9 @@
       <c r="AO512" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP512" s="96" t="s">
-        <v>797</v>
+      <c r="AP512" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ512" s="10"/>
     </row>
@@ -57136,8 +55968,9 @@
       <c r="AO513" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP513" s="96" t="s">
-        <v>798</v>
+      <c r="AP513" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ513" s="10"/>
     </row>
@@ -57241,8 +56074,9 @@
       <c r="AO514" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP514" s="96" t="s">
-        <v>799</v>
+      <c r="AP514" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ514" s="10"/>
     </row>
@@ -57348,8 +56182,9 @@
       <c r="AO515" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP515" s="96" t="s">
-        <v>800</v>
+      <c r="AP515" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ515" s="10"/>
     </row>
@@ -57453,8 +56288,9 @@
       <c r="AO516" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP516" s="96" t="s">
-        <v>801</v>
+      <c r="AP516" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ516" s="10"/>
     </row>
@@ -57556,8 +56392,9 @@
       <c r="AO517" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP517" s="96" t="s">
-        <v>802</v>
+      <c r="AP517" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ517" s="10"/>
     </row>
@@ -57663,8 +56500,9 @@
       <c r="AO518" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP518" s="96" t="s">
-        <v>803</v>
+      <c r="AP518" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ518" s="10"/>
     </row>
@@ -57768,8 +56606,9 @@
       <c r="AO519" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP519" s="96" t="s">
-        <v>804</v>
+      <c r="AP519" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ519" s="10"/>
     </row>
@@ -57873,8 +56712,9 @@
       <c r="AO520" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP520" s="96" t="s">
-        <v>805</v>
+      <c r="AP520" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ520" s="10"/>
     </row>
@@ -57978,8 +56818,9 @@
       <c r="AO521" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP521" s="96" t="s">
-        <v>806</v>
+      <c r="AP521" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ521" s="10"/>
     </row>
@@ -58083,8 +56924,9 @@
       <c r="AO522" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP522" s="96" t="s">
-        <v>807</v>
+      <c r="AP522" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ522" s="10"/>
     </row>
@@ -58190,8 +57032,9 @@
       <c r="AO523" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP523" s="96" t="s">
-        <v>808</v>
+      <c r="AP523" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ523" s="10"/>
     </row>
@@ -58295,8 +57138,9 @@
       <c r="AO524" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP524" s="96" t="s">
-        <v>809</v>
+      <c r="AP524" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ524" s="10"/>
     </row>
@@ -58400,8 +57244,9 @@
       <c r="AO525" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP525" s="96" t="s">
-        <v>810</v>
+      <c r="AP525" s="96" t="str">
+        <f t="shared" ref="AP525:AP569" si="9">AP524</f>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ525" s="10"/>
     </row>
@@ -58505,8 +57350,9 @@
       <c r="AO526" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP526" s="96" t="s">
-        <v>811</v>
+      <c r="AP526" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ526" s="10"/>
     </row>
@@ -58610,8 +57456,9 @@
       <c r="AO527" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP527" s="96" t="s">
-        <v>812</v>
+      <c r="AP527" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ527" s="10"/>
     </row>
@@ -58717,8 +57564,9 @@
       <c r="AO528" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP528" s="96" t="s">
-        <v>813</v>
+      <c r="AP528" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ528" s="10"/>
     </row>
@@ -58822,8 +57670,9 @@
       <c r="AO529" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP529" s="96" t="s">
-        <v>814</v>
+      <c r="AP529" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ529" s="10"/>
     </row>
@@ -58929,8 +57778,9 @@
       <c r="AO530" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP530" s="96" t="s">
-        <v>815</v>
+      <c r="AP530" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ530" s="10"/>
     </row>
@@ -59032,8 +57882,9 @@
       <c r="AO531" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP531" s="96" t="s">
-        <v>816</v>
+      <c r="AP531" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ531" s="10"/>
     </row>
@@ -59135,8 +57986,9 @@
       <c r="AO532" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP532" s="96" t="s">
-        <v>817</v>
+      <c r="AP532" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ532" s="10"/>
     </row>
@@ -59240,8 +58092,9 @@
       <c r="AO533" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP533" s="96" t="s">
-        <v>818</v>
+      <c r="AP533" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ533" s="10"/>
     </row>
@@ -59345,8 +58198,9 @@
       <c r="AO534" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP534" s="96" t="s">
-        <v>819</v>
+      <c r="AP534" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ534" s="10"/>
     </row>
@@ -59450,8 +58304,9 @@
       <c r="AO535" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP535" s="96" t="s">
-        <v>820</v>
+      <c r="AP535" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ535" s="10"/>
     </row>
@@ -59555,8 +58410,9 @@
       <c r="AO536" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP536" s="96" t="s">
-        <v>821</v>
+      <c r="AP536" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ536" s="10"/>
     </row>
@@ -59658,8 +58514,9 @@
       <c r="AO537" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP537" s="96" t="s">
-        <v>822</v>
+      <c r="AP537" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ537" s="10"/>
     </row>
@@ -59763,8 +58620,9 @@
       <c r="AO538" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP538" s="96" t="s">
-        <v>823</v>
+      <c r="AP538" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ538" s="10"/>
     </row>
@@ -59870,8 +58728,9 @@
       <c r="AO539" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP539" s="96" t="s">
-        <v>824</v>
+      <c r="AP539" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ539" s="10"/>
     </row>
@@ -59975,8 +58834,9 @@
       <c r="AO540" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP540" s="96" t="s">
-        <v>825</v>
+      <c r="AP540" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ540" s="10"/>
     </row>
@@ -60080,8 +58940,9 @@
       <c r="AO541" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP541" s="96" t="s">
-        <v>826</v>
+      <c r="AP541" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ541" s="10"/>
     </row>
@@ -60185,8 +59046,9 @@
       <c r="AO542" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP542" s="96" t="s">
-        <v>827</v>
+      <c r="AP542" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ542" s="10"/>
     </row>
@@ -60292,8 +59154,9 @@
       <c r="AO543" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP543" s="96" t="s">
-        <v>828</v>
+      <c r="AP543" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ543" s="10"/>
     </row>
@@ -60395,8 +59258,9 @@
       <c r="AO544" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP544" s="96" t="s">
-        <v>829</v>
+      <c r="AP544" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ544" s="10"/>
     </row>
@@ -60500,8 +59364,9 @@
       <c r="AO545" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP545" s="96" t="s">
-        <v>830</v>
+      <c r="AP545" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ545" s="10"/>
     </row>
@@ -60605,8 +59470,9 @@
       <c r="AO546" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP546" s="96" t="s">
-        <v>831</v>
+      <c r="AP546" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ546" s="10"/>
     </row>
@@ -60710,8 +59576,9 @@
       <c r="AO547" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP547" s="96" t="s">
-        <v>832</v>
+      <c r="AP547" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ547" s="10"/>
     </row>
@@ -60815,8 +59682,9 @@
       <c r="AO548" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP548" s="96" t="s">
-        <v>833</v>
+      <c r="AP548" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ548" s="10"/>
     </row>
@@ -60920,8 +59788,9 @@
       <c r="AO549" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP549" s="96" t="s">
-        <v>834</v>
+      <c r="AP549" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ549" s="10"/>
     </row>
@@ -61027,8 +59896,9 @@
       <c r="AO550" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP550" s="96" t="s">
-        <v>835</v>
+      <c r="AP550" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ550" s="10"/>
     </row>
@@ -61132,8 +60002,9 @@
       <c r="AO551" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP551" s="96" t="s">
-        <v>836</v>
+      <c r="AP551" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ551" s="10"/>
     </row>
@@ -61237,8 +60108,9 @@
       <c r="AO552" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP552" s="96" t="s">
-        <v>837</v>
+      <c r="AP552" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ552" s="10"/>
     </row>
@@ -61342,8 +60214,9 @@
       <c r="AO553" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP553" s="96" t="s">
-        <v>838</v>
+      <c r="AP553" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ553" s="10"/>
     </row>
@@ -61447,8 +60320,9 @@
       <c r="AO554" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP554" s="96" t="s">
-        <v>839</v>
+      <c r="AP554" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ554" s="10"/>
     </row>
@@ -61552,8 +60426,9 @@
       <c r="AO555" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP555" s="96" t="s">
-        <v>840</v>
+      <c r="AP555" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ555" s="10"/>
     </row>
@@ -61655,8 +60530,9 @@
       <c r="AO556" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP556" s="96" t="s">
-        <v>841</v>
+      <c r="AP556" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ556" s="10"/>
     </row>
@@ -61758,8 +60634,9 @@
       <c r="AO557" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP557" s="96" t="s">
-        <v>842</v>
+      <c r="AP557" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ557" s="10"/>
     </row>
@@ -61861,8 +60738,9 @@
       <c r="AO558" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP558" s="96" t="s">
-        <v>843</v>
+      <c r="AP558" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ558" s="10"/>
     </row>
@@ -61966,8 +60844,9 @@
       <c r="AO559" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP559" s="96" t="s">
-        <v>844</v>
+      <c r="AP559" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ559" s="10"/>
     </row>
@@ -62071,8 +60950,9 @@
       <c r="AO560" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP560" s="96" t="s">
-        <v>845</v>
+      <c r="AP560" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ560" s="10"/>
     </row>
@@ -62176,8 +61056,9 @@
       <c r="AO561" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP561" s="96" t="s">
-        <v>846</v>
+      <c r="AP561" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ561" s="10"/>
     </row>
@@ -62279,8 +61160,9 @@
       <c r="AO562" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP562" s="96" t="s">
-        <v>847</v>
+      <c r="AP562" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ562" s="10"/>
     </row>
@@ -62384,8 +61266,9 @@
       <c r="AO563" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP563" s="96" t="s">
-        <v>848</v>
+      <c r="AP563" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ563" s="10"/>
     </row>
@@ -62489,8 +61372,9 @@
       <c r="AO564" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP564" s="96" t="s">
-        <v>849</v>
+      <c r="AP564" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ564" s="10"/>
     </row>
@@ -62594,8 +61478,9 @@
       <c r="AO565" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP565" s="96" t="s">
-        <v>850</v>
+      <c r="AP565" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ565" s="10"/>
     </row>
@@ -62697,8 +61582,9 @@
       <c r="AO566" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP566" s="96" t="s">
-        <v>851</v>
+      <c r="AP566" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ566" s="10"/>
     </row>
@@ -62800,8 +61686,9 @@
       <c r="AO567" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP567" s="96" t="s">
-        <v>852</v>
+      <c r="AP567" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ567" s="10"/>
     </row>
@@ -62905,8 +61792,9 @@
       <c r="AO568" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP568" s="96" t="s">
-        <v>853</v>
+      <c r="AP568" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ568" s="10"/>
     </row>
@@ -63008,8 +61896,9 @@
       <c r="AO569" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AP569" s="96" t="s">
-        <v>854</v>
+      <c r="AP569" s="96" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1029/91JB00603:10.1130/0016-7606(1992)104&lt;0851:TSFFTE&gt;2.3.CO;2</v>
       </c>
       <c r="AQ569" s="10"/>
     </row>
@@ -79490,7 +78379,6 @@
   <phoneticPr fontId="45" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP11" r:id="rId1" display="https://doi.org/10.1029/JB093iB05p04869" xr:uid="{8CCB092A-A78F-C041-8F03-5AE0B947287D}"/>
-    <hyperlink ref="AP12:AP569" r:id="rId2" display="https://doi.org/10.1029/JB093iB05p04869" xr:uid="{BC34E86F-6B6F-174A-9158-8CDC03925714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
